--- a/compare_out/Tutorial_vs_edgeR/Tutorial_vs_edgeR_Summary.xlsx
+++ b/compare_out/Tutorial_vs_edgeR/Tutorial_vs_edgeR_Summary.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="1106">
   <si>
     <t xml:space="preserve">row_label</t>
   </si>
@@ -49,13 +49,13 @@
     <t xml:space="preserve">75</t>
   </si>
   <si>
-    <t xml:space="preserve">14258</t>
+    <t xml:space="preserve">16704</t>
   </si>
   <si>
     <t xml:space="preserve">odds_ratio</t>
   </si>
   <si>
-    <t xml:space="preserve">706.624</t>
+    <t xml:space="preserve">837.958</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">p_value (BH adj)</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03e-162</t>
+    <t xml:space="preserve">1.78e-168</t>
   </si>
   <si>
     <t xml:space="preserve">69</t>
@@ -76,13 +76,13 @@
     <t xml:space="preserve">15</t>
   </si>
   <si>
-    <t xml:space="preserve">14318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1433.793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33e-141</t>
+    <t xml:space="preserve">16764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1682.182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68e-146</t>
   </si>
   <si>
     <t xml:space="preserve">set</t>
@@ -2591,9 +2591,6 @@
   </si>
   <si>
     <t xml:space="preserve">FBgn0028546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FBgn0261955</t>
   </si>
   <si>
     <t xml:space="preserve">FBgn0010504</t>
@@ -5978,7 +5975,7 @@
         <v>418</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.00713445314673973</v>
+        <v>-0.0071344531467397</v>
       </c>
       <c r="C62" t="n">
         <v>0.979543927177325</v>
@@ -6363,7 +6360,7 @@
         <v>429</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.00146077655605626</v>
+        <v>-0.0014607765560562</v>
       </c>
       <c r="C73" t="n">
         <v>0.996297561365141</v>
@@ -8253,7 +8250,7 @@
         <v>483</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.00638003442852363</v>
+        <v>-0.0063800344285236</v>
       </c>
       <c r="C127" t="n">
         <v>0.981996293545106</v>
@@ -9968,7 +9965,7 @@
         <v>532</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.00091222961516828</v>
+        <v>-0.0009122296151682</v>
       </c>
       <c r="C176" t="n">
         <v>0.997447640697893</v>
@@ -10178,7 +10175,7 @@
         <v>538</v>
       </c>
       <c r="B182" t="n">
-        <v>0.00782453903176954</v>
+        <v>0.0078245390317695</v>
       </c>
       <c r="C182" t="n">
         <v>0.995598175211115</v>
@@ -10202,10 +10199,10 @@
         <v>359</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.151927896926948</v>
+        <v>-0.151927896926947</v>
       </c>
       <c r="K182" t="n">
-        <v>0.151927896926948</v>
+        <v>0.151927896926947</v>
       </c>
     </row>
     <row r="183">
@@ -10598,7 +10595,7 @@
         <v>550</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.00243443519010994</v>
+        <v>-0.0024344351901099</v>
       </c>
       <c r="C194" t="n">
         <v>0.994816158037792</v>
@@ -10948,7 +10945,7 @@
         <v>560</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.00399692649729908</v>
+        <v>-0.003996926497299</v>
       </c>
       <c r="C204" t="n">
         <v>0.990674975356611</v>
@@ -12558,7 +12555,7 @@
         <v>606</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.00040337613027158</v>
+        <v>-0.0004033761302715</v>
       </c>
       <c r="C250" t="n">
         <v>0.999367132622879</v>
@@ -12582,10 +12579,10 @@
         <v>359</v>
       </c>
       <c r="J250" t="n">
-        <v>0.111714759653892</v>
+        <v>0.111714759653891</v>
       </c>
       <c r="K250" t="n">
-        <v>0.111714759653892</v>
+        <v>0.111714759653891</v>
       </c>
     </row>
     <row r="251">
@@ -12978,7 +12975,7 @@
         <v>618</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.00657138425489204</v>
+        <v>-0.006571384254892</v>
       </c>
       <c r="C262" t="n">
         <v>0.980290401233709</v>
@@ -13083,7 +13080,7 @@
         <v>621</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.00526481731009357</v>
+        <v>-0.0052648173100935</v>
       </c>
       <c r="C265" t="n">
         <v>0.988461960048917</v>
@@ -13107,10 +13104,10 @@
         <v>359</v>
       </c>
       <c r="J265" t="n">
-        <v>0.107178163008526</v>
+        <v>0.107178163008525</v>
       </c>
       <c r="K265" t="n">
-        <v>0.107178163008526</v>
+        <v>0.107178163008525</v>
       </c>
     </row>
     <row r="266">
@@ -13223,7 +13220,7 @@
         <v>625</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.00382568879011148</v>
+        <v>-0.0038256887901114</v>
       </c>
       <c r="C269" t="n">
         <v>0.996361151798693</v>
@@ -13608,7 +13605,7 @@
         <v>636</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.00958757707948237</v>
+        <v>-0.0095875770794823</v>
       </c>
       <c r="C280" t="n">
         <v>0.971794142711212</v>
@@ -13818,7 +13815,7 @@
         <v>642</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.00819220616526148</v>
+        <v>-0.0081922061652614</v>
       </c>
       <c r="C286" t="n">
         <v>0.988461960048917</v>
@@ -13842,10 +13839,10 @@
         <v>359</v>
       </c>
       <c r="J286" t="n">
-        <v>0.099853876053938</v>
+        <v>0.0998538760539379</v>
       </c>
       <c r="K286" t="n">
-        <v>0.099853876053938</v>
+        <v>0.0998538760539379</v>
       </c>
     </row>
     <row r="287">
@@ -14343,7 +14340,7 @@
         <v>657</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.00632674768019636</v>
+        <v>-0.0063267476801963</v>
       </c>
       <c r="C301" t="n">
         <v>0.98206843185748</v>
@@ -14367,10 +14364,10 @@
         <v>359</v>
       </c>
       <c r="J301" t="n">
-        <v>0.0950461511721078</v>
+        <v>0.0950461511721077</v>
       </c>
       <c r="K301" t="n">
-        <v>0.0950461511721078</v>
+        <v>0.0950461511721077</v>
       </c>
     </row>
     <row r="302">
@@ -14413,7 +14410,7 @@
         <v>659</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.00569912775244129</v>
+        <v>-0.0056991277524412</v>
       </c>
       <c r="C303" t="n">
         <v>0.99101821902748</v>
@@ -14437,10 +14434,10 @@
         <v>359</v>
       </c>
       <c r="J303" t="n">
-        <v>0.0945875555128796</v>
+        <v>0.0945875555128795</v>
       </c>
       <c r="K303" t="n">
-        <v>0.0945875555128796</v>
+        <v>0.0945875555128795</v>
       </c>
     </row>
     <row r="304">
@@ -14518,7 +14515,7 @@
         <v>662</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.00451230603062325</v>
+        <v>-0.0045123060306232</v>
       </c>
       <c r="C306" t="n">
         <v>0.99286477630611</v>
@@ -14763,7 +14760,7 @@
         <v>669</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.00862062117533988</v>
+        <v>-0.0086206211753398</v>
       </c>
       <c r="C313" t="n">
         <v>0.974798483452837</v>
@@ -14787,10 +14784,10 @@
         <v>359</v>
       </c>
       <c r="J313" t="n">
-        <v>0.0914872516764214</v>
+        <v>0.0914872516764213</v>
       </c>
       <c r="K313" t="n">
-        <v>0.0914872516764214</v>
+        <v>0.0914872516764213</v>
       </c>
     </row>
     <row r="314">
@@ -14798,7 +14795,7 @@
         <v>670</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.00864133662302339</v>
+        <v>-0.0086413366230233</v>
       </c>
       <c r="C314" t="n">
         <v>0.984395480890591</v>
@@ -14822,10 +14819,10 @@
         <v>359</v>
       </c>
       <c r="J314" t="n">
-        <v>0.0913503750973705</v>
+        <v>0.0913503750973704</v>
       </c>
       <c r="K314" t="n">
-        <v>0.0913503750973705</v>
+        <v>0.0913503750973704</v>
       </c>
     </row>
     <row r="315">
@@ -14868,7 +14865,7 @@
         <v>672</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.00635695009590231</v>
+        <v>-0.0063569500959023</v>
       </c>
       <c r="C316" t="n">
         <v>0.990735168880097</v>
@@ -14903,7 +14900,7 @@
         <v>673</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.00041599078840463</v>
+        <v>-0.0004159907884046</v>
       </c>
       <c r="C317" t="n">
         <v>0.99932993475263</v>
@@ -15078,7 +15075,7 @@
         <v>678</v>
       </c>
       <c r="B322" t="n">
-        <v>0.00406366942806244</v>
+        <v>0.0040636694280624</v>
       </c>
       <c r="C322" t="n">
         <v>0.991254777115217</v>
@@ -15708,7 +15705,7 @@
         <v>696</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.00682398730069479</v>
+        <v>-0.0068239873006947</v>
       </c>
       <c r="C340" t="n">
         <v>0.99143958749111</v>
@@ -15732,10 +15729,10 @@
         <v>359</v>
       </c>
       <c r="J340" t="n">
-        <v>0.0826199119897565</v>
+        <v>0.0826199119897564</v>
       </c>
       <c r="K340" t="n">
-        <v>0.0826199119897565</v>
+        <v>0.0826199119897564</v>
       </c>
     </row>
     <row r="341">
@@ -16268,7 +16265,7 @@
         <v>712</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.00127758097451424</v>
+        <v>-0.0012775809745142</v>
       </c>
       <c r="C356" t="n">
         <v>0.996889355650307</v>
@@ -16408,7 +16405,7 @@
         <v>716</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.00538059944104657</v>
+        <v>-0.0053805994410465</v>
       </c>
       <c r="C360" t="n">
         <v>0.987061081622256</v>
@@ -16432,10 +16429,10 @@
         <v>359</v>
       </c>
       <c r="J360" t="n">
-        <v>0.0773425970835279</v>
+        <v>0.0773425970835278</v>
       </c>
       <c r="K360" t="n">
-        <v>0.0773425970835279</v>
+        <v>0.0773425970835278</v>
       </c>
     </row>
     <row r="361">
@@ -16723,7 +16720,7 @@
         <v>725</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.00112228723805003</v>
+        <v>-0.00112228723805</v>
       </c>
       <c r="C369" t="n">
         <v>0.997447640697893</v>
@@ -16898,7 +16895,7 @@
         <v>730</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.00010921091807799</v>
+        <v>-0.0001092109180779</v>
       </c>
       <c r="C374" t="n">
         <v>0.9997585031994</v>
@@ -16922,10 +16919,10 @@
         <v>359</v>
       </c>
       <c r="J374" t="n">
-        <v>0.0733560005759811</v>
+        <v>0.073356000575981</v>
       </c>
       <c r="K374" t="n">
-        <v>0.0733560005759811</v>
+        <v>0.073356000575981</v>
       </c>
     </row>
     <row r="375">
@@ -17143,7 +17140,7 @@
         <v>737</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.00980193785676719</v>
+        <v>-0.0098019378567671</v>
       </c>
       <c r="C381" t="n">
         <v>0.971925383957039</v>
@@ -17167,10 +17164,10 @@
         <v>359</v>
       </c>
       <c r="J381" t="n">
-        <v>0.0721344307569497</v>
+        <v>0.0721344307569496</v>
       </c>
       <c r="K381" t="n">
-        <v>0.0721344307569497</v>
+        <v>0.0721344307569496</v>
       </c>
     </row>
     <row r="382">
@@ -18088,7 +18085,7 @@
         <v>764</v>
       </c>
       <c r="B408" t="n">
-        <v>-0.00844412448304337</v>
+        <v>-0.0084441244830433</v>
       </c>
       <c r="C408" t="n">
         <v>0.98206843185748</v>
@@ -18112,10 +18109,10 @@
         <v>359</v>
       </c>
       <c r="J408" t="n">
-        <v>0.0666244173683941</v>
+        <v>0.066624417368394</v>
       </c>
       <c r="K408" t="n">
-        <v>0.0666244173683941</v>
+        <v>0.066624417368394</v>
       </c>
     </row>
     <row r="409">
@@ -18193,7 +18190,7 @@
         <v>767</v>
       </c>
       <c r="B411" t="n">
-        <v>-0.00389221188516193</v>
+        <v>-0.0038922118851619</v>
       </c>
       <c r="C411" t="n">
         <v>0.988461960048917</v>
@@ -18228,7 +18225,7 @@
         <v>768</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.00715673390645617</v>
+        <v>-0.0071567339064561</v>
       </c>
       <c r="C412" t="n">
         <v>0.981996293545106</v>
@@ -18252,10 +18249,10 @@
         <v>359</v>
       </c>
       <c r="J412" t="n">
-        <v>0.0654658993457404</v>
+        <v>0.0654658993457403</v>
       </c>
       <c r="K412" t="n">
-        <v>0.0654658993457404</v>
+        <v>0.0654658993457403</v>
       </c>
     </row>
     <row r="413">
@@ -18543,7 +18540,7 @@
         <v>777</v>
       </c>
       <c r="B421" t="n">
-        <v>-0.00576550649878089</v>
+        <v>-0.0057655064987808</v>
       </c>
       <c r="C421" t="n">
         <v>0.983734917553378</v>
@@ -18567,10 +18564,10 @@
         <v>359</v>
       </c>
       <c r="J421" t="n">
-        <v>0.0644796512002577</v>
+        <v>0.0644796512002576</v>
       </c>
       <c r="K421" t="n">
-        <v>0.0644796512002577</v>
+        <v>0.0644796512002576</v>
       </c>
     </row>
     <row r="422">
@@ -18648,7 +18645,7 @@
         <v>780</v>
       </c>
       <c r="B424" t="n">
-        <v>-0.00720412282917591</v>
+        <v>-0.0072041228291759</v>
       </c>
       <c r="C424" t="n">
         <v>0.979543927177325</v>
@@ -18998,7 +18995,7 @@
         <v>790</v>
       </c>
       <c r="B434" t="n">
-        <v>-0.00637602466395105</v>
+        <v>-0.006376024663951</v>
       </c>
       <c r="C434" t="n">
         <v>0.992799203028115</v>
@@ -19022,10 +19019,10 @@
         <v>359</v>
       </c>
       <c r="J434" t="n">
-        <v>0.0626990615941664</v>
+        <v>0.0626990615941663</v>
       </c>
       <c r="K434" t="n">
-        <v>0.0626990615941664</v>
+        <v>0.0626990615941663</v>
       </c>
     </row>
     <row r="435">
@@ -19103,7 +19100,7 @@
         <v>793</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.00399750783238179</v>
+        <v>-0.0039975078323817</v>
       </c>
       <c r="C437" t="n">
         <v>0.992352014148005</v>
@@ -19127,10 +19124,10 @@
         <v>359</v>
       </c>
       <c r="J437" t="n">
-        <v>0.0625511890908446</v>
+        <v>0.0625511890908445</v>
       </c>
       <c r="K437" t="n">
-        <v>0.0625511890908446</v>
+        <v>0.0625511890908445</v>
       </c>
     </row>
     <row r="438">
@@ -19383,7 +19380,7 @@
         <v>801</v>
       </c>
       <c r="B445" t="n">
-        <v>-0.00423133041963155</v>
+        <v>-0.0042313304196315</v>
       </c>
       <c r="C445" t="n">
         <v>0.993464578315835</v>
@@ -19593,7 +19590,7 @@
         <v>807</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.00011548357465786</v>
+        <v>-0.0001154835746578</v>
       </c>
       <c r="C451" t="n">
         <v>0.9997585031994</v>
@@ -19617,10 +19614,10 @@
         <v>359</v>
       </c>
       <c r="J451" t="n">
-        <v>0.0605994966365985</v>
+        <v>0.0605994966365984</v>
       </c>
       <c r="K451" t="n">
-        <v>0.0605994966365985</v>
+        <v>0.0605994966365984</v>
       </c>
     </row>
     <row r="452">
@@ -19628,7 +19625,7 @@
         <v>808</v>
       </c>
       <c r="B452" t="n">
-        <v>-0.00575832125335212</v>
+        <v>-0.0057583212533521</v>
       </c>
       <c r="C452" t="n">
         <v>0.986199262039747</v>
@@ -19943,7 +19940,7 @@
         <v>817</v>
       </c>
       <c r="B461" t="n">
-        <v>-0.00102654230437703</v>
+        <v>-0.001026542304377</v>
       </c>
       <c r="C461" t="n">
         <v>0.997248710410403</v>
@@ -20293,7 +20290,7 @@
         <v>827</v>
       </c>
       <c r="B471" t="n">
-        <v>-0.00938282131002567</v>
+        <v>-0.0093828213100256</v>
       </c>
       <c r="C471" t="n">
         <v>0.977551461684159</v>
@@ -20317,10 +20314,10 @@
         <v>359</v>
       </c>
       <c r="J471" t="n">
-        <v>0.0576082008735111</v>
+        <v>0.057608200873511</v>
       </c>
       <c r="K471" t="n">
-        <v>0.0576082008735111</v>
+        <v>0.057608200873511</v>
       </c>
     </row>
     <row r="472">
@@ -20468,7 +20465,7 @@
         <v>832</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.00913480644189399</v>
+        <v>-0.0091348064418939</v>
       </c>
       <c r="C476" t="n">
         <v>0.989127000048257</v>
@@ -20492,10 +20489,10 @@
         <v>359</v>
       </c>
       <c r="J476" t="n">
-        <v>0.0567752088231456</v>
+        <v>0.0567752088231455</v>
       </c>
       <c r="K476" t="n">
-        <v>0.0567752088231456</v>
+        <v>0.0567752088231455</v>
       </c>
     </row>
     <row r="477">
@@ -20573,7 +20570,7 @@
         <v>835</v>
       </c>
       <c r="B479" t="n">
-        <v>-0.00943792677523115</v>
+        <v>-0.0094379267752311</v>
       </c>
       <c r="C479" t="n">
         <v>0.981403479553125</v>
@@ -20597,10 +20594,10 @@
         <v>359</v>
       </c>
       <c r="J479" t="n">
-        <v>0.05632430436253</v>
+        <v>0.0563243043625299</v>
       </c>
       <c r="K479" t="n">
-        <v>0.05632430436253</v>
+        <v>0.0563243043625299</v>
       </c>
     </row>
     <row r="480">
@@ -20888,7 +20885,7 @@
         <v>844</v>
       </c>
       <c r="B488" t="n">
-        <v>-0.00343618893450166</v>
+        <v>-0.0034361889345016</v>
       </c>
       <c r="C488" t="n">
         <v>0.991254777115217</v>
@@ -20912,10 +20909,10 @@
         <v>359</v>
       </c>
       <c r="J488" t="n">
-        <v>0.0555681400379793</v>
+        <v>0.0555681400379792</v>
       </c>
       <c r="K488" t="n">
-        <v>0.0555681400379793</v>
+        <v>0.0555681400379792</v>
       </c>
     </row>
     <row r="489">
@@ -21028,7 +21025,7 @@
         <v>848</v>
       </c>
       <c r="B492" t="n">
-        <v>-0.00915006216422631</v>
+        <v>-0.0091500621642263</v>
       </c>
       <c r="C492" t="n">
         <v>0.972429059672225</v>
@@ -21203,7 +21200,7 @@
         <v>853</v>
       </c>
       <c r="B497" t="n">
-        <v>-0.00981742037311252</v>
+        <v>-0.0098174203731125</v>
       </c>
       <c r="C497" t="n">
         <v>0.974063614726421</v>
@@ -21273,7 +21270,7 @@
         <v>855</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.00496111716852329</v>
+        <v>-0.0049611171685232</v>
       </c>
       <c r="C499" t="n">
         <v>0.988461960048917</v>
@@ -21297,10 +21294,10 @@
         <v>359</v>
       </c>
       <c r="J499" t="n">
-        <v>0.0544869995559087</v>
+        <v>0.0544869995559086</v>
       </c>
       <c r="K499" t="n">
-        <v>0.0544869995559087</v>
+        <v>0.0544869995559086</v>
       </c>
     </row>
     <row r="500">
@@ -21308,16 +21305,16 @@
         <v>856</v>
       </c>
       <c r="B500" t="n">
-        <v>-0.0301596398700306</v>
+        <v>-0.0471557013827282</v>
       </c>
       <c r="C500" t="n">
-        <v>0.921257058103697</v>
+        <v>0.937036268216762</v>
       </c>
       <c r="D500" t="n">
-        <v>0.0242920732994302</v>
+        <v>0.00717675405729107</v>
       </c>
       <c r="E500" t="n">
-        <v>0.874986617674752</v>
+        <v>0.982394262143529</v>
       </c>
       <c r="F500" t="b">
         <v>0</v>
@@ -21332,10 +21329,10 @@
         <v>359</v>
       </c>
       <c r="J500" t="n">
-        <v>0.0544517131694608</v>
+        <v>0.0543324554400193</v>
       </c>
       <c r="K500" t="n">
-        <v>0.0544517131694608</v>
+        <v>0.0543324554400193</v>
       </c>
     </row>
     <row r="501">
@@ -21343,16 +21340,16 @@
         <v>857</v>
       </c>
       <c r="B501" t="n">
-        <v>-0.0471557013827282</v>
+        <v>-0.0355183204818329</v>
       </c>
       <c r="C501" t="n">
-        <v>0.937036268216762</v>
+        <v>0.890404057289235</v>
       </c>
       <c r="D501" t="n">
-        <v>0.00717675405729107</v>
+        <v>0.0188141154029082</v>
       </c>
       <c r="E501" t="n">
-        <v>0.982394262143529</v>
+        <v>0.919896180986314</v>
       </c>
       <c r="F501" t="b">
         <v>0</v>
@@ -21367,10 +21364,10 @@
         <v>359</v>
       </c>
       <c r="J501" t="n">
-        <v>0.0543324554400193</v>
+        <v>0.0543324358847411</v>
       </c>
       <c r="K501" t="n">
-        <v>0.0543324554400193</v>
+        <v>0.0543324358847411</v>
       </c>
     </row>
     <row r="502">
@@ -21378,16 +21375,16 @@
         <v>858</v>
       </c>
       <c r="B502" t="n">
-        <v>-0.0355183204818329</v>
+        <v>-0.0161142113082151</v>
       </c>
       <c r="C502" t="n">
-        <v>0.890404057289235</v>
+        <v>0.959566004106409</v>
       </c>
       <c r="D502" t="n">
-        <v>0.0188141154029082</v>
+        <v>0.0378770801819462</v>
       </c>
       <c r="E502" t="n">
-        <v>0.919896180986314</v>
+        <v>0.867145005623217</v>
       </c>
       <c r="F502" t="b">
         <v>0</v>
@@ -21402,10 +21399,10 @@
         <v>359</v>
       </c>
       <c r="J502" t="n">
-        <v>0.0543324358847411</v>
+        <v>0.0539912914901613</v>
       </c>
       <c r="K502" t="n">
-        <v>0.0543324358847411</v>
+        <v>0.0539912914901613</v>
       </c>
     </row>
     <row r="503">
@@ -21413,16 +21410,16 @@
         <v>859</v>
       </c>
       <c r="B503" t="n">
-        <v>-0.0161142113082151</v>
+        <v>-0.0154980863033716</v>
       </c>
       <c r="C503" t="n">
-        <v>0.959566004106409</v>
+        <v>0.977056099524037</v>
       </c>
       <c r="D503" t="n">
-        <v>0.0378770801819462</v>
+        <v>0.0383955917592734</v>
       </c>
       <c r="E503" t="n">
-        <v>0.867145005623217</v>
+        <v>0.918914134185104</v>
       </c>
       <c r="F503" t="b">
         <v>0</v>
@@ -21437,10 +21434,10 @@
         <v>359</v>
       </c>
       <c r="J503" t="n">
-        <v>0.0539912914901613</v>
+        <v>0.053893678062645</v>
       </c>
       <c r="K503" t="n">
-        <v>0.0539912914901613</v>
+        <v>0.053893678062645</v>
       </c>
     </row>
     <row r="504">
@@ -21448,16 +21445,16 @@
         <v>860</v>
       </c>
       <c r="B504" t="n">
-        <v>-0.0154980863033716</v>
+        <v>-0.041897681893126</v>
       </c>
       <c r="C504" t="n">
-        <v>0.977056099524037</v>
+        <v>0.869496912973576</v>
       </c>
       <c r="D504" t="n">
-        <v>0.0383955917592734</v>
+        <v>0.0117848584650934</v>
       </c>
       <c r="E504" t="n">
-        <v>0.918914134185104</v>
+        <v>0.92910893818174</v>
       </c>
       <c r="F504" t="b">
         <v>0</v>
@@ -21472,10 +21469,10 @@
         <v>359</v>
       </c>
       <c r="J504" t="n">
-        <v>0.053893678062645</v>
+        <v>0.0536825403582194</v>
       </c>
       <c r="K504" t="n">
-        <v>0.053893678062645</v>
+        <v>0.0536825403582194</v>
       </c>
     </row>
     <row r="505">
@@ -21483,16 +21480,16 @@
         <v>861</v>
       </c>
       <c r="B505" t="n">
-        <v>-0.041897681893126</v>
+        <v>-0.0186139390563985</v>
       </c>
       <c r="C505" t="n">
-        <v>0.869496912973576</v>
+        <v>0.961295452151724</v>
       </c>
       <c r="D505" t="n">
-        <v>0.0117848584650934</v>
+        <v>0.0350607023744221</v>
       </c>
       <c r="E505" t="n">
-        <v>0.92910893818174</v>
+        <v>0.860329996552318</v>
       </c>
       <c r="F505" t="b">
         <v>0</v>
@@ -21507,10 +21504,10 @@
         <v>359</v>
       </c>
       <c r="J505" t="n">
-        <v>0.0536825403582194</v>
+        <v>0.0536746414308206</v>
       </c>
       <c r="K505" t="n">
-        <v>0.0536825403582194</v>
+        <v>0.0536746414308206</v>
       </c>
     </row>
     <row r="506">
@@ -21518,16 +21515,16 @@
         <v>862</v>
       </c>
       <c r="B506" t="n">
-        <v>-0.0186139390563985</v>
+        <v>-0.0464325168883757</v>
       </c>
       <c r="C506" t="n">
-        <v>0.961295452151724</v>
+        <v>0.878493710514897</v>
       </c>
       <c r="D506" t="n">
-        <v>0.0350607023744221</v>
+        <v>0.00723844313524496</v>
       </c>
       <c r="E506" t="n">
-        <v>0.860329996552318</v>
+        <v>0.97579279972015</v>
       </c>
       <c r="F506" t="b">
         <v>0</v>
@@ -21542,10 +21539,10 @@
         <v>359</v>
       </c>
       <c r="J506" t="n">
-        <v>0.0536746414308206</v>
+        <v>0.0536709600236207</v>
       </c>
       <c r="K506" t="n">
-        <v>0.0536746414308206</v>
+        <v>0.0536709600236207</v>
       </c>
     </row>
     <row r="507">
@@ -21553,16 +21550,16 @@
         <v>863</v>
       </c>
       <c r="B507" t="n">
-        <v>-0.0464325168883757</v>
+        <v>-0.0219697668170295</v>
       </c>
       <c r="C507" t="n">
-        <v>0.878493710514897</v>
+        <v>0.942421450279288</v>
       </c>
       <c r="D507" t="n">
-        <v>0.00723844313524496</v>
+        <v>0.0316491797307898</v>
       </c>
       <c r="E507" t="n">
-        <v>0.97579279972015</v>
+        <v>0.870927424799343</v>
       </c>
       <c r="F507" t="b">
         <v>0</v>
@@ -21577,10 +21574,10 @@
         <v>359</v>
       </c>
       <c r="J507" t="n">
-        <v>0.0536709600236207</v>
+        <v>0.0536189465478193</v>
       </c>
       <c r="K507" t="n">
-        <v>0.0536709600236207</v>
+        <v>0.0536189465478193</v>
       </c>
     </row>
     <row r="508">
@@ -21588,16 +21585,16 @@
         <v>864</v>
       </c>
       <c r="B508" t="n">
-        <v>-0.0219697668170295</v>
+        <v>-0.0132110686624127</v>
       </c>
       <c r="C508" t="n">
-        <v>0.942421450279288</v>
+        <v>0.971203245336195</v>
       </c>
       <c r="D508" t="n">
-        <v>0.0316491797307898</v>
+        <v>0.0403616175838594</v>
       </c>
       <c r="E508" t="n">
-        <v>0.870927424799343</v>
+        <v>0.873279644266979</v>
       </c>
       <c r="F508" t="b">
         <v>0</v>
@@ -21612,10 +21609,10 @@
         <v>359</v>
       </c>
       <c r="J508" t="n">
-        <v>0.0536189465478193</v>
+        <v>0.0535726862462721</v>
       </c>
       <c r="K508" t="n">
-        <v>0.0536189465478193</v>
+        <v>0.0535726862462721</v>
       </c>
     </row>
     <row r="509">
@@ -21623,16 +21620,16 @@
         <v>865</v>
       </c>
       <c r="B509" t="n">
-        <v>-0.0132110686624127</v>
+        <v>-0.0445657646349749</v>
       </c>
       <c r="C509" t="n">
-        <v>0.971203245336195</v>
+        <v>0.922703211510173</v>
       </c>
       <c r="D509" t="n">
-        <v>0.0403616175838594</v>
+        <v>0.0089861099946595</v>
       </c>
       <c r="E509" t="n">
-        <v>0.873279644266979</v>
+        <v>0.977674372170331</v>
       </c>
       <c r="F509" t="b">
         <v>0</v>
@@ -21647,10 +21644,10 @@
         <v>359</v>
       </c>
       <c r="J509" t="n">
-        <v>0.0535726862462721</v>
+        <v>0.0535518746296344</v>
       </c>
       <c r="K509" t="n">
-        <v>0.0535726862462721</v>
+        <v>0.0535518746296344</v>
       </c>
     </row>
     <row r="510">
@@ -21658,16 +21655,16 @@
         <v>866</v>
       </c>
       <c r="B510" t="n">
-        <v>-0.0445657646349749</v>
+        <v>-0.0292297292744625</v>
       </c>
       <c r="C510" t="n">
-        <v>0.922703211510173</v>
+        <v>0.956636981097888</v>
       </c>
       <c r="D510" t="n">
-        <v>0.0089861099946595</v>
+        <v>0.0241204090902853</v>
       </c>
       <c r="E510" t="n">
-        <v>0.977674372170331</v>
+        <v>0.941797194530626</v>
       </c>
       <c r="F510" t="b">
         <v>0</v>
@@ -21682,10 +21679,10 @@
         <v>359</v>
       </c>
       <c r="J510" t="n">
-        <v>0.0535518746296344</v>
+        <v>0.0533501383647478</v>
       </c>
       <c r="K510" t="n">
-        <v>0.0535518746296344</v>
+        <v>0.0533501383647478</v>
       </c>
     </row>
     <row r="511">
@@ -21693,16 +21690,16 @@
         <v>867</v>
       </c>
       <c r="B511" t="n">
-        <v>-0.0292297292744625</v>
+        <v>-0.048980577998768</v>
       </c>
       <c r="C511" t="n">
-        <v>0.956636981097888</v>
+        <v>0.848715942697831</v>
       </c>
       <c r="D511" t="n">
-        <v>0.0241204090902853</v>
+        <v>0.00436614550664828</v>
       </c>
       <c r="E511" t="n">
-        <v>0.941797194530626</v>
+        <v>0.977533644439137</v>
       </c>
       <c r="F511" t="b">
         <v>0</v>
@@ -21717,10 +21714,10 @@
         <v>359</v>
       </c>
       <c r="J511" t="n">
-        <v>0.0533501383647478</v>
+        <v>0.0533467235054163</v>
       </c>
       <c r="K511" t="n">
-        <v>0.0533501383647478</v>
+        <v>0.0533467235054163</v>
       </c>
     </row>
     <row r="512">
@@ -21728,16 +21725,16 @@
         <v>868</v>
       </c>
       <c r="B512" t="n">
-        <v>-0.048980577998768</v>
+        <v>-0.0518858000036283</v>
       </c>
       <c r="C512" t="n">
-        <v>0.848715942697831</v>
+        <v>0.918984509125919</v>
       </c>
       <c r="D512" t="n">
-        <v>0.00436614550664828</v>
+        <v>0.00143613953738661</v>
       </c>
       <c r="E512" t="n">
-        <v>0.977533644439137</v>
+        <v>0.996488551717819</v>
       </c>
       <c r="F512" t="b">
         <v>0</v>
@@ -21752,10 +21749,10 @@
         <v>359</v>
       </c>
       <c r="J512" t="n">
-        <v>0.0533467235054163</v>
+        <v>0.0533219395410149</v>
       </c>
       <c r="K512" t="n">
-        <v>0.0533467235054163</v>
+        <v>0.0533219395410149</v>
       </c>
     </row>
     <row r="513">
@@ -21763,16 +21760,16 @@
         <v>869</v>
       </c>
       <c r="B513" t="n">
-        <v>-0.0518858000036283</v>
+        <v>-0.0156263379224065</v>
       </c>
       <c r="C513" t="n">
-        <v>0.918984509125919</v>
+        <v>0.971794142711212</v>
       </c>
       <c r="D513" t="n">
-        <v>0.00143613953738661</v>
+        <v>0.0375721209595004</v>
       </c>
       <c r="E513" t="n">
-        <v>0.996488551717819</v>
+        <v>0.917795436648501</v>
       </c>
       <c r="F513" t="b">
         <v>0</v>
@@ -21787,10 +21784,10 @@
         <v>359</v>
       </c>
       <c r="J513" t="n">
-        <v>0.0533219395410149</v>
+        <v>0.0531984588819069</v>
       </c>
       <c r="K513" t="n">
-        <v>0.0533219395410149</v>
+        <v>0.0531984588819069</v>
       </c>
     </row>
     <row r="514">
@@ -21798,16 +21795,16 @@
         <v>870</v>
       </c>
       <c r="B514" t="n">
-        <v>-0.0156263379224065</v>
+        <v>-0.0286249789156859</v>
       </c>
       <c r="C514" t="n">
-        <v>0.971794142711212</v>
+        <v>0.962550535586621</v>
       </c>
       <c r="D514" t="n">
-        <v>0.0375721209595004</v>
+        <v>0.0245481053750831</v>
       </c>
       <c r="E514" t="n">
-        <v>0.917795436648501</v>
+        <v>0.935907586709142</v>
       </c>
       <c r="F514" t="b">
         <v>0</v>
@@ -21822,10 +21819,10 @@
         <v>359</v>
       </c>
       <c r="J514" t="n">
-        <v>0.0531984588819069</v>
+        <v>0.053173084290769</v>
       </c>
       <c r="K514" t="n">
-        <v>0.0531984588819069</v>
+        <v>0.053173084290769</v>
       </c>
     </row>
     <row r="515">
@@ -21833,16 +21830,16 @@
         <v>871</v>
       </c>
       <c r="B515" t="n">
-        <v>-0.0286249789156859</v>
+        <v>-0.0387906453834406</v>
       </c>
       <c r="C515" t="n">
-        <v>0.962550535586621</v>
+        <v>0.883581573143182</v>
       </c>
       <c r="D515" t="n">
-        <v>0.0245481053750831</v>
+        <v>0.014049062700956</v>
       </c>
       <c r="E515" t="n">
-        <v>0.935907586709142</v>
+        <v>0.925690225126922</v>
       </c>
       <c r="F515" t="b">
         <v>0</v>
@@ -21857,10 +21854,10 @@
         <v>359</v>
       </c>
       <c r="J515" t="n">
-        <v>0.053173084290769</v>
+        <v>0.0528397080843966</v>
       </c>
       <c r="K515" t="n">
-        <v>0.053173084290769</v>
+        <v>0.0528397080843966</v>
       </c>
     </row>
     <row r="516">
@@ -21868,16 +21865,16 @@
         <v>872</v>
       </c>
       <c r="B516" t="n">
-        <v>-0.0387906453834406</v>
+        <v>-0.0240550152027885</v>
       </c>
       <c r="C516" t="n">
-        <v>0.883581573143182</v>
+        <v>0.92871684290477</v>
       </c>
       <c r="D516" t="n">
-        <v>0.014049062700956</v>
+        <v>0.0287665150801359</v>
       </c>
       <c r="E516" t="n">
-        <v>0.925690225126922</v>
+        <v>0.829919983364468</v>
       </c>
       <c r="F516" t="b">
         <v>0</v>
@@ -21892,10 +21889,10 @@
         <v>359</v>
       </c>
       <c r="J516" t="n">
-        <v>0.0528397080843966</v>
+        <v>0.0528215302829244</v>
       </c>
       <c r="K516" t="n">
-        <v>0.0528397080843966</v>
+        <v>0.0528215302829244</v>
       </c>
     </row>
     <row r="517">
@@ -21903,16 +21900,16 @@
         <v>873</v>
       </c>
       <c r="B517" t="n">
-        <v>-0.0240550152027885</v>
+        <v>-0.0339975651262012</v>
       </c>
       <c r="C517" t="n">
-        <v>0.92871684290477</v>
+        <v>0.907123169350013</v>
       </c>
       <c r="D517" t="n">
-        <v>0.0287665150801359</v>
+        <v>0.0187114384267345</v>
       </c>
       <c r="E517" t="n">
-        <v>0.829919983364468</v>
+        <v>0.899338257212175</v>
       </c>
       <c r="F517" t="b">
         <v>0</v>
@@ -21927,10 +21924,10 @@
         <v>359</v>
       </c>
       <c r="J517" t="n">
-        <v>0.0528215302829244</v>
+        <v>0.0527090035529357</v>
       </c>
       <c r="K517" t="n">
-        <v>0.0528215302829244</v>
+        <v>0.0527090035529357</v>
       </c>
     </row>
     <row r="518">
@@ -21938,16 +21935,16 @@
         <v>874</v>
       </c>
       <c r="B518" t="n">
-        <v>-0.0339975651262012</v>
+        <v>-0.0065836358506276</v>
       </c>
       <c r="C518" t="n">
-        <v>0.907123169350013</v>
+        <v>0.985150250235388</v>
       </c>
       <c r="D518" t="n">
-        <v>0.0187114384267345</v>
+        <v>0.0459105246134584</v>
       </c>
       <c r="E518" t="n">
-        <v>0.899338257212175</v>
+        <v>0.854877176354559</v>
       </c>
       <c r="F518" t="b">
         <v>0</v>
@@ -21962,10 +21959,10 @@
         <v>359</v>
       </c>
       <c r="J518" t="n">
-        <v>0.0527090035529357</v>
+        <v>0.052494160464086</v>
       </c>
       <c r="K518" t="n">
-        <v>0.0527090035529357</v>
+        <v>0.052494160464086</v>
       </c>
     </row>
     <row r="519">
@@ -21973,16 +21970,16 @@
         <v>875</v>
       </c>
       <c r="B519" t="n">
-        <v>-0.00658363585062768</v>
+        <v>-0.0447582365446359</v>
       </c>
       <c r="C519" t="n">
-        <v>0.985150250235388</v>
+        <v>0.864100813568411</v>
       </c>
       <c r="D519" t="n">
-        <v>0.0459105246134584</v>
+        <v>0.0077130805572154</v>
       </c>
       <c r="E519" t="n">
-        <v>0.854877176354559</v>
+        <v>0.957265637337991</v>
       </c>
       <c r="F519" t="b">
         <v>0</v>
@@ -21997,10 +21994,10 @@
         <v>359</v>
       </c>
       <c r="J519" t="n">
-        <v>0.0524941604640861</v>
+        <v>0.0524713171018513</v>
       </c>
       <c r="K519" t="n">
-        <v>0.0524941604640861</v>
+        <v>0.0524713171018513</v>
       </c>
     </row>
     <row r="520">
@@ -22008,16 +22005,16 @@
         <v>876</v>
       </c>
       <c r="B520" t="n">
-        <v>-0.0447582365446359</v>
+        <v>-0.0446854931928608</v>
       </c>
       <c r="C520" t="n">
-        <v>0.864100813568411</v>
+        <v>0.870966043785123</v>
       </c>
       <c r="D520" t="n">
-        <v>0.0077130805572154</v>
+        <v>0.00765911589332532</v>
       </c>
       <c r="E520" t="n">
-        <v>0.957265637337991</v>
+        <v>0.970369434898427</v>
       </c>
       <c r="F520" t="b">
         <v>0</v>
@@ -22032,10 +22029,10 @@
         <v>359</v>
       </c>
       <c r="J520" t="n">
-        <v>0.0524713171018513</v>
+        <v>0.0523446090861861</v>
       </c>
       <c r="K520" t="n">
-        <v>0.0524713171018513</v>
+        <v>0.0523446090861861</v>
       </c>
     </row>
     <row r="521">
@@ -22043,16 +22040,16 @@
         <v>877</v>
       </c>
       <c r="B521" t="n">
-        <v>-0.0446854931928608</v>
+        <v>-0.0117821917212154</v>
       </c>
       <c r="C521" t="n">
-        <v>0.870966043785123</v>
+        <v>0.965385632635569</v>
       </c>
       <c r="D521" t="n">
-        <v>0.00765911589332532</v>
+        <v>0.0404315722737884</v>
       </c>
       <c r="E521" t="n">
-        <v>0.970369434898427</v>
+        <v>0.749701388475919</v>
       </c>
       <c r="F521" t="b">
         <v>0</v>
@@ -22067,10 +22064,10 @@
         <v>359</v>
       </c>
       <c r="J521" t="n">
-        <v>0.0523446090861861</v>
+        <v>0.0522137639950038</v>
       </c>
       <c r="K521" t="n">
-        <v>0.0523446090861861</v>
+        <v>0.0522137639950038</v>
       </c>
     </row>
     <row r="522">
@@ -22078,16 +22075,16 @@
         <v>878</v>
       </c>
       <c r="B522" t="n">
-        <v>-0.0117821917212154</v>
+        <v>-0.0319349345174915</v>
       </c>
       <c r="C522" t="n">
-        <v>0.965385632635569</v>
+        <v>0.910654140220218</v>
       </c>
       <c r="D522" t="n">
-        <v>0.0404315722737884</v>
+        <v>0.0202554203413725</v>
       </c>
       <c r="E522" t="n">
-        <v>0.749701388475919</v>
+        <v>0.896148113077815</v>
       </c>
       <c r="F522" t="b">
         <v>0</v>
@@ -22102,10 +22099,10 @@
         <v>359</v>
       </c>
       <c r="J522" t="n">
-        <v>0.0522137639950038</v>
+        <v>0.052190354858864</v>
       </c>
       <c r="K522" t="n">
-        <v>0.0522137639950038</v>
+        <v>0.052190354858864</v>
       </c>
     </row>
     <row r="523">
@@ -22113,16 +22110,16 @@
         <v>879</v>
       </c>
       <c r="B523" t="n">
-        <v>-0.0319349345174915</v>
+        <v>-0.0458557830722321</v>
       </c>
       <c r="C523" t="n">
-        <v>0.910654140220218</v>
+        <v>0.863804300187725</v>
       </c>
       <c r="D523" t="n">
-        <v>0.0202554203413725</v>
+        <v>0.00604400290657787</v>
       </c>
       <c r="E523" t="n">
-        <v>0.896148113077815</v>
+        <v>0.968649048367353</v>
       </c>
       <c r="F523" t="b">
         <v>0</v>
@@ -22137,10 +22134,10 @@
         <v>359</v>
       </c>
       <c r="J523" t="n">
-        <v>0.052190354858864</v>
+        <v>0.05189978597881</v>
       </c>
       <c r="K523" t="n">
-        <v>0.052190354858864</v>
+        <v>0.05189978597881</v>
       </c>
     </row>
     <row r="524">
@@ -22148,16 +22145,16 @@
         <v>880</v>
       </c>
       <c r="B524" t="n">
-        <v>-0.0458557830722321</v>
+        <v>-0.0200800181501664</v>
       </c>
       <c r="C524" t="n">
-        <v>0.863804300187725</v>
+        <v>0.949290145681094</v>
       </c>
       <c r="D524" t="n">
-        <v>0.00604400290657787</v>
+        <v>0.0315586598249203</v>
       </c>
       <c r="E524" t="n">
-        <v>0.968649048367353</v>
+        <v>0.883626590386932</v>
       </c>
       <c r="F524" t="b">
         <v>0</v>
@@ -22172,10 +22169,10 @@
         <v>359</v>
       </c>
       <c r="J524" t="n">
-        <v>0.05189978597881</v>
+        <v>0.0516386779750867</v>
       </c>
       <c r="K524" t="n">
-        <v>0.05189978597881</v>
+        <v>0.0516386779750867</v>
       </c>
     </row>
     <row r="525">
@@ -22183,16 +22180,16 @@
         <v>881</v>
       </c>
       <c r="B525" t="n">
-        <v>-0.0200800181501664</v>
+        <v>-0.0434794200368004</v>
       </c>
       <c r="C525" t="n">
-        <v>0.949290145681094</v>
+        <v>0.885750091977524</v>
       </c>
       <c r="D525" t="n">
-        <v>0.0315586598249203</v>
+        <v>0.00811098465639475</v>
       </c>
       <c r="E525" t="n">
-        <v>0.883626590386932</v>
+        <v>0.972774364783951</v>
       </c>
       <c r="F525" t="b">
         <v>0</v>
@@ -22207,10 +22204,10 @@
         <v>359</v>
       </c>
       <c r="J525" t="n">
-        <v>0.0516386779750867</v>
+        <v>0.0515904046931951</v>
       </c>
       <c r="K525" t="n">
-        <v>0.0516386779750867</v>
+        <v>0.0515904046931951</v>
       </c>
     </row>
     <row r="526">
@@ -22218,16 +22215,16 @@
         <v>882</v>
       </c>
       <c r="B526" t="n">
-        <v>-0.0434794200368004</v>
+        <v>-0.0463165834620941</v>
       </c>
       <c r="C526" t="n">
-        <v>0.885750091977524</v>
+        <v>0.909594030714196</v>
       </c>
       <c r="D526" t="n">
-        <v>0.00811098465639475</v>
+        <v>0.0052238128781554</v>
       </c>
       <c r="E526" t="n">
-        <v>0.972774364783951</v>
+        <v>0.985227787996237</v>
       </c>
       <c r="F526" t="b">
         <v>0</v>
@@ -22242,10 +22239,10 @@
         <v>359</v>
       </c>
       <c r="J526" t="n">
-        <v>0.0515904046931951</v>
+        <v>0.0515403963402495</v>
       </c>
       <c r="K526" t="n">
-        <v>0.0515904046931951</v>
+        <v>0.0515403963402495</v>
       </c>
     </row>
     <row r="527">
@@ -22253,16 +22250,16 @@
         <v>883</v>
       </c>
       <c r="B527" t="n">
-        <v>-0.0463165834620941</v>
+        <v>-0.0096960855363906</v>
       </c>
       <c r="C527" t="n">
-        <v>0.909594030714196</v>
+        <v>0.988351233046763</v>
       </c>
       <c r="D527" t="n">
-        <v>0.0052238128781554</v>
+        <v>0.0414372519507778</v>
       </c>
       <c r="E527" t="n">
-        <v>0.985227787996237</v>
+        <v>0.922249937652715</v>
       </c>
       <c r="F527" t="b">
         <v>0</v>
@@ -22277,10 +22274,10 @@
         <v>359</v>
       </c>
       <c r="J527" t="n">
-        <v>0.0515403963402495</v>
+        <v>0.0511333374871684</v>
       </c>
       <c r="K527" t="n">
-        <v>0.0515403963402495</v>
+        <v>0.0511333374871684</v>
       </c>
     </row>
     <row r="528">
@@ -22288,16 +22285,16 @@
         <v>884</v>
       </c>
       <c r="B528" t="n">
-        <v>-0.00969608553639062</v>
+        <v>-0.0084393181765944</v>
       </c>
       <c r="C528" t="n">
-        <v>0.988351233046763</v>
+        <v>0.979149727372727</v>
       </c>
       <c r="D528" t="n">
-        <v>0.0414372519507778</v>
+        <v>0.0425409871601805</v>
       </c>
       <c r="E528" t="n">
-        <v>0.922249937652715</v>
+        <v>0.793355254798281</v>
       </c>
       <c r="F528" t="b">
         <v>0</v>
@@ -22312,10 +22309,10 @@
         <v>359</v>
       </c>
       <c r="J528" t="n">
-        <v>0.0511333374871684</v>
+        <v>0.0509803053367749</v>
       </c>
       <c r="K528" t="n">
-        <v>0.0511333374871684</v>
+        <v>0.0509803053367749</v>
       </c>
     </row>
     <row r="529">
@@ -22323,16 +22320,16 @@
         <v>885</v>
       </c>
       <c r="B529" t="n">
-        <v>-0.00843931817659443</v>
+        <v>-0.0019482474939777</v>
       </c>
       <c r="C529" t="n">
-        <v>0.979149727372727</v>
+        <v>0.996889355650307</v>
       </c>
       <c r="D529" t="n">
-        <v>0.0425409871601805</v>
+        <v>0.0489539150696752</v>
       </c>
       <c r="E529" t="n">
-        <v>0.793355254798281</v>
+        <v>0.897598279592407</v>
       </c>
       <c r="F529" t="b">
         <v>0</v>
@@ -22347,10 +22344,10 @@
         <v>359</v>
       </c>
       <c r="J529" t="n">
-        <v>0.0509803053367749</v>
+        <v>0.0509021625636529</v>
       </c>
       <c r="K529" t="n">
-        <v>0.0509803053367749</v>
+        <v>0.0509021625636529</v>
       </c>
     </row>
     <row r="530">
@@ -22358,16 +22355,16 @@
         <v>886</v>
       </c>
       <c r="B530" t="n">
-        <v>-0.00194824749397776</v>
+        <v>-0.0154812848586762</v>
       </c>
       <c r="C530" t="n">
-        <v>0.996889355650307</v>
+        <v>0.961026285605636</v>
       </c>
       <c r="D530" t="n">
-        <v>0.0489539150696752</v>
+        <v>0.0353555011487003</v>
       </c>
       <c r="E530" t="n">
-        <v>0.897598279592407</v>
+        <v>0.860515721377986</v>
       </c>
       <c r="F530" t="b">
         <v>0</v>
@@ -22382,10 +22379,10 @@
         <v>359</v>
       </c>
       <c r="J530" t="n">
-        <v>0.050902162563653</v>
+        <v>0.0508367860073765</v>
       </c>
       <c r="K530" t="n">
-        <v>0.050902162563653</v>
+        <v>0.0508367860073765</v>
       </c>
     </row>
     <row r="531">
@@ -22393,16 +22390,16 @@
         <v>887</v>
       </c>
       <c r="B531" t="n">
-        <v>-0.0154812848586762</v>
+        <v>-0.0039967619809647</v>
       </c>
       <c r="C531" t="n">
-        <v>0.961026285605636</v>
+        <v>0.988461960048917</v>
       </c>
       <c r="D531" t="n">
-        <v>0.0353555011487003</v>
+        <v>0.0467651250975509</v>
       </c>
       <c r="E531" t="n">
-        <v>0.860515721377986</v>
+        <v>0.738973661325404</v>
       </c>
       <c r="F531" t="b">
         <v>0</v>
@@ -22417,10 +22414,10 @@
         <v>359</v>
       </c>
       <c r="J531" t="n">
-        <v>0.0508367860073765</v>
+        <v>0.0507618870785156</v>
       </c>
       <c r="K531" t="n">
-        <v>0.0508367860073765</v>
+        <v>0.0507618870785156</v>
       </c>
     </row>
     <row r="532">
@@ -22428,16 +22425,16 @@
         <v>888</v>
       </c>
       <c r="B532" t="n">
-        <v>-0.00399676198096475</v>
+        <v>-0.0036490052065864</v>
       </c>
       <c r="C532" t="n">
-        <v>0.988461960048917</v>
+        <v>0.989771080460667</v>
       </c>
       <c r="D532" t="n">
-        <v>0.0467651250975509</v>
+        <v>0.0470274205270234</v>
       </c>
       <c r="E532" t="n">
-        <v>0.738973661325404</v>
+        <v>0.758247406001382</v>
       </c>
       <c r="F532" t="b">
         <v>0</v>
@@ -22452,10 +22449,10 @@
         <v>359</v>
       </c>
       <c r="J532" t="n">
-        <v>0.0507618870785157</v>
+        <v>0.0506764257336098</v>
       </c>
       <c r="K532" t="n">
-        <v>0.0507618870785157</v>
+        <v>0.0506764257336098</v>
       </c>
     </row>
     <row r="533">
@@ -22463,16 +22460,16 @@
         <v>889</v>
       </c>
       <c r="B533" t="n">
-        <v>-0.00364900520658648</v>
+        <v>-0.0506295236632846</v>
       </c>
       <c r="C533" t="n">
-        <v>0.989771080460667</v>
+        <v>0.938291063995957</v>
       </c>
       <c r="D533" t="n">
-        <v>0.0470274205270234</v>
+        <v>0.0000216483839977392</v>
       </c>
       <c r="E533" t="n">
-        <v>0.758247406001382</v>
+        <v>0.99996926244025</v>
       </c>
       <c r="F533" t="b">
         <v>0</v>
@@ -22487,10 +22484,10 @@
         <v>359</v>
       </c>
       <c r="J533" t="n">
-        <v>0.0506764257336099</v>
+        <v>0.0506511720472823</v>
       </c>
       <c r="K533" t="n">
-        <v>0.0506764257336099</v>
+        <v>0.0506511720472823</v>
       </c>
     </row>
     <row r="534">
@@ -22498,16 +22495,16 @@
         <v>890</v>
       </c>
       <c r="B534" t="n">
-        <v>-0.0506295236632846</v>
+        <v>-0.0127228841781126</v>
       </c>
       <c r="C534" t="n">
-        <v>0.938291063995957</v>
+        <v>0.967455386120638</v>
       </c>
       <c r="D534" t="n">
-        <v>0.0000216483839977392</v>
+        <v>0.0379190957538269</v>
       </c>
       <c r="E534" t="n">
-        <v>0.99996926244025</v>
+        <v>0.865958943900636</v>
       </c>
       <c r="F534" t="b">
         <v>0</v>
@@ -22522,10 +22519,10 @@
         <v>359</v>
       </c>
       <c r="J534" t="n">
-        <v>0.0506511720472823</v>
+        <v>0.0506419799319395</v>
       </c>
       <c r="K534" t="n">
-        <v>0.0506511720472823</v>
+        <v>0.0506419799319395</v>
       </c>
     </row>
     <row r="535">
@@ -22533,16 +22530,16 @@
         <v>891</v>
       </c>
       <c r="B535" t="n">
-        <v>-0.0127228841781126</v>
+        <v>-0.0238921035256168</v>
       </c>
       <c r="C535" t="n">
-        <v>0.967455386120638</v>
+        <v>0.929727342318273</v>
       </c>
       <c r="D535" t="n">
-        <v>0.0379190957538269</v>
+        <v>0.0267030747595868</v>
       </c>
       <c r="E535" t="n">
-        <v>0.865958943900636</v>
+        <v>0.869222608007166</v>
       </c>
       <c r="F535" t="b">
         <v>0</v>
@@ -22557,10 +22554,10 @@
         <v>359</v>
       </c>
       <c r="J535" t="n">
-        <v>0.0506419799319395</v>
+        <v>0.0505951782852036</v>
       </c>
       <c r="K535" t="n">
-        <v>0.0506419799319395</v>
+        <v>0.0505951782852036</v>
       </c>
     </row>
     <row r="536">
@@ -22568,16 +22565,16 @@
         <v>892</v>
       </c>
       <c r="B536" t="n">
-        <v>-0.0238921035256168</v>
+        <v>-0.0148132882803635</v>
       </c>
       <c r="C536" t="n">
-        <v>0.929727342318273</v>
+        <v>0.96013495023279</v>
       </c>
       <c r="D536" t="n">
-        <v>0.0267030747595868</v>
+        <v>0.0357357727724874</v>
       </c>
       <c r="E536" t="n">
-        <v>0.869222608007166</v>
+        <v>0.863438793494877</v>
       </c>
       <c r="F536" t="b">
         <v>0</v>
@@ -22592,10 +22589,10 @@
         <v>359</v>
       </c>
       <c r="J536" t="n">
-        <v>0.0505951782852036</v>
+        <v>0.0505490610528509</v>
       </c>
       <c r="K536" t="n">
-        <v>0.0505951782852036</v>
+        <v>0.0505490610528509</v>
       </c>
     </row>
     <row r="537">
@@ -22603,16 +22600,16 @@
         <v>893</v>
       </c>
       <c r="B537" t="n">
-        <v>-0.0148132882803635</v>
+        <v>-0.0424991079733177</v>
       </c>
       <c r="C537" t="n">
-        <v>0.96013495023279</v>
+        <v>0.935113796138603</v>
       </c>
       <c r="D537" t="n">
-        <v>0.0357357727724874</v>
+        <v>0.00768060401214773</v>
       </c>
       <c r="E537" t="n">
-        <v>0.863438793494877</v>
+        <v>0.982394262143529</v>
       </c>
       <c r="F537" t="b">
         <v>0</v>
@@ -22627,10 +22624,10 @@
         <v>359</v>
       </c>
       <c r="J537" t="n">
-        <v>0.0505490610528509</v>
+        <v>0.0501797119854654</v>
       </c>
       <c r="K537" t="n">
-        <v>0.0505490610528509</v>
+        <v>0.0501797119854654</v>
       </c>
     </row>
     <row r="538">
@@ -22638,16 +22635,16 @@
         <v>894</v>
       </c>
       <c r="B538" t="n">
-        <v>-0.0424991079733177</v>
+        <v>0.0185164981297457</v>
       </c>
       <c r="C538" t="n">
-        <v>0.935113796138603</v>
+        <v>0.94592176503754</v>
       </c>
       <c r="D538" t="n">
-        <v>0.00768060401214773</v>
+        <v>-0.0316361445494469</v>
       </c>
       <c r="E538" t="n">
-        <v>0.982394262143529</v>
+        <v>0.854602465114547</v>
       </c>
       <c r="F538" t="b">
         <v>0</v>
@@ -22662,10 +22659,10 @@
         <v>359</v>
       </c>
       <c r="J538" t="n">
-        <v>0.0501797119854654</v>
+        <v>-0.0501526426791926</v>
       </c>
       <c r="K538" t="n">
-        <v>0.0501797119854654</v>
+        <v>0.0501526426791926</v>
       </c>
     </row>
     <row r="539">
@@ -22673,16 +22670,16 @@
         <v>895</v>
       </c>
       <c r="B539" t="n">
-        <v>0.0185164981297457</v>
+        <v>-0.0391988561309614</v>
       </c>
       <c r="C539" t="n">
-        <v>0.94592176503754</v>
+        <v>0.878095009607048</v>
       </c>
       <c r="D539" t="n">
-        <v>-0.0316361445494469</v>
+        <v>0.010933753236566</v>
       </c>
       <c r="E539" t="n">
-        <v>0.854602465114547</v>
+        <v>0.958931197319913</v>
       </c>
       <c r="F539" t="b">
         <v>0</v>
@@ -22697,10 +22694,10 @@
         <v>359</v>
       </c>
       <c r="J539" t="n">
-        <v>-0.0501526426791926</v>
+        <v>0.0501326093675274</v>
       </c>
       <c r="K539" t="n">
-        <v>0.0501526426791926</v>
+        <v>0.0501326093675274</v>
       </c>
     </row>
     <row r="540">
@@ -22708,16 +22705,16 @@
         <v>896</v>
       </c>
       <c r="B540" t="n">
-        <v>-0.0391988561309614</v>
+        <v>-0.0252430644496433</v>
       </c>
       <c r="C540" t="n">
-        <v>0.878095009607048</v>
+        <v>0.938291063995957</v>
       </c>
       <c r="D540" t="n">
-        <v>0.010933753236566</v>
+        <v>0.0248510088535793</v>
       </c>
       <c r="E540" t="n">
-        <v>0.958931197319913</v>
+        <v>0.905879006609304</v>
       </c>
       <c r="F540" t="b">
         <v>0</v>
@@ -22732,10 +22729,10 @@
         <v>359</v>
       </c>
       <c r="J540" t="n">
-        <v>0.0501326093675274</v>
+        <v>0.0500940733032226</v>
       </c>
       <c r="K540" t="n">
-        <v>0.0501326093675274</v>
+        <v>0.0500940733032226</v>
       </c>
     </row>
     <row r="541">
@@ -22743,16 +22740,16 @@
         <v>897</v>
       </c>
       <c r="B541" t="n">
-        <v>-0.0252430644496433</v>
+        <v>-0.0418080660978842</v>
       </c>
       <c r="C541" t="n">
-        <v>0.938291063995957</v>
+        <v>0.870966043785123</v>
       </c>
       <c r="D541" t="n">
-        <v>0.0248510088535793</v>
+        <v>0.00826056302674791</v>
       </c>
       <c r="E541" t="n">
-        <v>0.905879006609304</v>
+        <v>0.961588607240699</v>
       </c>
       <c r="F541" t="b">
         <v>0</v>
@@ -22767,10 +22764,10 @@
         <v>359</v>
       </c>
       <c r="J541" t="n">
-        <v>0.0500940733032226</v>
+        <v>0.0500686291246321</v>
       </c>
       <c r="K541" t="n">
-        <v>0.0500940733032226</v>
+        <v>0.0500686291246321</v>
       </c>
     </row>
     <row r="542">
@@ -22778,16 +22775,16 @@
         <v>898</v>
       </c>
       <c r="B542" t="n">
-        <v>-0.0418080660978842</v>
+        <v>-0.0117484968678852</v>
       </c>
       <c r="C542" t="n">
-        <v>0.870966043785123</v>
+        <v>0.965385632635569</v>
       </c>
       <c r="D542" t="n">
-        <v>0.00826056302674791</v>
+        <v>0.0380394929216098</v>
       </c>
       <c r="E542" t="n">
-        <v>0.961588607240699</v>
+        <v>0.806218732432987</v>
       </c>
       <c r="F542" t="b">
         <v>0</v>
@@ -22802,10 +22799,10 @@
         <v>359</v>
       </c>
       <c r="J542" t="n">
-        <v>0.0500686291246321</v>
+        <v>0.049787989789495</v>
       </c>
       <c r="K542" t="n">
-        <v>0.0500686291246321</v>
+        <v>0.049787989789495</v>
       </c>
     </row>
     <row r="543">
@@ -22813,16 +22810,16 @@
         <v>899</v>
       </c>
       <c r="B543" t="n">
-        <v>-0.0117484968678852</v>
+        <v>-0.0207818159753094</v>
       </c>
       <c r="C543" t="n">
-        <v>0.965385632635569</v>
+        <v>0.938291063995957</v>
       </c>
       <c r="D543" t="n">
-        <v>0.0380394929216098</v>
+        <v>0.0289026216909839</v>
       </c>
       <c r="E543" t="n">
-        <v>0.806218732432987</v>
+        <v>0.860784442968274</v>
       </c>
       <c r="F543" t="b">
         <v>0</v>
@@ -22837,10 +22834,10 @@
         <v>359</v>
       </c>
       <c r="J543" t="n">
-        <v>0.049787989789495</v>
+        <v>0.0496844376662933</v>
       </c>
       <c r="K543" t="n">
-        <v>0.049787989789495</v>
+        <v>0.0496844376662933</v>
       </c>
     </row>
     <row r="544">
@@ -22848,16 +22845,16 @@
         <v>900</v>
       </c>
       <c r="B544" t="n">
-        <v>-0.0207818159753094</v>
+        <v>-0.0452634910872524</v>
       </c>
       <c r="C544" t="n">
-        <v>0.938291063995957</v>
+        <v>0.867400237904317</v>
       </c>
       <c r="D544" t="n">
-        <v>0.0289026216909839</v>
+        <v>0.00427550303081131</v>
       </c>
       <c r="E544" t="n">
-        <v>0.860784442968274</v>
+        <v>0.978414134871713</v>
       </c>
       <c r="F544" t="b">
         <v>0</v>
@@ -22872,10 +22869,10 @@
         <v>359</v>
       </c>
       <c r="J544" t="n">
-        <v>0.0496844376662933</v>
+        <v>0.0495389941180637</v>
       </c>
       <c r="K544" t="n">
-        <v>0.0496844376662933</v>
+        <v>0.0495389941180637</v>
       </c>
     </row>
     <row r="545">
@@ -22883,16 +22880,16 @@
         <v>901</v>
       </c>
       <c r="B545" t="n">
-        <v>-0.0452634910872524</v>
+        <v>-0.026617106129084</v>
       </c>
       <c r="C545" t="n">
-        <v>0.867400237904317</v>
+        <v>0.937899630142163</v>
       </c>
       <c r="D545" t="n">
-        <v>0.00427550303081131</v>
+        <v>0.0228790760058723</v>
       </c>
       <c r="E545" t="n">
-        <v>0.978414134871713</v>
+        <v>0.917541633960415</v>
       </c>
       <c r="F545" t="b">
         <v>0</v>
@@ -22907,10 +22904,10 @@
         <v>359</v>
       </c>
       <c r="J545" t="n">
-        <v>0.0495389941180637</v>
+        <v>0.0494961821349563</v>
       </c>
       <c r="K545" t="n">
-        <v>0.0495389941180637</v>
+        <v>0.0494961821349563</v>
       </c>
     </row>
     <row r="546">
@@ -22918,16 +22915,16 @@
         <v>902</v>
       </c>
       <c r="B546" t="n">
-        <v>-0.026617106129084</v>
+        <v>-0.0059071389930526</v>
       </c>
       <c r="C546" t="n">
-        <v>0.937899630142163</v>
+        <v>0.985871186430218</v>
       </c>
       <c r="D546" t="n">
-        <v>0.0228790760058723</v>
+        <v>0.0435002926529785</v>
       </c>
       <c r="E546" t="n">
-        <v>0.917541633960415</v>
+        <v>0.842530326495077</v>
       </c>
       <c r="F546" t="b">
         <v>0</v>
@@ -22942,10 +22939,10 @@
         <v>359</v>
       </c>
       <c r="J546" t="n">
-        <v>0.0494961821349563</v>
+        <v>0.0494074316460311</v>
       </c>
       <c r="K546" t="n">
-        <v>0.0494961821349563</v>
+        <v>0.0494074316460311</v>
       </c>
     </row>
     <row r="547">
@@ -22953,16 +22950,16 @@
         <v>903</v>
       </c>
       <c r="B547" t="n">
-        <v>-0.0059071389930526</v>
+        <v>-0.032109993530081</v>
       </c>
       <c r="C547" t="n">
-        <v>0.985871186430218</v>
+        <v>0.925822704328145</v>
       </c>
       <c r="D547" t="n">
-        <v>0.0435002926529785</v>
+        <v>0.0171906753927723</v>
       </c>
       <c r="E547" t="n">
-        <v>0.842530326495077</v>
+        <v>0.93770462231874</v>
       </c>
       <c r="F547" t="b">
         <v>0</v>
@@ -22977,10 +22974,10 @@
         <v>359</v>
       </c>
       <c r="J547" t="n">
-        <v>0.0494074316460311</v>
+        <v>0.0493006689228533</v>
       </c>
       <c r="K547" t="n">
-        <v>0.0494074316460311</v>
+        <v>0.0493006689228533</v>
       </c>
     </row>
     <row r="548">
@@ -22988,16 +22985,16 @@
         <v>904</v>
       </c>
       <c r="B548" t="n">
-        <v>-0.032109993530081</v>
+        <v>-0.0170009838503421</v>
       </c>
       <c r="C548" t="n">
-        <v>0.925822704328145</v>
+        <v>0.949528651652136</v>
       </c>
       <c r="D548" t="n">
-        <v>0.0171906753927723</v>
+        <v>0.0320220560498232</v>
       </c>
       <c r="E548" t="n">
-        <v>0.93770462231874</v>
+        <v>0.869069957874356</v>
       </c>
       <c r="F548" t="b">
         <v>0</v>
@@ -23012,10 +23009,10 @@
         <v>359</v>
       </c>
       <c r="J548" t="n">
-        <v>0.0493006689228533</v>
+        <v>0.0490230399001653</v>
       </c>
       <c r="K548" t="n">
-        <v>0.0493006689228533</v>
+        <v>0.0490230399001653</v>
       </c>
     </row>
     <row r="549">
@@ -23023,16 +23020,16 @@
         <v>905</v>
       </c>
       <c r="B549" t="n">
-        <v>-0.0170009838503421</v>
+        <v>-0.0263247280507963</v>
       </c>
       <c r="C549" t="n">
-        <v>0.949528651652136</v>
+        <v>0.917413278772932</v>
       </c>
       <c r="D549" t="n">
-        <v>0.0320220560498232</v>
+        <v>0.0226229913819503</v>
       </c>
       <c r="E549" t="n">
-        <v>0.869069957874356</v>
+        <v>0.872271376334935</v>
       </c>
       <c r="F549" t="b">
         <v>0</v>
@@ -23047,10 +23044,10 @@
         <v>359</v>
       </c>
       <c r="J549" t="n">
-        <v>0.0490230399001653</v>
+        <v>0.0489477194327466</v>
       </c>
       <c r="K549" t="n">
-        <v>0.0490230399001653</v>
+        <v>0.0489477194327466</v>
       </c>
     </row>
     <row r="550">
@@ -23058,16 +23055,16 @@
         <v>906</v>
       </c>
       <c r="B550" t="n">
-        <v>-0.0263247280507963</v>
+        <v>-0.0175033475870276</v>
       </c>
       <c r="C550" t="n">
-        <v>0.917413278772932</v>
+        <v>0.96013495023279</v>
       </c>
       <c r="D550" t="n">
-        <v>0.0226229913819503</v>
+        <v>0.0314426390638135</v>
       </c>
       <c r="E550" t="n">
-        <v>0.872271376334935</v>
+        <v>0.901221841245771</v>
       </c>
       <c r="F550" t="b">
         <v>0</v>
@@ -23082,10 +23079,10 @@
         <v>359</v>
       </c>
       <c r="J550" t="n">
-        <v>0.0489477194327466</v>
+        <v>0.0489459866508411</v>
       </c>
       <c r="K550" t="n">
-        <v>0.0489477194327466</v>
+        <v>0.0489459866508411</v>
       </c>
     </row>
     <row r="551">
@@ -23093,16 +23090,16 @@
         <v>907</v>
       </c>
       <c r="B551" t="n">
-        <v>-0.0175033475870276</v>
+        <v>-0.0260068899327936</v>
       </c>
       <c r="C551" t="n">
-        <v>0.96013495023279</v>
+        <v>0.944615145398824</v>
       </c>
       <c r="D551" t="n">
-        <v>0.0314426390638135</v>
+        <v>0.0228769612067166</v>
       </c>
       <c r="E551" t="n">
-        <v>0.901221841245771</v>
+        <v>0.928627145281442</v>
       </c>
       <c r="F551" t="b">
         <v>0</v>
@@ -23117,10 +23114,10 @@
         <v>359</v>
       </c>
       <c r="J551" t="n">
-        <v>0.0489459866508411</v>
+        <v>0.0488838511395102</v>
       </c>
       <c r="K551" t="n">
-        <v>0.0489459866508411</v>
+        <v>0.0488838511395102</v>
       </c>
     </row>
     <row r="552">
@@ -23128,16 +23125,16 @@
         <v>908</v>
       </c>
       <c r="B552" t="n">
-        <v>-0.0260068899327936</v>
+        <v>-0.0229311101960967</v>
       </c>
       <c r="C552" t="n">
         <v>0.944615145398824</v>
       </c>
       <c r="D552" t="n">
-        <v>0.0228769612067166</v>
+        <v>0.0258959574764951</v>
       </c>
       <c r="E552" t="n">
-        <v>0.928627145281442</v>
+        <v>0.888170388313979</v>
       </c>
       <c r="F552" t="b">
         <v>0</v>
@@ -23152,10 +23149,10 @@
         <v>359</v>
       </c>
       <c r="J552" t="n">
-        <v>0.0488838511395102</v>
+        <v>0.0488270676725918</v>
       </c>
       <c r="K552" t="n">
-        <v>0.0488838511395102</v>
+        <v>0.0488270676725918</v>
       </c>
     </row>
     <row r="553">
@@ -23163,16 +23160,16 @@
         <v>909</v>
       </c>
       <c r="B553" t="n">
-        <v>-0.0229311101960967</v>
+        <v>-0.0386792793447913</v>
       </c>
       <c r="C553" t="n">
-        <v>0.944615145398824</v>
+        <v>0.933386535021355</v>
       </c>
       <c r="D553" t="n">
-        <v>0.0258959574764951</v>
+        <v>0.0100486879449603</v>
       </c>
       <c r="E553" t="n">
-        <v>0.888170388313979</v>
+        <v>0.97579279972015</v>
       </c>
       <c r="F553" t="b">
         <v>0</v>
@@ -23187,10 +23184,10 @@
         <v>359</v>
       </c>
       <c r="J553" t="n">
-        <v>0.0488270676725918</v>
+        <v>0.0487279672897516</v>
       </c>
       <c r="K553" t="n">
-        <v>0.0488270676725918</v>
+        <v>0.0487279672897516</v>
       </c>
     </row>
     <row r="554">
@@ -23198,16 +23195,16 @@
         <v>910</v>
       </c>
       <c r="B554" t="n">
-        <v>-0.0386792793447913</v>
+        <v>-0.0259006751989058</v>
       </c>
       <c r="C554" t="n">
-        <v>0.933386535021355</v>
+        <v>0.950817268567178</v>
       </c>
       <c r="D554" t="n">
-        <v>0.0100486879449603</v>
+        <v>0.0226066692066892</v>
       </c>
       <c r="E554" t="n">
-        <v>0.97579279972015</v>
+        <v>0.925690225126922</v>
       </c>
       <c r="F554" t="b">
         <v>0</v>
@@ -23222,10 +23219,10 @@
         <v>359</v>
       </c>
       <c r="J554" t="n">
-        <v>0.0487279672897516</v>
+        <v>0.048507344405595</v>
       </c>
       <c r="K554" t="n">
-        <v>0.0487279672897516</v>
+        <v>0.048507344405595</v>
       </c>
     </row>
     <row r="555">
@@ -23233,16 +23230,16 @@
         <v>911</v>
       </c>
       <c r="B555" t="n">
-        <v>-0.0259006751989058</v>
+        <v>-0.0207886017401208</v>
       </c>
       <c r="C555" t="n">
-        <v>0.950817268567178</v>
+        <v>0.949272748749538</v>
       </c>
       <c r="D555" t="n">
-        <v>0.0226066692066892</v>
+        <v>0.027608881509489</v>
       </c>
       <c r="E555" t="n">
-        <v>0.925690225126922</v>
+        <v>0.913273007754942</v>
       </c>
       <c r="F555" t="b">
         <v>0</v>
@@ -23257,10 +23254,10 @@
         <v>359</v>
       </c>
       <c r="J555" t="n">
-        <v>0.048507344405595</v>
+        <v>0.0483974832496098</v>
       </c>
       <c r="K555" t="n">
-        <v>0.048507344405595</v>
+        <v>0.0483974832496098</v>
       </c>
     </row>
     <row r="556">
@@ -23268,16 +23265,16 @@
         <v>912</v>
       </c>
       <c r="B556" t="n">
-        <v>-0.0207886017401208</v>
+        <v>-0.0325798861140174</v>
       </c>
       <c r="C556" t="n">
-        <v>0.949272748749538</v>
+        <v>0.902308981088188</v>
       </c>
       <c r="D556" t="n">
-        <v>0.027608881509489</v>
+        <v>0.0158128591732156</v>
       </c>
       <c r="E556" t="n">
-        <v>0.913273007754942</v>
+        <v>0.932325904551969</v>
       </c>
       <c r="F556" t="b">
         <v>0</v>
@@ -23292,10 +23289,10 @@
         <v>359</v>
       </c>
       <c r="J556" t="n">
-        <v>0.0483974832496098</v>
+        <v>0.048392745287233</v>
       </c>
       <c r="K556" t="n">
-        <v>0.0483974832496098</v>
+        <v>0.048392745287233</v>
       </c>
     </row>
     <row r="557">
@@ -23303,16 +23300,16 @@
         <v>913</v>
       </c>
       <c r="B557" t="n">
-        <v>-0.0325798861140174</v>
+        <v>-0.0334613226454489</v>
       </c>
       <c r="C557" t="n">
-        <v>0.902308981088188</v>
+        <v>0.892412500927947</v>
       </c>
       <c r="D557" t="n">
-        <v>0.0158128591732156</v>
+        <v>0.0149157127889903</v>
       </c>
       <c r="E557" t="n">
-        <v>0.932325904551969</v>
+        <v>0.933854643130907</v>
       </c>
       <c r="F557" t="b">
         <v>0</v>
@@ -23327,10 +23324,10 @@
         <v>359</v>
       </c>
       <c r="J557" t="n">
-        <v>0.048392745287233</v>
+        <v>0.0483770354344392</v>
       </c>
       <c r="K557" t="n">
-        <v>0.048392745287233</v>
+        <v>0.0483770354344392</v>
       </c>
     </row>
     <row r="558">
@@ -23338,16 +23335,16 @@
         <v>914</v>
       </c>
       <c r="B558" t="n">
-        <v>-0.0334613226454489</v>
+        <v>-0.0109361026494931</v>
       </c>
       <c r="C558" t="n">
-        <v>0.892412500927947</v>
+        <v>0.966286332370214</v>
       </c>
       <c r="D558" t="n">
-        <v>0.0149157127889903</v>
+        <v>0.0373759420815971</v>
       </c>
       <c r="E558" t="n">
-        <v>0.933854643130907</v>
+        <v>0.845991550496187</v>
       </c>
       <c r="F558" t="b">
         <v>0</v>
@@ -23362,10 +23359,10 @@
         <v>359</v>
       </c>
       <c r="J558" t="n">
-        <v>0.0483770354344392</v>
+        <v>0.0483120447310902</v>
       </c>
       <c r="K558" t="n">
-        <v>0.0483770354344392</v>
+        <v>0.0483120447310902</v>
       </c>
     </row>
     <row r="559">
@@ -23373,16 +23370,16 @@
         <v>915</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.0109361026494931</v>
+        <v>-0.0131825702408277</v>
       </c>
       <c r="C559" t="n">
-        <v>0.966286332370214</v>
+        <v>0.962550535586621</v>
       </c>
       <c r="D559" t="n">
-        <v>0.0373759420815971</v>
+        <v>0.0351276846120739</v>
       </c>
       <c r="E559" t="n">
-        <v>0.845991550496187</v>
+        <v>0.822405994473102</v>
       </c>
       <c r="F559" t="b">
         <v>0</v>
@@ -23397,10 +23394,10 @@
         <v>359</v>
       </c>
       <c r="J559" t="n">
-        <v>0.0483120447310902</v>
+        <v>0.0483102548529016</v>
       </c>
       <c r="K559" t="n">
-        <v>0.0483120447310902</v>
+        <v>0.0483102548529016</v>
       </c>
     </row>
     <row r="560">
@@ -23408,16 +23405,16 @@
         <v>916</v>
       </c>
       <c r="B560" t="n">
-        <v>-0.0131825702408277</v>
+        <v>-0.0146128115692833</v>
       </c>
       <c r="C560" t="n">
-        <v>0.962550535586621</v>
+        <v>0.968946793277885</v>
       </c>
       <c r="D560" t="n">
-        <v>0.0351276846120739</v>
+        <v>0.0336835761532013</v>
       </c>
       <c r="E560" t="n">
-        <v>0.822405994473102</v>
+        <v>0.875674514797896</v>
       </c>
       <c r="F560" t="b">
         <v>0</v>
@@ -23432,10 +23429,10 @@
         <v>359</v>
       </c>
       <c r="J560" t="n">
-        <v>0.0483102548529016</v>
+        <v>0.0482963877224846</v>
       </c>
       <c r="K560" t="n">
-        <v>0.0483102548529016</v>
+        <v>0.0482963877224846</v>
       </c>
     </row>
     <row r="561">
@@ -23443,16 +23440,16 @@
         <v>917</v>
       </c>
       <c r="B561" t="n">
-        <v>-0.0146128115692833</v>
+        <v>-0.0035140738130374</v>
       </c>
       <c r="C561" t="n">
-        <v>0.968946793277885</v>
+        <v>0.99143958749111</v>
       </c>
       <c r="D561" t="n">
-        <v>0.0336835761532013</v>
+        <v>0.04475172593139</v>
       </c>
       <c r="E561" t="n">
-        <v>0.875674514797896</v>
+        <v>0.812426033686255</v>
       </c>
       <c r="F561" t="b">
         <v>0</v>
@@ -23467,10 +23464,10 @@
         <v>359</v>
       </c>
       <c r="J561" t="n">
-        <v>0.0482963877224846</v>
+        <v>0.0482657997444274</v>
       </c>
       <c r="K561" t="n">
-        <v>0.0482963877224846</v>
+        <v>0.0482657997444274</v>
       </c>
     </row>
     <row r="562">
@@ -23478,16 +23475,16 @@
         <v>918</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.00351407381303748</v>
+        <v>0.0357542100372938</v>
       </c>
       <c r="C562" t="n">
-        <v>0.99143958749111</v>
+        <v>0.94592176503754</v>
       </c>
       <c r="D562" t="n">
-        <v>0.04475172593139</v>
+        <v>-0.0123486524025851</v>
       </c>
       <c r="E562" t="n">
-        <v>0.812426033686255</v>
+        <v>0.975528672922249</v>
       </c>
       <c r="F562" t="b">
         <v>0</v>
@@ -23502,10 +23499,10 @@
         <v>359</v>
       </c>
       <c r="J562" t="n">
-        <v>0.0482657997444275</v>
+        <v>-0.0481028624398789</v>
       </c>
       <c r="K562" t="n">
-        <v>0.0482657997444275</v>
+        <v>0.0481028624398789</v>
       </c>
     </row>
     <row r="563">
@@ -23513,16 +23510,16 @@
         <v>919</v>
       </c>
       <c r="B563" t="n">
-        <v>0.0357542100372938</v>
+        <v>-0.0135636289747158</v>
       </c>
       <c r="C563" t="n">
-        <v>0.94592176503754</v>
+        <v>0.97281750427097</v>
       </c>
       <c r="D563" t="n">
-        <v>-0.0123486524025851</v>
+        <v>0.034529345377575</v>
       </c>
       <c r="E563" t="n">
-        <v>0.975528672922249</v>
+        <v>0.900637874891023</v>
       </c>
       <c r="F563" t="b">
         <v>0</v>
@@ -23537,10 +23534,10 @@
         <v>359</v>
       </c>
       <c r="J563" t="n">
-        <v>-0.0481028624398789</v>
+        <v>0.0480929743522908</v>
       </c>
       <c r="K563" t="n">
-        <v>0.0481028624398789</v>
+        <v>0.0480929743522908</v>
       </c>
     </row>
     <row r="564">
@@ -23548,16 +23545,16 @@
         <v>920</v>
       </c>
       <c r="B564" t="n">
-        <v>-0.0135636289747158</v>
+        <v>-0.0237927939402063</v>
       </c>
       <c r="C564" t="n">
-        <v>0.97281750427097</v>
+        <v>0.96013495023279</v>
       </c>
       <c r="D564" t="n">
-        <v>0.034529345377575</v>
+        <v>0.0242824107098899</v>
       </c>
       <c r="E564" t="n">
-        <v>0.900637874891023</v>
+        <v>0.929885985702345</v>
       </c>
       <c r="F564" t="b">
         <v>0</v>
@@ -23572,10 +23569,10 @@
         <v>359</v>
       </c>
       <c r="J564" t="n">
-        <v>0.0480929743522908</v>
+        <v>0.0480752046500962</v>
       </c>
       <c r="K564" t="n">
-        <v>0.0480929743522908</v>
+        <v>0.0480752046500962</v>
       </c>
     </row>
     <row r="565">
@@ -23583,16 +23580,16 @@
         <v>921</v>
       </c>
       <c r="B565" t="n">
-        <v>-0.0237927939402063</v>
+        <v>-0.0087178066199669</v>
       </c>
       <c r="C565" t="n">
-        <v>0.96013495023279</v>
+        <v>0.977056099524037</v>
       </c>
       <c r="D565" t="n">
-        <v>0.0242824107098899</v>
+        <v>0.0393130993851904</v>
       </c>
       <c r="E565" t="n">
-        <v>0.929885985702345</v>
+        <v>0.842530326495077</v>
       </c>
       <c r="F565" t="b">
         <v>0</v>
@@ -23607,10 +23604,10 @@
         <v>359</v>
       </c>
       <c r="J565" t="n">
-        <v>0.0480752046500962</v>
+        <v>0.0480309060051573</v>
       </c>
       <c r="K565" t="n">
-        <v>0.0480752046500962</v>
+        <v>0.0480309060051573</v>
       </c>
     </row>
     <row r="566">
@@ -23618,16 +23615,16 @@
         <v>922</v>
       </c>
       <c r="B566" t="n">
-        <v>-0.00871780661996691</v>
+        <v>-0.0433729007621416</v>
       </c>
       <c r="C566" t="n">
-        <v>0.977056099524037</v>
+        <v>0.878607108133268</v>
       </c>
       <c r="D566" t="n">
-        <v>0.0393130993851904</v>
+        <v>0.00463012131361088</v>
       </c>
       <c r="E566" t="n">
-        <v>0.842530326495077</v>
+        <v>0.976797622872169</v>
       </c>
       <c r="F566" t="b">
         <v>0</v>
@@ -23642,10 +23639,10 @@
         <v>359</v>
       </c>
       <c r="J566" t="n">
-        <v>0.0480309060051573</v>
+        <v>0.0480030220757525</v>
       </c>
       <c r="K566" t="n">
-        <v>0.0480309060051573</v>
+        <v>0.0480030220757525</v>
       </c>
     </row>
     <row r="567">
@@ -23653,16 +23650,16 @@
         <v>923</v>
       </c>
       <c r="B567" t="n">
-        <v>-0.0433729007621416</v>
+        <v>-0.0297370757940245</v>
       </c>
       <c r="C567" t="n">
-        <v>0.878607108133268</v>
+        <v>0.908529627064046</v>
       </c>
       <c r="D567" t="n">
-        <v>0.00463012131361088</v>
+        <v>0.0181805866777572</v>
       </c>
       <c r="E567" t="n">
-        <v>0.976797622872169</v>
+        <v>0.918069777906658</v>
       </c>
       <c r="F567" t="b">
         <v>0</v>
@@ -23677,10 +23674,10 @@
         <v>359</v>
       </c>
       <c r="J567" t="n">
-        <v>0.0480030220757525</v>
+        <v>0.0479176624717817</v>
       </c>
       <c r="K567" t="n">
-        <v>0.0480030220757525</v>
+        <v>0.0479176624717817</v>
       </c>
     </row>
     <row r="568">
@@ -23688,16 +23685,16 @@
         <v>924</v>
       </c>
       <c r="B568" t="n">
-        <v>-0.0297370757940245</v>
+        <v>-0.0382946708182902</v>
       </c>
       <c r="C568" t="n">
-        <v>0.908529627064046</v>
+        <v>0.930206566843168</v>
       </c>
       <c r="D568" t="n">
-        <v>0.0181805866777572</v>
+        <v>0.00952241206734195</v>
       </c>
       <c r="E568" t="n">
-        <v>0.918069777906658</v>
+        <v>0.976797622872169</v>
       </c>
       <c r="F568" t="b">
         <v>0</v>
@@ -23712,10 +23709,10 @@
         <v>359</v>
       </c>
       <c r="J568" t="n">
-        <v>0.0479176624717817</v>
+        <v>0.0478170828856322</v>
       </c>
       <c r="K568" t="n">
-        <v>0.0479176624717817</v>
+        <v>0.0478170828856322</v>
       </c>
     </row>
     <row r="569">
@@ -23723,16 +23720,16 @@
         <v>925</v>
       </c>
       <c r="B569" t="n">
-        <v>-0.0382946708182902</v>
+        <v>-0.0180503870309159</v>
       </c>
       <c r="C569" t="n">
-        <v>0.930206566843168</v>
+        <v>0.94583459446451</v>
       </c>
       <c r="D569" t="n">
-        <v>0.00952241206734195</v>
+        <v>0.0297535862232638</v>
       </c>
       <c r="E569" t="n">
-        <v>0.976797622872169</v>
+        <v>0.892774688227342</v>
       </c>
       <c r="F569" t="b">
         <v>0</v>
@@ -23747,10 +23744,10 @@
         <v>359</v>
       </c>
       <c r="J569" t="n">
-        <v>0.0478170828856322</v>
+        <v>0.0478039732541797</v>
       </c>
       <c r="K569" t="n">
-        <v>0.0478170828856322</v>
+        <v>0.0478039732541797</v>
       </c>
     </row>
     <row r="570">
@@ -23758,16 +23755,16 @@
         <v>926</v>
       </c>
       <c r="B570" t="n">
-        <v>-0.0180503870309159</v>
+        <v>-0.0456279967011953</v>
       </c>
       <c r="C570" t="n">
-        <v>0.94583459446451</v>
+        <v>0.870966043785123</v>
       </c>
       <c r="D570" t="n">
-        <v>0.0297535862232638</v>
+        <v>0.00216658328268253</v>
       </c>
       <c r="E570" t="n">
-        <v>0.892774688227342</v>
+        <v>0.988574462962153</v>
       </c>
       <c r="F570" t="b">
         <v>0</v>
@@ -23782,10 +23779,10 @@
         <v>359</v>
       </c>
       <c r="J570" t="n">
-        <v>0.0478039732541797</v>
+        <v>0.0477945799838778</v>
       </c>
       <c r="K570" t="n">
-        <v>0.0478039732541797</v>
+        <v>0.0477945799838778</v>
       </c>
     </row>
     <row r="571">
@@ -23793,16 +23790,16 @@
         <v>927</v>
       </c>
       <c r="B571" t="n">
-        <v>-0.0456279967011953</v>
+        <v>-0.0310081652081941</v>
       </c>
       <c r="C571" t="n">
-        <v>0.870966043785123</v>
+        <v>0.903778696517176</v>
       </c>
       <c r="D571" t="n">
-        <v>0.00216658328268253</v>
+        <v>0.0166584981187387</v>
       </c>
       <c r="E571" t="n">
-        <v>0.988574462962153</v>
+        <v>0.919950622481313</v>
       </c>
       <c r="F571" t="b">
         <v>0</v>
@@ -23817,10 +23814,10 @@
         <v>359</v>
       </c>
       <c r="J571" t="n">
-        <v>0.0477945799838778</v>
+        <v>0.0476666633269328</v>
       </c>
       <c r="K571" t="n">
-        <v>0.0477945799838778</v>
+        <v>0.0476666633269328</v>
       </c>
     </row>
     <row r="572">
@@ -23828,16 +23825,16 @@
         <v>928</v>
       </c>
       <c r="B572" t="n">
-        <v>-0.0310081652081941</v>
+        <v>-0.0381879489585142</v>
       </c>
       <c r="C572" t="n">
-        <v>0.903778696517176</v>
+        <v>0.958190216125776</v>
       </c>
       <c r="D572" t="n">
-        <v>0.0166584981187387</v>
+        <v>0.00937860578633974</v>
       </c>
       <c r="E572" t="n">
-        <v>0.919950622481313</v>
+        <v>0.984881328762457</v>
       </c>
       <c r="F572" t="b">
         <v>0</v>
@@ -23852,10 +23849,10 @@
         <v>359</v>
       </c>
       <c r="J572" t="n">
-        <v>0.0476666633269328</v>
+        <v>0.0475665547448539</v>
       </c>
       <c r="K572" t="n">
-        <v>0.0476666633269328</v>
+        <v>0.0475665547448539</v>
       </c>
     </row>
     <row r="573">
@@ -23863,16 +23860,16 @@
         <v>929</v>
       </c>
       <c r="B573" t="n">
-        <v>-0.0381879489585142</v>
+        <v>-0.0254778703789731</v>
       </c>
       <c r="C573" t="n">
-        <v>0.958190216125776</v>
+        <v>0.927117128827777</v>
       </c>
       <c r="D573" t="n">
-        <v>0.00937860578633974</v>
+        <v>0.0218871500944417</v>
       </c>
       <c r="E573" t="n">
-        <v>0.984881328762457</v>
+        <v>0.881285313498849</v>
       </c>
       <c r="F573" t="b">
         <v>0</v>
@@ -23887,10 +23884,10 @@
         <v>359</v>
       </c>
       <c r="J573" t="n">
-        <v>0.0475665547448539</v>
+        <v>0.0473650204734148</v>
       </c>
       <c r="K573" t="n">
-        <v>0.0475665547448539</v>
+        <v>0.0473650204734148</v>
       </c>
     </row>
     <row r="574">
@@ -23898,16 +23895,16 @@
         <v>930</v>
       </c>
       <c r="B574" t="n">
-        <v>-0.0254778703789731</v>
+        <v>0.0081390702324995</v>
       </c>
       <c r="C574" t="n">
-        <v>0.927117128827777</v>
+        <v>0.991254777115217</v>
       </c>
       <c r="D574" t="n">
-        <v>0.0218871500944417</v>
+        <v>-0.0392135223244749</v>
       </c>
       <c r="E574" t="n">
-        <v>0.881285313498849</v>
+        <v>0.926529406783378</v>
       </c>
       <c r="F574" t="b">
         <v>0</v>
@@ -23922,10 +23919,10 @@
         <v>359</v>
       </c>
       <c r="J574" t="n">
-        <v>0.0473650204734148</v>
+        <v>-0.0473525925569744</v>
       </c>
       <c r="K574" t="n">
-        <v>0.0473650204734148</v>
+        <v>0.0473525925569744</v>
       </c>
     </row>
     <row r="575">
@@ -23933,16 +23930,16 @@
         <v>931</v>
       </c>
       <c r="B575" t="n">
-        <v>0.00813907023249955</v>
+        <v>-0.0349764340830369</v>
       </c>
       <c r="C575" t="n">
-        <v>0.991254777115217</v>
+        <v>0.889925627650963</v>
       </c>
       <c r="D575" t="n">
-        <v>-0.0392135223244749</v>
+        <v>0.0123683984394648</v>
       </c>
       <c r="E575" t="n">
-        <v>0.926529406783378</v>
+        <v>0.937536803869423</v>
       </c>
       <c r="F575" t="b">
         <v>0</v>
@@ -23957,10 +23954,10 @@
         <v>359</v>
       </c>
       <c r="J575" t="n">
-        <v>-0.0473525925569745</v>
+        <v>0.0473448325225017</v>
       </c>
       <c r="K575" t="n">
-        <v>0.0473525925569745</v>
+        <v>0.0473448325225017</v>
       </c>
     </row>
     <row r="576">
@@ -23968,16 +23965,16 @@
         <v>932</v>
       </c>
       <c r="B576" t="n">
-        <v>-0.0349764340830369</v>
+        <v>-0.0256760865038038</v>
       </c>
       <c r="C576" t="n">
-        <v>0.889925627650963</v>
+        <v>0.937036268216762</v>
       </c>
       <c r="D576" t="n">
-        <v>0.0123683984394648</v>
+        <v>0.0215727892021376</v>
       </c>
       <c r="E576" t="n">
-        <v>0.937536803869423</v>
+        <v>0.902309198843865</v>
       </c>
       <c r="F576" t="b">
         <v>0</v>
@@ -23992,10 +23989,10 @@
         <v>359</v>
       </c>
       <c r="J576" t="n">
-        <v>0.0473448325225017</v>
+        <v>0.0472488757059414</v>
       </c>
       <c r="K576" t="n">
-        <v>0.0473448325225017</v>
+        <v>0.0472488757059414</v>
       </c>
     </row>
     <row r="577">
@@ -24003,16 +24000,16 @@
         <v>933</v>
       </c>
       <c r="B577" t="n">
-        <v>-0.0256760865038038</v>
+        <v>-0.0313503427202294</v>
       </c>
       <c r="C577" t="n">
-        <v>0.937036268216762</v>
+        <v>0.938291063995957</v>
       </c>
       <c r="D577" t="n">
-        <v>0.0215727892021376</v>
+        <v>0.0156113407259268</v>
       </c>
       <c r="E577" t="n">
-        <v>0.902309198843865</v>
+        <v>0.952082967813273</v>
       </c>
       <c r="F577" t="b">
         <v>0</v>
@@ -24027,10 +24024,10 @@
         <v>359</v>
       </c>
       <c r="J577" t="n">
-        <v>0.0472488757059414</v>
+        <v>0.0469616834461562</v>
       </c>
       <c r="K577" t="n">
-        <v>0.0472488757059414</v>
+        <v>0.0469616834461562</v>
       </c>
     </row>
     <row r="578">
@@ -24038,16 +24035,16 @@
         <v>934</v>
       </c>
       <c r="B578" t="n">
-        <v>-0.0313503427202294</v>
+        <v>-0.0295001922030515</v>
       </c>
       <c r="C578" t="n">
-        <v>0.938291063995957</v>
+        <v>0.939870985064508</v>
       </c>
       <c r="D578" t="n">
-        <v>0.0156113407259268</v>
+        <v>0.0174446186015005</v>
       </c>
       <c r="E578" t="n">
-        <v>0.952082967813273</v>
+        <v>0.934251320774079</v>
       </c>
       <c r="F578" t="b">
         <v>0</v>
@@ -24062,10 +24059,10 @@
         <v>359</v>
       </c>
       <c r="J578" t="n">
-        <v>0.0469616834461562</v>
+        <v>0.046944810804552</v>
       </c>
       <c r="K578" t="n">
-        <v>0.0469616834461562</v>
+        <v>0.046944810804552</v>
       </c>
     </row>
     <row r="579">
@@ -24073,16 +24070,16 @@
         <v>935</v>
       </c>
       <c r="B579" t="n">
-        <v>-0.0295001922030515</v>
+        <v>-0.0252361866660664</v>
       </c>
       <c r="C579" t="n">
-        <v>0.939870985064508</v>
+        <v>0.923251912689464</v>
       </c>
       <c r="D579" t="n">
-        <v>0.0174446186015005</v>
+        <v>0.0216341208248532</v>
       </c>
       <c r="E579" t="n">
-        <v>0.934251320774079</v>
+        <v>0.905879006609304</v>
       </c>
       <c r="F579" t="b">
         <v>0</v>
@@ -24097,10 +24094,10 @@
         <v>359</v>
       </c>
       <c r="J579" t="n">
-        <v>0.046944810804552</v>
+        <v>0.0468703074909196</v>
       </c>
       <c r="K579" t="n">
-        <v>0.046944810804552</v>
+        <v>0.0468703074909196</v>
       </c>
     </row>
     <row r="580">
@@ -24108,16 +24105,16 @@
         <v>936</v>
       </c>
       <c r="B580" t="n">
-        <v>-0.0252361866660664</v>
+        <v>0.0205946333005005</v>
       </c>
       <c r="C580" t="n">
-        <v>0.923251912689464</v>
+        <v>0.968037929911835</v>
       </c>
       <c r="D580" t="n">
-        <v>0.0216341208248532</v>
+        <v>-0.0262548632061145</v>
       </c>
       <c r="E580" t="n">
-        <v>0.905879006609304</v>
+        <v>0.932325904551969</v>
       </c>
       <c r="F580" t="b">
         <v>0</v>
@@ -24132,10 +24129,10 @@
         <v>359</v>
       </c>
       <c r="J580" t="n">
-        <v>0.0468703074909196</v>
+        <v>-0.046849496506615</v>
       </c>
       <c r="K580" t="n">
-        <v>0.0468703074909196</v>
+        <v>0.046849496506615</v>
       </c>
     </row>
     <row r="581">
@@ -24143,16 +24140,16 @@
         <v>937</v>
       </c>
       <c r="B581" t="n">
-        <v>0.0205946333005005</v>
+        <v>-0.0097401445416025</v>
       </c>
       <c r="C581" t="n">
-        <v>0.968037929911835</v>
+        <v>0.983495835904357</v>
       </c>
       <c r="D581" t="n">
-        <v>-0.0262548632061145</v>
+        <v>0.0369064398422926</v>
       </c>
       <c r="E581" t="n">
-        <v>0.932325904551969</v>
+        <v>0.881285313498849</v>
       </c>
       <c r="F581" t="b">
         <v>0</v>
@@ -24167,10 +24164,10 @@
         <v>359</v>
       </c>
       <c r="J581" t="n">
-        <v>-0.046849496506615</v>
+        <v>0.0466465843838951</v>
       </c>
       <c r="K581" t="n">
-        <v>0.046849496506615</v>
+        <v>0.0466465843838951</v>
       </c>
     </row>
     <row r="582">
@@ -24178,16 +24175,16 @@
         <v>938</v>
       </c>
       <c r="B582" t="n">
-        <v>-0.0097401445416025</v>
+        <v>-0.0134371220422646</v>
       </c>
       <c r="C582" t="n">
-        <v>0.983495835904357</v>
+        <v>0.960579435773239</v>
       </c>
       <c r="D582" t="n">
-        <v>0.0369064398422926</v>
+        <v>0.0331749512983534</v>
       </c>
       <c r="E582" t="n">
-        <v>0.881285313498849</v>
+        <v>0.829526352375192</v>
       </c>
       <c r="F582" t="b">
         <v>0</v>
@@ -24202,10 +24199,10 @@
         <v>359</v>
       </c>
       <c r="J582" t="n">
-        <v>0.0466465843838951</v>
+        <v>0.046612073340618</v>
       </c>
       <c r="K582" t="n">
-        <v>0.0466465843838951</v>
+        <v>0.046612073340618</v>
       </c>
     </row>
     <row r="583">
@@ -24213,16 +24210,16 @@
         <v>939</v>
       </c>
       <c r="B583" t="n">
-        <v>-0.0134371220422646</v>
+        <v>-0.0125827722216516</v>
       </c>
       <c r="C583" t="n">
-        <v>0.960579435773239</v>
+        <v>0.96564767894395</v>
       </c>
       <c r="D583" t="n">
-        <v>0.0331749512983534</v>
+        <v>0.0340253377626809</v>
       </c>
       <c r="E583" t="n">
-        <v>0.829526352375192</v>
+        <v>0.813729329932198</v>
       </c>
       <c r="F583" t="b">
         <v>0</v>
@@ -24237,10 +24234,10 @@
         <v>359</v>
       </c>
       <c r="J583" t="n">
-        <v>0.046612073340618</v>
+        <v>0.0466081099843325</v>
       </c>
       <c r="K583" t="n">
-        <v>0.046612073340618</v>
+        <v>0.0466081099843325</v>
       </c>
     </row>
     <row r="584">
@@ -24248,16 +24245,16 @@
         <v>940</v>
       </c>
       <c r="B584" t="n">
-        <v>-0.0125827722216516</v>
+        <v>-0.0288855451995691</v>
       </c>
       <c r="C584" t="n">
-        <v>0.96564767894395</v>
+        <v>0.916330031334944</v>
       </c>
       <c r="D584" t="n">
-        <v>0.0340253377626809</v>
+        <v>0.017721445446237</v>
       </c>
       <c r="E584" t="n">
-        <v>0.813729329932198</v>
+        <v>0.899305016710424</v>
       </c>
       <c r="F584" t="b">
         <v>0</v>
@@ -24272,10 +24269,10 @@
         <v>359</v>
       </c>
       <c r="J584" t="n">
-        <v>0.0466081099843325</v>
+        <v>0.0466069906458061</v>
       </c>
       <c r="K584" t="n">
-        <v>0.0466081099843325</v>
+        <v>0.0466069906458061</v>
       </c>
     </row>
     <row r="585">
@@ -24283,16 +24280,16 @@
         <v>941</v>
       </c>
       <c r="B585" t="n">
-        <v>-0.0288855451995691</v>
+        <v>-0.0000426711054156131</v>
       </c>
       <c r="C585" t="n">
-        <v>0.916330031334944</v>
+        <v>0.999986126629189</v>
       </c>
       <c r="D585" t="n">
-        <v>0.017721445446237</v>
+        <v>0.0465505616178304</v>
       </c>
       <c r="E585" t="n">
-        <v>0.899305016710424</v>
+        <v>0.695656109019234</v>
       </c>
       <c r="F585" t="b">
         <v>0</v>
@@ -24307,10 +24304,10 @@
         <v>359</v>
       </c>
       <c r="J585" t="n">
-        <v>0.0466069906458061</v>
+        <v>0.046593232723246</v>
       </c>
       <c r="K585" t="n">
-        <v>0.0466069906458061</v>
+        <v>0.046593232723246</v>
       </c>
     </row>
     <row r="586">
@@ -24318,16 +24315,16 @@
         <v>942</v>
       </c>
       <c r="B586" t="n">
-        <v>-0.0000426711054156131</v>
+        <v>-0.0046502481289018</v>
       </c>
       <c r="C586" t="n">
-        <v>0.999986126629189</v>
+        <v>0.987061081622256</v>
       </c>
       <c r="D586" t="n">
-        <v>0.0465505616178304</v>
+        <v>0.0417619021952664</v>
       </c>
       <c r="E586" t="n">
-        <v>0.695656109019234</v>
+        <v>0.755313302012177</v>
       </c>
       <c r="F586" t="b">
         <v>0</v>
@@ -24342,10 +24339,10 @@
         <v>359</v>
       </c>
       <c r="J586" t="n">
-        <v>0.046593232723246</v>
+        <v>0.0464121503241682</v>
       </c>
       <c r="K586" t="n">
-        <v>0.046593232723246</v>
+        <v>0.0464121503241682</v>
       </c>
     </row>
     <row r="587">
@@ -24353,16 +24350,16 @@
         <v>943</v>
       </c>
       <c r="B587" t="n">
-        <v>-0.00465024812890188</v>
+        <v>-0.0164121007427914</v>
       </c>
       <c r="C587" t="n">
-        <v>0.987061081622256</v>
+        <v>0.956636981097888</v>
       </c>
       <c r="D587" t="n">
-        <v>0.0417619021952664</v>
+        <v>0.0298881243418534</v>
       </c>
       <c r="E587" t="n">
-        <v>0.755313302012177</v>
+        <v>0.881285313498849</v>
       </c>
       <c r="F587" t="b">
         <v>0</v>
@@ -24377,10 +24374,10 @@
         <v>359</v>
       </c>
       <c r="J587" t="n">
-        <v>0.0464121503241683</v>
+        <v>0.0463002250846448</v>
       </c>
       <c r="K587" t="n">
-        <v>0.0464121503241683</v>
+        <v>0.0463002250846448</v>
       </c>
     </row>
     <row r="588">
@@ -24388,16 +24385,16 @@
         <v>944</v>
       </c>
       <c r="B588" t="n">
-        <v>-0.0164121007427914</v>
+        <v>-0.0317285006104048</v>
       </c>
       <c r="C588" t="n">
-        <v>0.956636981097888</v>
+        <v>0.939454102588729</v>
       </c>
       <c r="D588" t="n">
-        <v>0.0298881243418534</v>
+        <v>0.0143140039425571</v>
       </c>
       <c r="E588" t="n">
-        <v>0.881285313498849</v>
+        <v>0.95181783932301</v>
       </c>
       <c r="F588" t="b">
         <v>0</v>
@@ -24412,10 +24409,10 @@
         <v>359</v>
       </c>
       <c r="J588" t="n">
-        <v>0.0463002250846448</v>
+        <v>0.0460425045529619</v>
       </c>
       <c r="K588" t="n">
-        <v>0.0463002250846448</v>
+        <v>0.0460425045529619</v>
       </c>
     </row>
     <row r="589">
@@ -24423,16 +24420,16 @@
         <v>945</v>
       </c>
       <c r="B589" t="n">
-        <v>-0.0317285006104048</v>
+        <v>-0.0146783660130459</v>
       </c>
       <c r="C589" t="n">
-        <v>0.939454102588729</v>
+        <v>0.971203245336195</v>
       </c>
       <c r="D589" t="n">
-        <v>0.0143140039425571</v>
+        <v>0.0310515740010758</v>
       </c>
       <c r="E589" t="n">
-        <v>0.95181783932301</v>
+        <v>0.913905095538263</v>
       </c>
       <c r="F589" t="b">
         <v>0</v>
@@ -24447,10 +24444,10 @@
         <v>359</v>
       </c>
       <c r="J589" t="n">
-        <v>0.0460425045529619</v>
+        <v>0.0457299400141217</v>
       </c>
       <c r="K589" t="n">
-        <v>0.0460425045529619</v>
+        <v>0.0457299400141217</v>
       </c>
     </row>
     <row r="590">
@@ -24458,16 +24455,16 @@
         <v>946</v>
       </c>
       <c r="B590" t="n">
-        <v>-0.0146783660130459</v>
+        <v>-0.0080811594716277</v>
       </c>
       <c r="C590" t="n">
-        <v>0.971203245336195</v>
+        <v>0.981403479553125</v>
       </c>
       <c r="D590" t="n">
-        <v>0.0310515740010758</v>
+        <v>0.037601496324911</v>
       </c>
       <c r="E590" t="n">
-        <v>0.913905095538263</v>
+        <v>0.859278111948908</v>
       </c>
       <c r="F590" t="b">
         <v>0</v>
@@ -24482,10 +24479,10 @@
         <v>359</v>
       </c>
       <c r="J590" t="n">
-        <v>0.0457299400141217</v>
+        <v>0.0456826557965387</v>
       </c>
       <c r="K590" t="n">
-        <v>0.0457299400141217</v>
+        <v>0.0456826557965387</v>
       </c>
     </row>
     <row r="591">
@@ -24493,16 +24490,16 @@
         <v>947</v>
       </c>
       <c r="B591" t="n">
-        <v>-0.00808115947162771</v>
+        <v>-0.0284994954556644</v>
       </c>
       <c r="C591" t="n">
-        <v>0.981403479553125</v>
+        <v>0.926409650350557</v>
       </c>
       <c r="D591" t="n">
-        <v>0.037601496324911</v>
+        <v>0.0168931012728139</v>
       </c>
       <c r="E591" t="n">
-        <v>0.859278111948908</v>
+        <v>0.913273007754942</v>
       </c>
       <c r="F591" t="b">
         <v>0</v>
@@ -24517,10 +24514,10 @@
         <v>359</v>
       </c>
       <c r="J591" t="n">
-        <v>0.0456826557965387</v>
+        <v>0.0453925967284783</v>
       </c>
       <c r="K591" t="n">
-        <v>0.0456826557965387</v>
+        <v>0.0453925967284783</v>
       </c>
     </row>
     <row r="592">
@@ -24528,16 +24525,16 @@
         <v>948</v>
       </c>
       <c r="B592" t="n">
-        <v>-0.0284994954556644</v>
+        <v>0.0318131683256418</v>
       </c>
       <c r="C592" t="n">
-        <v>0.926409650350557</v>
+        <v>0.96280058149961</v>
       </c>
       <c r="D592" t="n">
-        <v>0.0168931012728139</v>
+        <v>-0.0132862301010973</v>
       </c>
       <c r="E592" t="n">
-        <v>0.913273007754942</v>
+        <v>0.976815563145522</v>
       </c>
       <c r="F592" t="b">
         <v>0</v>
@@ -24552,10 +24549,10 @@
         <v>359</v>
       </c>
       <c r="J592" t="n">
-        <v>0.0453925967284783</v>
+        <v>-0.0450993984267391</v>
       </c>
       <c r="K592" t="n">
-        <v>0.0453925967284783</v>
+        <v>0.0450993984267391</v>
       </c>
     </row>
     <row r="593">
@@ -24563,16 +24560,16 @@
         <v>949</v>
       </c>
       <c r="B593" t="n">
-        <v>0.0318131683256418</v>
+        <v>-0.0148709519771614</v>
       </c>
       <c r="C593" t="n">
-        <v>0.96280058149961</v>
+        <v>0.956636981097888</v>
       </c>
       <c r="D593" t="n">
-        <v>-0.0132862301010973</v>
+        <v>0.0302114182014019</v>
       </c>
       <c r="E593" t="n">
-        <v>0.976815563145522</v>
+        <v>0.860224187119947</v>
       </c>
       <c r="F593" t="b">
         <v>0</v>
@@ -24587,10 +24584,10 @@
         <v>359</v>
       </c>
       <c r="J593" t="n">
-        <v>-0.0450993984267391</v>
+        <v>0.0450823701785633</v>
       </c>
       <c r="K593" t="n">
-        <v>0.0450993984267391</v>
+        <v>0.0450823701785633</v>
       </c>
     </row>
     <row r="594">
@@ -24598,16 +24595,16 @@
         <v>950</v>
       </c>
       <c r="B594" t="n">
-        <v>-0.0148709519771614</v>
+        <v>0.0445481880557083</v>
       </c>
       <c r="C594" t="n">
-        <v>0.956636981097888</v>
+        <v>0.929340312405264</v>
       </c>
       <c r="D594" t="n">
-        <v>0.0302114182014019</v>
+        <v>-0.0002584816153939</v>
       </c>
       <c r="E594" t="n">
-        <v>0.860224187119947</v>
+        <v>0.9991127737137</v>
       </c>
       <c r="F594" t="b">
         <v>0</v>
@@ -24622,10 +24619,10 @@
         <v>359</v>
       </c>
       <c r="J594" t="n">
-        <v>0.0450823701785633</v>
+        <v>-0.0448066696711022</v>
       </c>
       <c r="K594" t="n">
-        <v>0.0450823701785633</v>
+        <v>0.0448066696711022</v>
       </c>
     </row>
     <row r="595">
@@ -24633,16 +24630,16 @@
         <v>951</v>
       </c>
       <c r="B595" t="n">
-        <v>0.0445481880557083</v>
+        <v>-0.0161316027404378</v>
       </c>
       <c r="C595" t="n">
-        <v>0.929340312405264</v>
+        <v>0.956636981097888</v>
       </c>
       <c r="D595" t="n">
-        <v>-0.0002584816153939</v>
+        <v>0.0286165739190506</v>
       </c>
       <c r="E595" t="n">
-        <v>0.9991127737137</v>
+        <v>0.895190859690791</v>
       </c>
       <c r="F595" t="b">
         <v>0</v>
@@ -24657,10 +24654,10 @@
         <v>359</v>
       </c>
       <c r="J595" t="n">
-        <v>-0.0448066696711022</v>
+        <v>0.0447481766594884</v>
       </c>
       <c r="K595" t="n">
-        <v>0.0448066696711022</v>
+        <v>0.0447481766594884</v>
       </c>
     </row>
     <row r="596">
@@ -24668,16 +24665,16 @@
         <v>952</v>
       </c>
       <c r="B596" t="n">
-        <v>-0.0161316027404378</v>
+        <v>-0.031087174200181</v>
       </c>
       <c r="C596" t="n">
-        <v>0.956636981097888</v>
+        <v>0.906668883502884</v>
       </c>
       <c r="D596" t="n">
-        <v>0.0286165739190506</v>
+        <v>0.0136477847165791</v>
       </c>
       <c r="E596" t="n">
-        <v>0.895190859690791</v>
+        <v>0.935519609523848</v>
       </c>
       <c r="F596" t="b">
         <v>0</v>
@@ -24692,10 +24689,10 @@
         <v>359</v>
       </c>
       <c r="J596" t="n">
-        <v>0.0447481766594884</v>
+        <v>0.0447349589167601</v>
       </c>
       <c r="K596" t="n">
-        <v>0.0447481766594884</v>
+        <v>0.0447349589167601</v>
       </c>
     </row>
     <row r="597">
@@ -24703,16 +24700,16 @@
         <v>953</v>
       </c>
       <c r="B597" t="n">
-        <v>-0.031087174200181</v>
+        <v>-0.0223008211544073</v>
       </c>
       <c r="C597" t="n">
-        <v>0.906668883502884</v>
+        <v>0.97281750427097</v>
       </c>
       <c r="D597" t="n">
-        <v>0.0136477847165791</v>
+        <v>0.0223454823475838</v>
       </c>
       <c r="E597" t="n">
-        <v>0.935519609523848</v>
+        <v>0.961904887048365</v>
       </c>
       <c r="F597" t="b">
         <v>0</v>
@@ -24727,10 +24724,10 @@
         <v>359</v>
       </c>
       <c r="J597" t="n">
-        <v>0.0447349589167601</v>
+        <v>0.0446463035019911</v>
       </c>
       <c r="K597" t="n">
-        <v>0.0447349589167601</v>
+        <v>0.0446463035019911</v>
       </c>
     </row>
     <row r="598">
@@ -24738,16 +24735,16 @@
         <v>954</v>
       </c>
       <c r="B598" t="n">
-        <v>-0.0223008211544073</v>
+        <v>-0.0297246868828406</v>
       </c>
       <c r="C598" t="n">
-        <v>0.97281750427097</v>
+        <v>0.915911925637934</v>
       </c>
       <c r="D598" t="n">
-        <v>0.0223454823475838</v>
+        <v>0.0147898691463474</v>
       </c>
       <c r="E598" t="n">
-        <v>0.961904887048365</v>
+        <v>0.924196144330846</v>
       </c>
       <c r="F598" t="b">
         <v>0</v>
@@ -24762,10 +24759,10 @@
         <v>359</v>
       </c>
       <c r="J598" t="n">
-        <v>0.0446463035019911</v>
+        <v>0.044514556029188</v>
       </c>
       <c r="K598" t="n">
-        <v>0.0446463035019911</v>
+        <v>0.044514556029188</v>
       </c>
     </row>
     <row r="599">
@@ -24773,16 +24770,16 @@
         <v>955</v>
       </c>
       <c r="B599" t="n">
-        <v>-0.0297246868828406</v>
+        <v>-0.0218516215499057</v>
       </c>
       <c r="C599" t="n">
-        <v>0.915911925637934</v>
+        <v>0.938291063995957</v>
       </c>
       <c r="D599" t="n">
-        <v>0.0147898691463474</v>
+        <v>0.0226025494213952</v>
       </c>
       <c r="E599" t="n">
-        <v>0.924196144330846</v>
+        <v>0.895733073477058</v>
       </c>
       <c r="F599" t="b">
         <v>0</v>
@@ -24797,10 +24794,10 @@
         <v>359</v>
       </c>
       <c r="J599" t="n">
-        <v>0.044514556029188</v>
+        <v>0.0444541709713009</v>
       </c>
       <c r="K599" t="n">
-        <v>0.044514556029188</v>
+        <v>0.0444541709713009</v>
       </c>
     </row>
     <row r="600">
@@ -24808,16 +24805,16 @@
         <v>956</v>
       </c>
       <c r="B600" t="n">
-        <v>-0.0218516215499057</v>
+        <v>0.0215594863592353</v>
       </c>
       <c r="C600" t="n">
-        <v>0.938291063995957</v>
+        <v>0.971403605206783</v>
       </c>
       <c r="D600" t="n">
-        <v>0.0226025494213952</v>
+        <v>-0.02280754992575</v>
       </c>
       <c r="E600" t="n">
-        <v>0.895733073477058</v>
+        <v>0.947395240426062</v>
       </c>
       <c r="F600" t="b">
         <v>0</v>
@@ -24832,10 +24829,10 @@
         <v>359</v>
       </c>
       <c r="J600" t="n">
-        <v>0.0444541709713009</v>
+        <v>-0.0443670362849853</v>
       </c>
       <c r="K600" t="n">
-        <v>0.0444541709713009</v>
+        <v>0.0443670362849853</v>
       </c>
     </row>
     <row r="601">
@@ -24843,16 +24840,16 @@
         <v>957</v>
       </c>
       <c r="B601" t="n">
-        <v>0.0215594863592353</v>
+        <v>-0.0342991471902138</v>
       </c>
       <c r="C601" t="n">
-        <v>0.971403605206783</v>
+        <v>0.899156049710255</v>
       </c>
       <c r="D601" t="n">
-        <v>-0.02280754992575</v>
+        <v>0.0100553538921953</v>
       </c>
       <c r="E601" t="n">
-        <v>0.947395240426062</v>
+        <v>0.956333644349567</v>
       </c>
       <c r="F601" t="b">
         <v>0</v>
@@ -24867,10 +24864,10 @@
         <v>359</v>
       </c>
       <c r="J601" t="n">
-        <v>-0.0443670362849853</v>
+        <v>0.0443545010824091</v>
       </c>
       <c r="K601" t="n">
-        <v>0.0443670362849853</v>
+        <v>0.0443545010824091</v>
       </c>
     </row>
     <row r="602">
@@ -24878,16 +24875,16 @@
         <v>958</v>
       </c>
       <c r="B602" t="n">
-        <v>-0.0342991471902138</v>
+        <v>-0.008249498917426</v>
       </c>
       <c r="C602" t="n">
-        <v>0.899156049710255</v>
+        <v>0.987061081622256</v>
       </c>
       <c r="D602" t="n">
-        <v>0.0100553538921953</v>
+        <v>0.0359619706086908</v>
       </c>
       <c r="E602" t="n">
-        <v>0.956333644349567</v>
+        <v>0.913364300268872</v>
       </c>
       <c r="F602" t="b">
         <v>0</v>
@@ -24902,10 +24899,10 @@
         <v>359</v>
       </c>
       <c r="J602" t="n">
-        <v>0.0443545010824091</v>
+        <v>0.0442114695261168</v>
       </c>
       <c r="K602" t="n">
-        <v>0.0443545010824091</v>
+        <v>0.0442114695261168</v>
       </c>
     </row>
     <row r="603">
@@ -24913,16 +24910,16 @@
         <v>959</v>
       </c>
       <c r="B603" t="n">
-        <v>-0.008249498917426</v>
+        <v>-0.0098890696608401</v>
       </c>
       <c r="C603" t="n">
-        <v>0.987061081622256</v>
+        <v>0.970765350100084</v>
       </c>
       <c r="D603" t="n">
-        <v>0.0359619706086908</v>
+        <v>0.0343058446055897</v>
       </c>
       <c r="E603" t="n">
-        <v>0.913364300268872</v>
+        <v>0.825773656170388</v>
       </c>
       <c r="F603" t="b">
         <v>0</v>
@@ -24937,10 +24934,10 @@
         <v>359</v>
       </c>
       <c r="J603" t="n">
-        <v>0.0442114695261168</v>
+        <v>0.0441949142664298</v>
       </c>
       <c r="K603" t="n">
-        <v>0.0442114695261168</v>
+        <v>0.0441949142664298</v>
       </c>
     </row>
     <row r="604">
@@ -24948,16 +24945,16 @@
         <v>960</v>
       </c>
       <c r="B604" t="n">
-        <v>-0.00988906966084016</v>
+        <v>-0.0393414575991794</v>
       </c>
       <c r="C604" t="n">
-        <v>0.970765350100084</v>
+        <v>0.986255335393844</v>
       </c>
       <c r="D604" t="n">
-        <v>0.0343058446055897</v>
+        <v>0.00459576871623142</v>
       </c>
       <c r="E604" t="n">
-        <v>0.825773656170388</v>
+        <v>0.997199907837077</v>
       </c>
       <c r="F604" t="b">
         <v>0</v>
@@ -24972,10 +24969,10 @@
         <v>359</v>
       </c>
       <c r="J604" t="n">
-        <v>0.0441949142664299</v>
+        <v>0.0439372263154108</v>
       </c>
       <c r="K604" t="n">
-        <v>0.0441949142664299</v>
+        <v>0.0439372263154108</v>
       </c>
     </row>
     <row r="605">
@@ -24983,16 +24980,16 @@
         <v>961</v>
       </c>
       <c r="B605" t="n">
-        <v>-0.0393414575991794</v>
+        <v>-0.0418487358070875</v>
       </c>
       <c r="C605" t="n">
-        <v>0.986255335393844</v>
+        <v>0.874490640253458</v>
       </c>
       <c r="D605" t="n">
-        <v>0.00459576871623142</v>
+        <v>0.00191499784299764</v>
       </c>
       <c r="E605" t="n">
-        <v>0.997199907837077</v>
+        <v>0.991401866559821</v>
       </c>
       <c r="F605" t="b">
         <v>0</v>
@@ -25007,10 +25004,10 @@
         <v>359</v>
       </c>
       <c r="J605" t="n">
-        <v>0.0439372263154108</v>
+        <v>0.0437637336500851</v>
       </c>
       <c r="K605" t="n">
-        <v>0.0439372263154108</v>
+        <v>0.0437637336500851</v>
       </c>
     </row>
     <row r="606">
@@ -25018,16 +25015,16 @@
         <v>962</v>
       </c>
       <c r="B606" t="n">
-        <v>-0.0418487358070875</v>
+        <v>-0.0395288650567371</v>
       </c>
       <c r="C606" t="n">
-        <v>0.874490640253458</v>
+        <v>0.883801282551815</v>
       </c>
       <c r="D606" t="n">
-        <v>0.00191499784299764</v>
+        <v>0.00396042574464686</v>
       </c>
       <c r="E606" t="n">
-        <v>0.991401866559821</v>
+        <v>0.983949889083263</v>
       </c>
       <c r="F606" t="b">
         <v>0</v>
@@ -25042,10 +25039,10 @@
         <v>359</v>
       </c>
       <c r="J606" t="n">
-        <v>0.0437637336500851</v>
+        <v>0.043489290801384</v>
       </c>
       <c r="K606" t="n">
-        <v>0.0437637336500851</v>
+        <v>0.043489290801384</v>
       </c>
     </row>
     <row r="607">
@@ -25053,16 +25050,16 @@
         <v>963</v>
       </c>
       <c r="B607" t="n">
-        <v>-0.0395288650567371</v>
+        <v>-0.0154532328901289</v>
       </c>
       <c r="C607" t="n">
-        <v>0.883801282551815</v>
+        <v>0.976282158191785</v>
       </c>
       <c r="D607" t="n">
-        <v>0.00396042574464686</v>
+        <v>0.0280186494032298</v>
       </c>
       <c r="E607" t="n">
-        <v>0.983949889083263</v>
+        <v>0.925690225126922</v>
       </c>
       <c r="F607" t="b">
         <v>0</v>
@@ -25077,10 +25074,10 @@
         <v>359</v>
       </c>
       <c r="J607" t="n">
-        <v>0.043489290801384</v>
+        <v>0.0434718822933587</v>
       </c>
       <c r="K607" t="n">
-        <v>0.043489290801384</v>
+        <v>0.0434718822933587</v>
       </c>
     </row>
     <row r="608">
@@ -25088,16 +25085,16 @@
         <v>964</v>
       </c>
       <c r="B608" t="n">
-        <v>-0.0154532328901289</v>
+        <v>-0.0026205329068166</v>
       </c>
       <c r="C608" t="n">
-        <v>0.976282158191785</v>
+        <v>0.995598175211115</v>
       </c>
       <c r="D608" t="n">
-        <v>0.0280186494032298</v>
+        <v>0.0407675371707318</v>
       </c>
       <c r="E608" t="n">
-        <v>0.925690225126922</v>
+        <v>0.851646613149116</v>
       </c>
       <c r="F608" t="b">
         <v>0</v>
@@ -25112,10 +25109,10 @@
         <v>359</v>
       </c>
       <c r="J608" t="n">
-        <v>0.0434718822933587</v>
+        <v>0.0433880700775484</v>
       </c>
       <c r="K608" t="n">
-        <v>0.0434718822933587</v>
+        <v>0.0433880700775484</v>
       </c>
     </row>
     <row r="609">
@@ -25123,16 +25120,16 @@
         <v>965</v>
       </c>
       <c r="B609" t="n">
-        <v>-0.00262053290681663</v>
+        <v>-0.0412404106880543</v>
       </c>
       <c r="C609" t="n">
-        <v>0.995598175211115</v>
+        <v>0.890014151610786</v>
       </c>
       <c r="D609" t="n">
-        <v>0.0407675371707318</v>
+        <v>0.00185746386038578</v>
       </c>
       <c r="E609" t="n">
-        <v>0.851646613149116</v>
+        <v>0.99288186961626</v>
       </c>
       <c r="F609" t="b">
         <v>0</v>
@@ -25147,10 +25144,10 @@
         <v>359</v>
       </c>
       <c r="J609" t="n">
-        <v>0.0433880700775484</v>
+        <v>0.0430978745484401</v>
       </c>
       <c r="K609" t="n">
-        <v>0.0433880700775484</v>
+        <v>0.0430978745484401</v>
       </c>
     </row>
     <row r="610">
@@ -25158,16 +25155,16 @@
         <v>966</v>
       </c>
       <c r="B610" t="n">
-        <v>-0.0412404106880543</v>
+        <v>-0.0391578653612021</v>
       </c>
       <c r="C610" t="n">
-        <v>0.890014151610786</v>
+        <v>0.878095009607048</v>
       </c>
       <c r="D610" t="n">
-        <v>0.00185746386038578</v>
+        <v>0.00392760649851357</v>
       </c>
       <c r="E610" t="n">
-        <v>0.99288186961626</v>
+        <v>0.97757732514158</v>
       </c>
       <c r="F610" t="b">
         <v>0</v>
@@ -25182,10 +25179,10 @@
         <v>359</v>
       </c>
       <c r="J610" t="n">
-        <v>0.0430978745484401</v>
+        <v>0.0430854718597157</v>
       </c>
       <c r="K610" t="n">
-        <v>0.0430978745484401</v>
+        <v>0.0430854718597157</v>
       </c>
     </row>
     <row r="611">
@@ -25193,16 +25190,16 @@
         <v>967</v>
       </c>
       <c r="B611" t="n">
-        <v>-0.0391578653612021</v>
+        <v>-0.0155048610712056</v>
       </c>
       <c r="C611" t="n">
-        <v>0.878095009607048</v>
+        <v>0.954439370006527</v>
       </c>
       <c r="D611" t="n">
-        <v>0.00392760649851357</v>
+        <v>0.0274932509346282</v>
       </c>
       <c r="E611" t="n">
-        <v>0.97757732514158</v>
+        <v>0.83652977086066</v>
       </c>
       <c r="F611" t="b">
         <v>0</v>
@@ -25217,10 +25214,10 @@
         <v>359</v>
       </c>
       <c r="J611" t="n">
-        <v>0.0430854718597157</v>
+        <v>0.0429981120058338</v>
       </c>
       <c r="K611" t="n">
-        <v>0.0430854718597157</v>
+        <v>0.0429981120058338</v>
       </c>
     </row>
     <row r="612">
@@ -25228,16 +25225,16 @@
         <v>968</v>
       </c>
       <c r="B612" t="n">
-        <v>-0.0155048610712056</v>
+        <v>-0.0102364127000395</v>
       </c>
       <c r="C612" t="n">
-        <v>0.954439370006527</v>
+        <v>0.969754932077816</v>
       </c>
       <c r="D612" t="n">
-        <v>0.0274932509346282</v>
+        <v>0.0327160339492577</v>
       </c>
       <c r="E612" t="n">
-        <v>0.83652977086066</v>
+        <v>0.79404812163062</v>
       </c>
       <c r="F612" t="b">
         <v>0</v>
@@ -25252,10 +25249,10 @@
         <v>359</v>
       </c>
       <c r="J612" t="n">
-        <v>0.0429981120058338</v>
+        <v>0.0429524466492972</v>
       </c>
       <c r="K612" t="n">
-        <v>0.0429981120058338</v>
+        <v>0.0429524466492972</v>
       </c>
     </row>
     <row r="613">
@@ -25263,16 +25260,16 @@
         <v>969</v>
       </c>
       <c r="B613" t="n">
-        <v>-0.0102364127000395</v>
+        <v>-0.0086966767881398</v>
       </c>
       <c r="C613" t="n">
-        <v>0.969754932077816</v>
+        <v>0.974629104540756</v>
       </c>
       <c r="D613" t="n">
-        <v>0.0327160339492577</v>
+        <v>0.0342213003527035</v>
       </c>
       <c r="E613" t="n">
-        <v>0.79404812163062</v>
+        <v>0.860784442968274</v>
       </c>
       <c r="F613" t="b">
         <v>0</v>
@@ -25287,10 +25284,10 @@
         <v>359</v>
       </c>
       <c r="J613" t="n">
-        <v>0.0429524466492972</v>
+        <v>0.0429179771408433</v>
       </c>
       <c r="K613" t="n">
-        <v>0.0429524466492972</v>
+        <v>0.0429179771408433</v>
       </c>
     </row>
     <row r="614">
@@ -25298,16 +25295,16 @@
         <v>970</v>
       </c>
       <c r="B614" t="n">
-        <v>-0.00869667678813988</v>
+        <v>-0.0235771540399405</v>
       </c>
       <c r="C614" t="n">
-        <v>0.974629104540756</v>
+        <v>0.930260467252559</v>
       </c>
       <c r="D614" t="n">
-        <v>0.0342213003527035</v>
+        <v>0.0192714175094337</v>
       </c>
       <c r="E614" t="n">
-        <v>0.860784442968274</v>
+        <v>0.899338257212175</v>
       </c>
       <c r="F614" t="b">
         <v>0</v>
@@ -25322,10 +25319,10 @@
         <v>359</v>
       </c>
       <c r="J614" t="n">
-        <v>0.0429179771408434</v>
+        <v>0.0428485715493742</v>
       </c>
       <c r="K614" t="n">
-        <v>0.0429179771408434</v>
+        <v>0.0428485715493742</v>
       </c>
     </row>
     <row r="615">
@@ -25333,16 +25330,16 @@
         <v>971</v>
       </c>
       <c r="B615" t="n">
-        <v>-0.0235771540399405</v>
+        <v>-0.0094430757360565</v>
       </c>
       <c r="C615" t="n">
-        <v>0.930260467252559</v>
+        <v>0.974338592514285</v>
       </c>
       <c r="D615" t="n">
-        <v>0.0192714175094337</v>
+        <v>0.0332133133747589</v>
       </c>
       <c r="E615" t="n">
-        <v>0.899338257212175</v>
+        <v>0.877626568295689</v>
       </c>
       <c r="F615" t="b">
         <v>0</v>
@@ -25357,10 +25354,10 @@
         <v>359</v>
       </c>
       <c r="J615" t="n">
-        <v>0.0428485715493742</v>
+        <v>0.0426563891108154</v>
       </c>
       <c r="K615" t="n">
-        <v>0.0428485715493742</v>
+        <v>0.0426563891108154</v>
       </c>
     </row>
     <row r="616">
@@ -25368,16 +25365,16 @@
         <v>972</v>
       </c>
       <c r="B616" t="n">
-        <v>-0.00944307573605653</v>
+        <v>-0.0391683011624389</v>
       </c>
       <c r="C616" t="n">
-        <v>0.974338592514285</v>
+        <v>0.880341448764084</v>
       </c>
       <c r="D616" t="n">
-        <v>0.0332133133747589</v>
+        <v>0.00343620677525189</v>
       </c>
       <c r="E616" t="n">
-        <v>0.877626568295689</v>
+        <v>0.982832812177774</v>
       </c>
       <c r="F616" t="b">
         <v>0</v>
@@ -25392,10 +25389,10 @@
         <v>359</v>
       </c>
       <c r="J616" t="n">
-        <v>0.0426563891108154</v>
+        <v>0.0426045079376908</v>
       </c>
       <c r="K616" t="n">
-        <v>0.0426563891108154</v>
+        <v>0.0426045079376908</v>
       </c>
     </row>
     <row r="617">
@@ -25403,16 +25400,16 @@
         <v>973</v>
       </c>
       <c r="B617" t="n">
-        <v>-0.0391683011624389</v>
+        <v>-0.0245432812646011</v>
       </c>
       <c r="C617" t="n">
-        <v>0.880341448764084</v>
+        <v>0.938291063995957</v>
       </c>
       <c r="D617" t="n">
-        <v>0.00343620677525189</v>
+        <v>0.0179768659560295</v>
       </c>
       <c r="E617" t="n">
-        <v>0.982832812177774</v>
+        <v>0.919580525606694</v>
       </c>
       <c r="F617" t="b">
         <v>0</v>
@@ -25427,10 +25424,10 @@
         <v>359</v>
       </c>
       <c r="J617" t="n">
-        <v>0.0426045079376908</v>
+        <v>0.0425201472206306</v>
       </c>
       <c r="K617" t="n">
-        <v>0.0426045079376908</v>
+        <v>0.0425201472206306</v>
       </c>
     </row>
     <row r="618">
@@ -25438,16 +25435,16 @@
         <v>974</v>
       </c>
       <c r="B618" t="n">
-        <v>-0.0245432812646011</v>
+        <v>-0.0314426215020154</v>
       </c>
       <c r="C618" t="n">
-        <v>0.938291063995957</v>
+        <v>0.906668883502884</v>
       </c>
       <c r="D618" t="n">
-        <v>0.0179768659560295</v>
+        <v>0.0110239816719363</v>
       </c>
       <c r="E618" t="n">
-        <v>0.919580525606694</v>
+        <v>0.948217096549301</v>
       </c>
       <c r="F618" t="b">
         <v>0</v>
@@ -25462,10 +25459,10 @@
         <v>359</v>
       </c>
       <c r="J618" t="n">
-        <v>0.0425201472206306</v>
+        <v>0.0424666031739517</v>
       </c>
       <c r="K618" t="n">
-        <v>0.0425201472206306</v>
+        <v>0.0424666031739517</v>
       </c>
     </row>
     <row r="619">
@@ -25473,16 +25470,16 @@
         <v>975</v>
       </c>
       <c r="B619" t="n">
-        <v>-0.0314426215020154</v>
+        <v>-0.002584450512672</v>
       </c>
       <c r="C619" t="n">
-        <v>0.906668883502884</v>
+        <v>0.995598175211115</v>
       </c>
       <c r="D619" t="n">
-        <v>0.0110239816719363</v>
+        <v>0.0398493287653022</v>
       </c>
       <c r="E619" t="n">
-        <v>0.948217096549301</v>
+        <v>0.887837236482102</v>
       </c>
       <c r="F619" t="b">
         <v>0</v>
@@ -25497,10 +25494,10 @@
         <v>359</v>
       </c>
       <c r="J619" t="n">
-        <v>0.0424666031739517</v>
+        <v>0.0424337792779742</v>
       </c>
       <c r="K619" t="n">
-        <v>0.0424666031739517</v>
+        <v>0.0424337792779742</v>
       </c>
     </row>
     <row r="620">
@@ -25508,16 +25505,16 @@
         <v>976</v>
       </c>
       <c r="B620" t="n">
-        <v>-0.00258445051267203</v>
+        <v>-0.0262175363497845</v>
       </c>
       <c r="C620" t="n">
-        <v>0.995598175211115</v>
+        <v>0.927163725754763</v>
       </c>
       <c r="D620" t="n">
-        <v>0.0398493287653022</v>
+        <v>0.0161241886781137</v>
       </c>
       <c r="E620" t="n">
-        <v>0.887837236482102</v>
+        <v>0.933952222160236</v>
       </c>
       <c r="F620" t="b">
         <v>0</v>
@@ -25532,10 +25529,10 @@
         <v>359</v>
       </c>
       <c r="J620" t="n">
-        <v>0.0424337792779742</v>
+        <v>0.0423417250278982</v>
       </c>
       <c r="K620" t="n">
-        <v>0.0424337792779742</v>
+        <v>0.0423417250278982</v>
       </c>
     </row>
     <row r="621">
@@ -25543,16 +25540,16 @@
         <v>977</v>
       </c>
       <c r="B621" t="n">
-        <v>-0.0262175363497845</v>
+        <v>-0.0218280490231615</v>
       </c>
       <c r="C621" t="n">
-        <v>0.927163725754763</v>
+        <v>0.939454102588729</v>
       </c>
       <c r="D621" t="n">
-        <v>0.0161241886781137</v>
+        <v>0.0205019232733674</v>
       </c>
       <c r="E621" t="n">
-        <v>0.933952222160236</v>
+        <v>0.887236124581698</v>
       </c>
       <c r="F621" t="b">
         <v>0</v>
@@ -25567,10 +25564,10 @@
         <v>359</v>
       </c>
       <c r="J621" t="n">
-        <v>0.0423417250278982</v>
+        <v>0.0423299722965289</v>
       </c>
       <c r="K621" t="n">
-        <v>0.0423417250278982</v>
+        <v>0.0423299722965289</v>
       </c>
     </row>
     <row r="622">
@@ -25578,16 +25575,16 @@
         <v>978</v>
       </c>
       <c r="B622" t="n">
-        <v>-0.0218280490231615</v>
+        <v>-0.0244192317004662</v>
       </c>
       <c r="C622" t="n">
-        <v>0.939454102588729</v>
+        <v>0.959566004106409</v>
       </c>
       <c r="D622" t="n">
-        <v>0.0205019232733674</v>
+        <v>0.01783120612978</v>
       </c>
       <c r="E622" t="n">
-        <v>0.887236124581698</v>
+        <v>0.954388779222419</v>
       </c>
       <c r="F622" t="b">
         <v>0</v>
@@ -25602,10 +25599,10 @@
         <v>359</v>
       </c>
       <c r="J622" t="n">
-        <v>0.0423299722965289</v>
+        <v>0.0422504378302462</v>
       </c>
       <c r="K622" t="n">
-        <v>0.0423299722965289</v>
+        <v>0.0422504378302462</v>
       </c>
     </row>
     <row r="623">
@@ -25613,16 +25610,16 @@
         <v>979</v>
       </c>
       <c r="B623" t="n">
-        <v>-0.0244192317004662</v>
+        <v>-0.0050345225206613</v>
       </c>
       <c r="C623" t="n">
-        <v>0.959566004106409</v>
+        <v>0.991196322328452</v>
       </c>
       <c r="D623" t="n">
-        <v>0.01783120612978</v>
+        <v>0.0371980939752088</v>
       </c>
       <c r="E623" t="n">
-        <v>0.954388779222419</v>
+        <v>0.894717800670419</v>
       </c>
       <c r="F623" t="b">
         <v>0</v>
@@ -25637,10 +25634,10 @@
         <v>359</v>
       </c>
       <c r="J623" t="n">
-        <v>0.0422504378302462</v>
+        <v>0.0422326164958701</v>
       </c>
       <c r="K623" t="n">
-        <v>0.0422504378302462</v>
+        <v>0.0422326164958701</v>
       </c>
     </row>
     <row r="624">
@@ -25648,16 +25645,16 @@
         <v>980</v>
       </c>
       <c r="B624" t="n">
-        <v>-0.0050345225206613</v>
+        <v>-0.0003722865262385</v>
       </c>
       <c r="C624" t="n">
-        <v>0.991196322328452</v>
+        <v>0.99932993475263</v>
       </c>
       <c r="D624" t="n">
-        <v>0.0371980939752088</v>
+        <v>0.0417425889843434</v>
       </c>
       <c r="E624" t="n">
-        <v>0.894717800670419</v>
+        <v>0.728120525204597</v>
       </c>
       <c r="F624" t="b">
         <v>0</v>
@@ -25672,10 +25669,10 @@
         <v>359</v>
       </c>
       <c r="J624" t="n">
-        <v>0.0422326164958701</v>
+        <v>0.0421148755105819</v>
       </c>
       <c r="K624" t="n">
-        <v>0.0422326164958701</v>
+        <v>0.0421148755105819</v>
       </c>
     </row>
     <row r="625">
@@ -25683,16 +25680,16 @@
         <v>981</v>
       </c>
       <c r="B625" t="n">
-        <v>-0.00037228652623851</v>
+        <v>-0.02687696987498</v>
       </c>
       <c r="C625" t="n">
-        <v>0.99932993475263</v>
+        <v>0.935113796138603</v>
       </c>
       <c r="D625" t="n">
-        <v>0.0417425889843434</v>
+        <v>0.0150992958662294</v>
       </c>
       <c r="E625" t="n">
-        <v>0.728120525204597</v>
+        <v>0.938771936470215</v>
       </c>
       <c r="F625" t="b">
         <v>0</v>
@@ -25707,10 +25704,10 @@
         <v>359</v>
       </c>
       <c r="J625" t="n">
-        <v>0.0421148755105819</v>
+        <v>0.0419762657412094</v>
       </c>
       <c r="K625" t="n">
-        <v>0.0421148755105819</v>
+        <v>0.0419762657412094</v>
       </c>
     </row>
     <row r="626">
@@ -25718,16 +25715,16 @@
         <v>982</v>
       </c>
       <c r="B626" t="n">
-        <v>-0.02687696987498</v>
+        <v>-0.024772134545481</v>
       </c>
       <c r="C626" t="n">
-        <v>0.935113796138603</v>
+        <v>0.935647729794827</v>
       </c>
       <c r="D626" t="n">
-        <v>0.0150992958662294</v>
+        <v>0.0171574407721477</v>
       </c>
       <c r="E626" t="n">
-        <v>0.938771936470215</v>
+        <v>0.919264023943349</v>
       </c>
       <c r="F626" t="b">
         <v>0</v>
@@ -25742,10 +25739,10 @@
         <v>359</v>
       </c>
       <c r="J626" t="n">
-        <v>0.0419762657412094</v>
+        <v>0.0419295753176287</v>
       </c>
       <c r="K626" t="n">
-        <v>0.0419762657412094</v>
+        <v>0.0419295753176287</v>
       </c>
     </row>
     <row r="627">
@@ -25753,16 +25750,16 @@
         <v>983</v>
       </c>
       <c r="B627" t="n">
-        <v>-0.024772134545481</v>
+        <v>-0.028543735503561</v>
       </c>
       <c r="C627" t="n">
-        <v>0.935647729794827</v>
+        <v>0.912946575232598</v>
       </c>
       <c r="D627" t="n">
-        <v>0.0171574407721477</v>
+        <v>0.0133036418318904</v>
       </c>
       <c r="E627" t="n">
-        <v>0.919264023943349</v>
+        <v>0.938166646032389</v>
       </c>
       <c r="F627" t="b">
         <v>0</v>
@@ -25777,10 +25774,10 @@
         <v>359</v>
       </c>
       <c r="J627" t="n">
-        <v>0.0419295753176287</v>
+        <v>0.0418473773354514</v>
       </c>
       <c r="K627" t="n">
-        <v>0.0419295753176287</v>
+        <v>0.0418473773354514</v>
       </c>
     </row>
     <row r="628">
@@ -25788,16 +25785,16 @@
         <v>984</v>
       </c>
       <c r="B628" t="n">
-        <v>-0.028543735503561</v>
+        <v>-0.0229331388030421</v>
       </c>
       <c r="C628" t="n">
-        <v>0.912946575232598</v>
+        <v>0.93436354870052</v>
       </c>
       <c r="D628" t="n">
-        <v>0.0133036418318904</v>
+        <v>0.0188134241640929</v>
       </c>
       <c r="E628" t="n">
-        <v>0.938166646032389</v>
+        <v>0.911658378773786</v>
       </c>
       <c r="F628" t="b">
         <v>0</v>
@@ -25812,10 +25809,10 @@
         <v>359</v>
       </c>
       <c r="J628" t="n">
-        <v>0.0418473773354514</v>
+        <v>0.041746562967135</v>
       </c>
       <c r="K628" t="n">
-        <v>0.0418473773354514</v>
+        <v>0.041746562967135</v>
       </c>
     </row>
     <row r="629">
@@ -25823,16 +25820,16 @@
         <v>985</v>
       </c>
       <c r="B629" t="n">
-        <v>-0.0229331388030421</v>
+        <v>-0.0265302305839592</v>
       </c>
       <c r="C629" t="n">
-        <v>0.93436354870052</v>
+        <v>0.918583215921261</v>
       </c>
       <c r="D629" t="n">
-        <v>0.0188134241640929</v>
+        <v>0.0151875940064127</v>
       </c>
       <c r="E629" t="n">
-        <v>0.911658378773786</v>
+        <v>0.917795436648501</v>
       </c>
       <c r="F629" t="b">
         <v>0</v>
@@ -25847,10 +25844,10 @@
         <v>359</v>
       </c>
       <c r="J629" t="n">
-        <v>0.041746562967135</v>
+        <v>0.0417178245903719</v>
       </c>
       <c r="K629" t="n">
-        <v>0.041746562967135</v>
+        <v>0.0417178245903719</v>
       </c>
     </row>
     <row r="630">
@@ -25858,16 +25855,16 @@
         <v>986</v>
       </c>
       <c r="B630" t="n">
-        <v>-0.0265302305839592</v>
+        <v>-0.0036664544645653</v>
       </c>
       <c r="C630" t="n">
-        <v>0.918583215921261</v>
+        <v>0.992324235161611</v>
       </c>
       <c r="D630" t="n">
-        <v>0.0151875940064127</v>
+        <v>0.0380265027695147</v>
       </c>
       <c r="E630" t="n">
-        <v>0.917795436648501</v>
+        <v>0.928205455800821</v>
       </c>
       <c r="F630" t="b">
         <v>0</v>
@@ -25882,10 +25879,10 @@
         <v>359</v>
       </c>
       <c r="J630" t="n">
-        <v>0.0417178245903719</v>
+        <v>0.04169295723408</v>
       </c>
       <c r="K630" t="n">
-        <v>0.0417178245903719</v>
+        <v>0.04169295723408</v>
       </c>
     </row>
     <row r="631">
@@ -25893,16 +25890,16 @@
         <v>987</v>
       </c>
       <c r="B631" t="n">
-        <v>-0.00366645446456533</v>
+        <v>-0.0231732508483198</v>
       </c>
       <c r="C631" t="n">
-        <v>0.992324235161611</v>
+        <v>0.930525136130877</v>
       </c>
       <c r="D631" t="n">
-        <v>0.0380265027695147</v>
+        <v>0.0184648615306494</v>
       </c>
       <c r="E631" t="n">
-        <v>0.928205455800821</v>
+        <v>0.915809607814288</v>
       </c>
       <c r="F631" t="b">
         <v>0</v>
@@ -25917,10 +25914,10 @@
         <v>359</v>
       </c>
       <c r="J631" t="n">
-        <v>0.04169295723408</v>
+        <v>0.0416381123789692</v>
       </c>
       <c r="K631" t="n">
-        <v>0.04169295723408</v>
+        <v>0.0416381123789692</v>
       </c>
     </row>
     <row r="632">
@@ -25928,16 +25925,16 @@
         <v>988</v>
       </c>
       <c r="B632" t="n">
-        <v>-0.0231732508483198</v>
+        <v>-0.0226903236873504</v>
       </c>
       <c r="C632" t="n">
-        <v>0.930525136130877</v>
+        <v>0.968946793277885</v>
       </c>
       <c r="D632" t="n">
-        <v>0.0184648615306494</v>
+        <v>0.0189105450632415</v>
       </c>
       <c r="E632" t="n">
-        <v>0.915809607814288</v>
+        <v>0.946753323245426</v>
       </c>
       <c r="F632" t="b">
         <v>0</v>
@@ -25952,10 +25949,10 @@
         <v>359</v>
       </c>
       <c r="J632" t="n">
-        <v>0.0416381123789692</v>
+        <v>0.0416008687505919</v>
       </c>
       <c r="K632" t="n">
-        <v>0.0416381123789692</v>
+        <v>0.0416008687505919</v>
       </c>
     </row>
     <row r="633">
@@ -25963,16 +25960,16 @@
         <v>989</v>
       </c>
       <c r="B633" t="n">
-        <v>-0.0226903236873504</v>
+        <v>-0.0009617385160515</v>
       </c>
       <c r="C633" t="n">
-        <v>0.968946793277885</v>
+        <v>0.997035537902129</v>
       </c>
       <c r="D633" t="n">
-        <v>0.0189105450632415</v>
+        <v>0.0405996611798431</v>
       </c>
       <c r="E633" t="n">
-        <v>0.946753323245426</v>
+        <v>0.818904117635301</v>
       </c>
       <c r="F633" t="b">
         <v>0</v>
@@ -25987,10 +25984,10 @@
         <v>359</v>
       </c>
       <c r="J633" t="n">
-        <v>0.0416008687505919</v>
+        <v>0.0415613996958946</v>
       </c>
       <c r="K633" t="n">
-        <v>0.0416008687505919</v>
+        <v>0.0415613996958946</v>
       </c>
     </row>
     <row r="634">
@@ -25998,16 +25995,16 @@
         <v>990</v>
       </c>
       <c r="B634" t="n">
-        <v>-0.00096173851605154</v>
+        <v>-0.0246194433632102</v>
       </c>
       <c r="C634" t="n">
-        <v>0.997035537902129</v>
+        <v>0.929841864102281</v>
       </c>
       <c r="D634" t="n">
-        <v>0.0405996611798431</v>
+        <v>0.0167017229170346</v>
       </c>
       <c r="E634" t="n">
-        <v>0.818904117635301</v>
+        <v>0.923146554644575</v>
       </c>
       <c r="F634" t="b">
         <v>0</v>
@@ -26022,10 +26019,10 @@
         <v>359</v>
       </c>
       <c r="J634" t="n">
-        <v>0.0415613996958946</v>
+        <v>0.0413211662802448</v>
       </c>
       <c r="K634" t="n">
-        <v>0.0415613996958946</v>
+        <v>0.0413211662802448</v>
       </c>
     </row>
     <row r="635">
@@ -26033,16 +26030,16 @@
         <v>991</v>
       </c>
       <c r="B635" t="n">
-        <v>-0.0246194433632102</v>
+        <v>-0.0199783469227204</v>
       </c>
       <c r="C635" t="n">
-        <v>0.929841864102281</v>
+        <v>0.944615145398824</v>
       </c>
       <c r="D635" t="n">
-        <v>0.0167017229170346</v>
+        <v>0.0213385399691114</v>
       </c>
       <c r="E635" t="n">
-        <v>0.923146554644575</v>
+        <v>0.894306174575272</v>
       </c>
       <c r="F635" t="b">
         <v>0</v>
@@ -26057,10 +26054,10 @@
         <v>359</v>
       </c>
       <c r="J635" t="n">
-        <v>0.0413211662802448</v>
+        <v>0.0413168868918318</v>
       </c>
       <c r="K635" t="n">
-        <v>0.0413211662802448</v>
+        <v>0.0413168868918318</v>
       </c>
     </row>
     <row r="636">
@@ -26068,16 +26065,16 @@
         <v>992</v>
       </c>
       <c r="B636" t="n">
-        <v>-0.0199783469227204</v>
+        <v>-0.0409511058634803</v>
       </c>
       <c r="C636" t="n">
-        <v>0.944615145398824</v>
+        <v>0.880341448764084</v>
       </c>
       <c r="D636" t="n">
-        <v>0.0213385399691114</v>
+        <v>0.00026118321399822</v>
       </c>
       <c r="E636" t="n">
-        <v>0.894306174575272</v>
+        <v>0.998833000974303</v>
       </c>
       <c r="F636" t="b">
         <v>0</v>
@@ -26092,10 +26089,10 @@
         <v>359</v>
       </c>
       <c r="J636" t="n">
-        <v>0.0413168868918318</v>
+        <v>0.0412122890774785</v>
       </c>
       <c r="K636" t="n">
-        <v>0.0413168868918318</v>
+        <v>0.0412122890774785</v>
       </c>
     </row>
     <row r="637">
@@ -26103,16 +26100,16 @@
         <v>993</v>
       </c>
       <c r="B637" t="n">
-        <v>-0.0409511058634803</v>
+        <v>0.0164349421583308</v>
       </c>
       <c r="C637" t="n">
-        <v>0.880341448764084</v>
+        <v>0.98026802882228</v>
       </c>
       <c r="D637" t="n">
-        <v>0.00026118321399822</v>
+        <v>-0.0245945426857615</v>
       </c>
       <c r="E637" t="n">
-        <v>0.998833000974303</v>
+        <v>0.961219786145577</v>
       </c>
       <c r="F637" t="b">
         <v>0</v>
@@ -26127,10 +26124,10 @@
         <v>359</v>
       </c>
       <c r="J637" t="n">
-        <v>0.0412122890774785</v>
+        <v>-0.0410294848440923</v>
       </c>
       <c r="K637" t="n">
-        <v>0.0412122890774785</v>
+        <v>0.0410294848440923</v>
       </c>
     </row>
     <row r="638">
@@ -26138,16 +26135,16 @@
         <v>994</v>
       </c>
       <c r="B638" t="n">
-        <v>0.0164349421583308</v>
+        <v>-0.0303297978568041</v>
       </c>
       <c r="C638" t="n">
-        <v>0.98026802882228</v>
+        <v>0.91033057827149</v>
       </c>
       <c r="D638" t="n">
-        <v>-0.0245945426857615</v>
+        <v>0.010686603175228</v>
       </c>
       <c r="E638" t="n">
-        <v>0.961219786145577</v>
+        <v>0.944949694596357</v>
       </c>
       <c r="F638" t="b">
         <v>0</v>
@@ -26162,10 +26159,10 @@
         <v>359</v>
       </c>
       <c r="J638" t="n">
-        <v>-0.0410294848440923</v>
+        <v>0.0410164010320321</v>
       </c>
       <c r="K638" t="n">
-        <v>0.0410294848440923</v>
+        <v>0.0410164010320321</v>
       </c>
     </row>
     <row r="639">
@@ -26173,16 +26170,16 @@
         <v>995</v>
       </c>
       <c r="B639" t="n">
-        <v>-0.0303297978568041</v>
+        <v>-0.0291324705143818</v>
       </c>
       <c r="C639" t="n">
-        <v>0.91033057827149</v>
+        <v>0.915577949398452</v>
       </c>
       <c r="D639" t="n">
-        <v>0.010686603175228</v>
+        <v>0.0118166784398371</v>
       </c>
       <c r="E639" t="n">
-        <v>0.944949694596357</v>
+        <v>0.938033058048282</v>
       </c>
       <c r="F639" t="b">
         <v>0</v>
@@ -26197,10 +26194,10 @@
         <v>359</v>
       </c>
       <c r="J639" t="n">
-        <v>0.0410164010320321</v>
+        <v>0.0409491489542189</v>
       </c>
       <c r="K639" t="n">
-        <v>0.0410164010320321</v>
+        <v>0.0409491489542189</v>
       </c>
     </row>
     <row r="640">
@@ -26208,16 +26205,16 @@
         <v>996</v>
       </c>
       <c r="B640" t="n">
-        <v>-0.0291324705143818</v>
+        <v>0.0393101393420483</v>
       </c>
       <c r="C640" t="n">
-        <v>0.915577949398452</v>
+        <v>0.925296320291506</v>
       </c>
       <c r="D640" t="n">
-        <v>0.0118166784398371</v>
+        <v>-0.00151092051352778</v>
       </c>
       <c r="E640" t="n">
-        <v>0.938033058048282</v>
+        <v>0.995406209139464</v>
       </c>
       <c r="F640" t="b">
         <v>0</v>
@@ -26232,10 +26229,10 @@
         <v>359</v>
       </c>
       <c r="J640" t="n">
-        <v>0.0409491489542189</v>
+        <v>-0.0408210598555761</v>
       </c>
       <c r="K640" t="n">
-        <v>0.0409491489542189</v>
+        <v>0.0408210598555761</v>
       </c>
     </row>
     <row r="641">
@@ -26243,16 +26240,16 @@
         <v>997</v>
       </c>
       <c r="B641" t="n">
-        <v>0.0393101393420483</v>
+        <v>-0.0188471203009634</v>
       </c>
       <c r="C641" t="n">
-        <v>0.925296320291506</v>
+        <v>0.949290145681094</v>
       </c>
       <c r="D641" t="n">
-        <v>-0.00151092051352778</v>
+        <v>0.0219446275921335</v>
       </c>
       <c r="E641" t="n">
-        <v>0.995406209139464</v>
+        <v>0.908541798525067</v>
       </c>
       <c r="F641" t="b">
         <v>0</v>
@@ -26267,10 +26264,10 @@
         <v>359</v>
       </c>
       <c r="J641" t="n">
-        <v>-0.0408210598555761</v>
+        <v>0.0407917478930969</v>
       </c>
       <c r="K641" t="n">
-        <v>0.0408210598555761</v>
+        <v>0.0407917478930969</v>
       </c>
     </row>
     <row r="642">
@@ -26278,16 +26275,16 @@
         <v>998</v>
       </c>
       <c r="B642" t="n">
-        <v>-0.0188471203009634</v>
+        <v>-0.0263473264151204</v>
       </c>
       <c r="C642" t="n">
-        <v>0.949290145681094</v>
+        <v>0.944585386967456</v>
       </c>
       <c r="D642" t="n">
-        <v>0.0219446275921335</v>
+        <v>0.0142234118080525</v>
       </c>
       <c r="E642" t="n">
-        <v>0.908541798525067</v>
+        <v>0.957922077747657</v>
       </c>
       <c r="F642" t="b">
         <v>0</v>
@@ -26302,10 +26299,10 @@
         <v>359</v>
       </c>
       <c r="J642" t="n">
-        <v>0.0407917478930969</v>
+        <v>0.0405707382231729</v>
       </c>
       <c r="K642" t="n">
-        <v>0.0407917478930969</v>
+        <v>0.0405707382231729</v>
       </c>
     </row>
     <row r="643">
@@ -26313,16 +26310,16 @@
         <v>999</v>
       </c>
       <c r="B643" t="n">
-        <v>-0.0263473264151204</v>
+        <v>-0.0101593900722487</v>
       </c>
       <c r="C643" t="n">
-        <v>0.944585386967456</v>
+        <v>0.981996293545106</v>
       </c>
       <c r="D643" t="n">
-        <v>0.0142234118080525</v>
+        <v>0.0302456687662618</v>
       </c>
       <c r="E643" t="n">
-        <v>0.957922077747657</v>
+        <v>0.902309198843865</v>
       </c>
       <c r="F643" t="b">
         <v>0</v>
@@ -26337,10 +26334,10 @@
         <v>359</v>
       </c>
       <c r="J643" t="n">
-        <v>0.0405707382231729</v>
+        <v>0.0404050588385105</v>
       </c>
       <c r="K643" t="n">
-        <v>0.0405707382231729</v>
+        <v>0.0404050588385105</v>
       </c>
     </row>
     <row r="644">
@@ -26348,16 +26345,16 @@
         <v>1000</v>
       </c>
       <c r="B644" t="n">
-        <v>-0.0101593900722487</v>
+        <v>-0.0347611264809332</v>
       </c>
       <c r="C644" t="n">
-        <v>0.981996293545106</v>
+        <v>0.899241510676088</v>
       </c>
       <c r="D644" t="n">
-        <v>0.0302456687662618</v>
+        <v>0.00564003279690533</v>
       </c>
       <c r="E644" t="n">
-        <v>0.902309198843865</v>
+        <v>0.97579279972015</v>
       </c>
       <c r="F644" t="b">
         <v>0</v>
@@ -26372,10 +26369,10 @@
         <v>359</v>
       </c>
       <c r="J644" t="n">
-        <v>0.0404050588385105</v>
+        <v>0.0404011592778385</v>
       </c>
       <c r="K644" t="n">
-        <v>0.0404050588385105</v>
+        <v>0.0404011592778385</v>
       </c>
     </row>
     <row r="645">
@@ -26383,16 +26380,16 @@
         <v>1001</v>
       </c>
       <c r="B645" t="n">
-        <v>-0.0347611264809332</v>
+        <v>-0.0253457729836246</v>
       </c>
       <c r="C645" t="n">
-        <v>0.899241510676088</v>
+        <v>0.941260926626045</v>
       </c>
       <c r="D645" t="n">
-        <v>0.00564003279690533</v>
+        <v>0.0150048685782179</v>
       </c>
       <c r="E645" t="n">
-        <v>0.97579279972015</v>
+        <v>0.950067111634191</v>
       </c>
       <c r="F645" t="b">
         <v>0</v>
@@ -26407,10 +26404,10 @@
         <v>359</v>
       </c>
       <c r="J645" t="n">
-        <v>0.0404011592778385</v>
+        <v>0.0403506415618425</v>
       </c>
       <c r="K645" t="n">
-        <v>0.0404011592778385</v>
+        <v>0.0403506415618425</v>
       </c>
     </row>
     <row r="646">
@@ -26418,16 +26415,16 @@
         <v>1002</v>
       </c>
       <c r="B646" t="n">
-        <v>-0.0253457729836246</v>
+        <v>-0.0049003389598442</v>
       </c>
       <c r="C646" t="n">
-        <v>0.941260926626045</v>
+        <v>0.990236325618106</v>
       </c>
       <c r="D646" t="n">
-        <v>0.0150048685782179</v>
+        <v>0.0351917146759455</v>
       </c>
       <c r="E646" t="n">
-        <v>0.950067111634191</v>
+        <v>0.892701253161169</v>
       </c>
       <c r="F646" t="b">
         <v>0</v>
@@ -26442,10 +26439,10 @@
         <v>359</v>
       </c>
       <c r="J646" t="n">
-        <v>0.0403506415618425</v>
+        <v>0.0400920536357897</v>
       </c>
       <c r="K646" t="n">
-        <v>0.0403506415618425</v>
+        <v>0.0400920536357897</v>
       </c>
     </row>
     <row r="647">
@@ -26453,16 +26450,16 @@
         <v>1003</v>
       </c>
       <c r="B647" t="n">
-        <v>-0.00490033895984429</v>
+        <v>-0.0122624153423559</v>
       </c>
       <c r="C647" t="n">
-        <v>0.990236325618106</v>
+        <v>0.971403605206783</v>
       </c>
       <c r="D647" t="n">
-        <v>0.0351917146759455</v>
+        <v>0.0273691703947409</v>
       </c>
       <c r="E647" t="n">
-        <v>0.892701253161169</v>
+        <v>0.909991883061061</v>
       </c>
       <c r="F647" t="b">
         <v>0</v>
@@ -26477,10 +26474,10 @@
         <v>359</v>
       </c>
       <c r="J647" t="n">
-        <v>0.0400920536357898</v>
+        <v>0.0396315857370968</v>
       </c>
       <c r="K647" t="n">
-        <v>0.0400920536357898</v>
+        <v>0.0396315857370968</v>
       </c>
     </row>
     <row r="648">
@@ -26488,16 +26485,16 @@
         <v>1004</v>
       </c>
       <c r="B648" t="n">
-        <v>-0.0122624153423559</v>
+        <v>-0.0358308052843442</v>
       </c>
       <c r="C648" t="n">
-        <v>0.971403605206783</v>
+        <v>0.902206265793108</v>
       </c>
       <c r="D648" t="n">
-        <v>0.0273691703947409</v>
+        <v>0.00352631637103595</v>
       </c>
       <c r="E648" t="n">
-        <v>0.909991883061061</v>
+        <v>0.987088901066</v>
       </c>
       <c r="F648" t="b">
         <v>0</v>
@@ -26512,10 +26509,10 @@
         <v>359</v>
       </c>
       <c r="J648" t="n">
-        <v>0.0396315857370968</v>
+        <v>0.0393571216553801</v>
       </c>
       <c r="K648" t="n">
-        <v>0.0396315857370968</v>
+        <v>0.0393571216553801</v>
       </c>
     </row>
     <row r="649">
@@ -26523,16 +26520,16 @@
         <v>1005</v>
       </c>
       <c r="B649" t="n">
-        <v>-0.0358308052843442</v>
+        <v>-0.0378215757574057</v>
       </c>
       <c r="C649" t="n">
-        <v>0.902206265793108</v>
+        <v>0.896589223031777</v>
       </c>
       <c r="D649" t="n">
-        <v>0.00352631637103595</v>
+        <v>0.0013760734435545</v>
       </c>
       <c r="E649" t="n">
-        <v>0.987088901066</v>
+        <v>0.99288186961626</v>
       </c>
       <c r="F649" t="b">
         <v>0</v>
@@ -26547,10 +26544,10 @@
         <v>359</v>
       </c>
       <c r="J649" t="n">
-        <v>0.0393571216553801</v>
+        <v>0.0391976492009602</v>
       </c>
       <c r="K649" t="n">
-        <v>0.0393571216553801</v>
+        <v>0.0391976492009602</v>
       </c>
     </row>
     <row r="650">
@@ -26558,16 +26555,16 @@
         <v>1006</v>
       </c>
       <c r="B650" t="n">
-        <v>-0.0378215757574057</v>
+        <v>-0.0377916815319454</v>
       </c>
       <c r="C650" t="n">
-        <v>0.896589223031777</v>
+        <v>0.906668883502884</v>
       </c>
       <c r="D650" t="n">
-        <v>0.0013760734435545</v>
+        <v>0.00126182479121407</v>
       </c>
       <c r="E650" t="n">
-        <v>0.99288186961626</v>
+        <v>0.995025783119345</v>
       </c>
       <c r="F650" t="b">
         <v>0</v>
@@ -26582,10 +26579,10 @@
         <v>359</v>
       </c>
       <c r="J650" t="n">
-        <v>0.0391976492009602</v>
+        <v>0.0390535063231595</v>
       </c>
       <c r="K650" t="n">
-        <v>0.0391976492009602</v>
+        <v>0.0390535063231595</v>
       </c>
     </row>
     <row r="651">
@@ -26593,16 +26590,16 @@
         <v>1007</v>
       </c>
       <c r="B651" t="n">
-        <v>-0.0377916815319454</v>
+        <v>-0.0184463368861304</v>
       </c>
       <c r="C651" t="n">
-        <v>0.906668883502884</v>
+        <v>0.944615145398824</v>
       </c>
       <c r="D651" t="n">
-        <v>0.00126182479121407</v>
+        <v>0.0203404522907624</v>
       </c>
       <c r="E651" t="n">
-        <v>0.995025783119345</v>
+        <v>0.918914134185104</v>
       </c>
       <c r="F651" t="b">
         <v>0</v>
@@ -26617,10 +26614,10 @@
         <v>359</v>
       </c>
       <c r="J651" t="n">
-        <v>0.0390535063231595</v>
+        <v>0.0387867891768928</v>
       </c>
       <c r="K651" t="n">
-        <v>0.0390535063231595</v>
+        <v>0.0387867891768928</v>
       </c>
     </row>
     <row r="652">
@@ -26628,16 +26625,16 @@
         <v>1008</v>
       </c>
       <c r="B652" t="n">
-        <v>-0.0184463368861304</v>
+        <v>-0.0191589555776738</v>
       </c>
       <c r="C652" t="n">
-        <v>0.944615145398824</v>
+        <v>0.955116993739344</v>
       </c>
       <c r="D652" t="n">
-        <v>0.0203404522907624</v>
+        <v>0.0193628895053523</v>
       </c>
       <c r="E652" t="n">
-        <v>0.918914134185104</v>
+        <v>0.926529406783378</v>
       </c>
       <c r="F652" t="b">
         <v>0</v>
@@ -26652,10 +26649,10 @@
         <v>359</v>
       </c>
       <c r="J652" t="n">
-        <v>0.0387867891768928</v>
+        <v>0.0385218450830261</v>
       </c>
       <c r="K652" t="n">
-        <v>0.0387867891768928</v>
+        <v>0.0385218450830261</v>
       </c>
     </row>
     <row r="653">
@@ -26663,16 +26660,16 @@
         <v>1009</v>
       </c>
       <c r="B653" t="n">
-        <v>-0.0191589555776738</v>
+        <v>-0.0179710529640607</v>
       </c>
       <c r="C653" t="n">
-        <v>0.955116993739344</v>
+        <v>0.950437432351971</v>
       </c>
       <c r="D653" t="n">
-        <v>0.0193628895053523</v>
+        <v>0.0204699912131816</v>
       </c>
       <c r="E653" t="n">
-        <v>0.926529406783378</v>
+        <v>0.898369822510395</v>
       </c>
       <c r="F653" t="b">
         <v>0</v>
@@ -26687,10 +26684,10 @@
         <v>359</v>
       </c>
       <c r="J653" t="n">
-        <v>0.0385218450830261</v>
+        <v>0.0384410441772423</v>
       </c>
       <c r="K653" t="n">
-        <v>0.0385218450830261</v>
+        <v>0.0384410441772423</v>
       </c>
     </row>
     <row r="654">
@@ -26698,16 +26695,16 @@
         <v>1010</v>
       </c>
       <c r="B654" t="n">
-        <v>-0.0179710529640607</v>
+        <v>0.0362313032907523</v>
       </c>
       <c r="C654" t="n">
-        <v>0.950437432351971</v>
+        <v>0.952100684164904</v>
       </c>
       <c r="D654" t="n">
-        <v>0.0204699912131816</v>
+        <v>-0.00198856519068512</v>
       </c>
       <c r="E654" t="n">
-        <v>0.898369822510395</v>
+        <v>0.995406209139464</v>
       </c>
       <c r="F654" t="b">
         <v>0</v>
@@ -26722,10 +26719,10 @@
         <v>359</v>
       </c>
       <c r="J654" t="n">
-        <v>0.0384410441772423</v>
+        <v>-0.0382198684814374</v>
       </c>
       <c r="K654" t="n">
-        <v>0.0384410441772423</v>
+        <v>0.0382198684814374</v>
       </c>
     </row>
     <row r="655">
@@ -26733,16 +26730,16 @@
         <v>1011</v>
       </c>
       <c r="B655" t="n">
-        <v>0.0362313032907523</v>
+        <v>-0.0005661289638469</v>
       </c>
       <c r="C655" t="n">
-        <v>0.952100684164904</v>
+        <v>0.998467083993919</v>
       </c>
       <c r="D655" t="n">
-        <v>-0.00198856519068512</v>
+        <v>0.0375075219768945</v>
       </c>
       <c r="E655" t="n">
-        <v>0.995406209139464</v>
+        <v>0.782722725559416</v>
       </c>
       <c r="F655" t="b">
         <v>0</v>
@@ -26757,10 +26754,10 @@
         <v>359</v>
       </c>
       <c r="J655" t="n">
-        <v>-0.0382198684814374</v>
+        <v>0.0380736509407414</v>
       </c>
       <c r="K655" t="n">
-        <v>0.0382198684814374</v>
+        <v>0.0380736509407414</v>
       </c>
     </row>
     <row r="656">
@@ -26768,16 +26765,16 @@
         <v>1012</v>
       </c>
       <c r="B656" t="n">
-        <v>-0.00056612896384695</v>
+        <v>-0.0372453265773734</v>
       </c>
       <c r="C656" t="n">
-        <v>0.998467083993919</v>
+        <v>0.88095069692357</v>
       </c>
       <c r="D656" t="n">
-        <v>0.0375075219768945</v>
+        <v>0.00073631458216271</v>
       </c>
       <c r="E656" t="n">
-        <v>0.782722725559416</v>
+        <v>0.996839747492303</v>
       </c>
       <c r="F656" t="b">
         <v>0</v>
@@ -26792,10 +26789,10 @@
         <v>359</v>
       </c>
       <c r="J656" t="n">
-        <v>0.0380736509407415</v>
+        <v>0.0379816411595361</v>
       </c>
       <c r="K656" t="n">
-        <v>0.0380736509407415</v>
+        <v>0.0379816411595361</v>
       </c>
     </row>
     <row r="657">
@@ -26803,16 +26800,16 @@
         <v>1013</v>
       </c>
       <c r="B657" t="n">
-        <v>-0.0372453265773734</v>
+        <v>-0.0338343281031519</v>
       </c>
       <c r="C657" t="n">
-        <v>0.88095069692357</v>
+        <v>0.933358491283702</v>
       </c>
       <c r="D657" t="n">
-        <v>0.00073631458216271</v>
+        <v>0.00395779672791176</v>
       </c>
       <c r="E657" t="n">
-        <v>0.996839747492303</v>
+        <v>0.988570568432852</v>
       </c>
       <c r="F657" t="b">
         <v>0</v>
@@ -26827,10 +26824,10 @@
         <v>359</v>
       </c>
       <c r="J657" t="n">
-        <v>0.0379816411595361</v>
+        <v>0.0377921248310637</v>
       </c>
       <c r="K657" t="n">
-        <v>0.0379816411595361</v>
+        <v>0.0377921248310637</v>
       </c>
     </row>
     <row r="658">
@@ -26838,16 +26835,16 @@
         <v>1014</v>
       </c>
       <c r="B658" t="n">
-        <v>-0.0338343281031519</v>
+        <v>-0.0265700289206443</v>
       </c>
       <c r="C658" t="n">
-        <v>0.933358491283702</v>
+        <v>0.938291063995957</v>
       </c>
       <c r="D658" t="n">
-        <v>0.00395779672791176</v>
+        <v>0.0107778274221822</v>
       </c>
       <c r="E658" t="n">
-        <v>0.988570568432852</v>
+        <v>0.959610174424922</v>
       </c>
       <c r="F658" t="b">
         <v>0</v>
@@ -26862,10 +26859,10 @@
         <v>359</v>
       </c>
       <c r="J658" t="n">
-        <v>0.0377921248310637</v>
+        <v>0.0373478563428265</v>
       </c>
       <c r="K658" t="n">
-        <v>0.0377921248310637</v>
+        <v>0.0373478563428265</v>
       </c>
     </row>
     <row r="659">
@@ -26873,16 +26870,16 @@
         <v>1015</v>
       </c>
       <c r="B659" t="n">
-        <v>-0.0265700289206443</v>
+        <v>-0.0318230390441795</v>
       </c>
       <c r="C659" t="n">
-        <v>0.938291063995957</v>
+        <v>0.936099522507121</v>
       </c>
       <c r="D659" t="n">
-        <v>0.0107778274221822</v>
+        <v>0.00547174770277083</v>
       </c>
       <c r="E659" t="n">
-        <v>0.959610174424922</v>
+        <v>0.983521406417765</v>
       </c>
       <c r="F659" t="b">
         <v>0</v>
@@ -26897,10 +26894,10 @@
         <v>359</v>
       </c>
       <c r="J659" t="n">
-        <v>0.0373478563428265</v>
+        <v>0.0372947867469503</v>
       </c>
       <c r="K659" t="n">
-        <v>0.0373478563428265</v>
+        <v>0.0372947867469503</v>
       </c>
     </row>
     <row r="660">
@@ -26908,16 +26905,16 @@
         <v>1016</v>
       </c>
       <c r="B660" t="n">
-        <v>-0.0318230390441795</v>
+        <v>-0.0329197977329286</v>
       </c>
       <c r="C660" t="n">
-        <v>0.936099522507121</v>
+        <v>0.896125926202174</v>
       </c>
       <c r="D660" t="n">
-        <v>0.00547174770277083</v>
+        <v>0.00431857672462204</v>
       </c>
       <c r="E660" t="n">
-        <v>0.983521406417765</v>
+        <v>0.981615498663238</v>
       </c>
       <c r="F660" t="b">
         <v>0</v>
@@ -26932,10 +26929,10 @@
         <v>359</v>
       </c>
       <c r="J660" t="n">
-        <v>0.0372947867469503</v>
+        <v>0.0372383744575506</v>
       </c>
       <c r="K660" t="n">
-        <v>0.0372947867469503</v>
+        <v>0.0372383744575506</v>
       </c>
     </row>
     <row r="661">
@@ -26943,16 +26940,16 @@
         <v>1017</v>
       </c>
       <c r="B661" t="n">
-        <v>-0.0329197977329286</v>
+        <v>-0.0142882986010027</v>
       </c>
       <c r="C661" t="n">
-        <v>0.896125926202174</v>
+        <v>0.956702982520569</v>
       </c>
       <c r="D661" t="n">
-        <v>0.00431857672462204</v>
+        <v>0.0226602485134808</v>
       </c>
       <c r="E661" t="n">
-        <v>0.981615498663238</v>
+        <v>0.913273007754942</v>
       </c>
       <c r="F661" t="b">
         <v>0</v>
@@ -26967,10 +26964,10 @@
         <v>359</v>
       </c>
       <c r="J661" t="n">
-        <v>0.0372383744575506</v>
+        <v>0.0369485471144835</v>
       </c>
       <c r="K661" t="n">
-        <v>0.0372383744575506</v>
+        <v>0.0369485471144835</v>
       </c>
     </row>
     <row r="662">
@@ -26978,16 +26975,16 @@
         <v>1018</v>
       </c>
       <c r="B662" t="n">
-        <v>-0.0142882986010027</v>
+        <v>-0.0105705837003707</v>
       </c>
       <c r="C662" t="n">
-        <v>0.956702982520569</v>
+        <v>0.973656609890832</v>
       </c>
       <c r="D662" t="n">
-        <v>0.0226602485134808</v>
+        <v>0.0260028253643437</v>
       </c>
       <c r="E662" t="n">
-        <v>0.913273007754942</v>
+        <v>0.901263984039544</v>
       </c>
       <c r="F662" t="b">
         <v>0</v>
@@ -27002,10 +26999,10 @@
         <v>359</v>
       </c>
       <c r="J662" t="n">
-        <v>0.0369485471144835</v>
+        <v>0.0365734090647144</v>
       </c>
       <c r="K662" t="n">
-        <v>0.0369485471144835</v>
+        <v>0.0365734090647144</v>
       </c>
     </row>
     <row r="663">
@@ -27013,16 +27010,16 @@
         <v>1019</v>
       </c>
       <c r="B663" t="n">
-        <v>-0.0105705837003707</v>
+        <v>-0.0082731763864519</v>
       </c>
       <c r="C663" t="n">
-        <v>0.973656609890832</v>
+        <v>0.989678602719635</v>
       </c>
       <c r="D663" t="n">
-        <v>0.0260028253643437</v>
+        <v>0.0282819821240823</v>
       </c>
       <c r="E663" t="n">
-        <v>0.901263984039544</v>
+        <v>0.946746625352413</v>
       </c>
       <c r="F663" t="b">
         <v>0</v>
@@ -27037,10 +27034,10 @@
         <v>359</v>
       </c>
       <c r="J663" t="n">
-        <v>0.0365734090647144</v>
+        <v>0.0365551585105342</v>
       </c>
       <c r="K663" t="n">
-        <v>0.0365734090647144</v>
+        <v>0.0365551585105342</v>
       </c>
     </row>
     <row r="664">
@@ -27048,16 +27045,16 @@
         <v>1020</v>
       </c>
       <c r="B664" t="n">
-        <v>-0.00827317638645191</v>
+        <v>-0.0328555608455255</v>
       </c>
       <c r="C664" t="n">
-        <v>0.989678602719635</v>
+        <v>0.897033659252306</v>
       </c>
       <c r="D664" t="n">
-        <v>0.0282819821240823</v>
+        <v>0.00368300005976809</v>
       </c>
       <c r="E664" t="n">
-        <v>0.946746625352413</v>
+        <v>0.983469594737047</v>
       </c>
       <c r="F664" t="b">
         <v>0</v>
@@ -27072,10 +27069,10 @@
         <v>359</v>
       </c>
       <c r="J664" t="n">
-        <v>0.0365551585105342</v>
+        <v>0.0365385609052936</v>
       </c>
       <c r="K664" t="n">
-        <v>0.0365551585105342</v>
+        <v>0.0365385609052936</v>
       </c>
     </row>
     <row r="665">
@@ -27083,16 +27080,16 @@
         <v>1021</v>
       </c>
       <c r="B665" t="n">
-        <v>-0.0328555608455255</v>
+        <v>-0.0297425919401099</v>
       </c>
       <c r="C665" t="n">
-        <v>0.897033659252306</v>
+        <v>0.907765506105761</v>
       </c>
       <c r="D665" t="n">
-        <v>0.00368300005976809</v>
+        <v>0.00595053192310102</v>
       </c>
       <c r="E665" t="n">
-        <v>0.983469594737047</v>
+        <v>0.96908750055499</v>
       </c>
       <c r="F665" t="b">
         <v>0</v>
@@ -27107,10 +27104,10 @@
         <v>359</v>
       </c>
       <c r="J665" t="n">
-        <v>0.0365385609052936</v>
+        <v>0.0356931238632109</v>
       </c>
       <c r="K665" t="n">
-        <v>0.0365385609052936</v>
+        <v>0.0356931238632109</v>
       </c>
     </row>
     <row r="666">
@@ -27118,16 +27115,16 @@
         <v>1022</v>
       </c>
       <c r="B666" t="n">
-        <v>-0.0297425919401099</v>
+        <v>-0.0157816905605744</v>
       </c>
       <c r="C666" t="n">
-        <v>0.907765506105761</v>
+        <v>0.961295452151724</v>
       </c>
       <c r="D666" t="n">
-        <v>0.00595053192310102</v>
+        <v>0.019312659286964</v>
       </c>
       <c r="E666" t="n">
-        <v>0.96908750055499</v>
+        <v>0.928490199285846</v>
       </c>
       <c r="F666" t="b">
         <v>0</v>
@@ -27142,10 +27139,10 @@
         <v>359</v>
       </c>
       <c r="J666" t="n">
-        <v>0.0356931238632109</v>
+        <v>0.0350943498475384</v>
       </c>
       <c r="K666" t="n">
-        <v>0.0356931238632109</v>
+        <v>0.0350943498475384</v>
       </c>
     </row>
     <row r="667">
@@ -27153,16 +27150,16 @@
         <v>1023</v>
       </c>
       <c r="B667" t="n">
-        <v>-0.0157816905605744</v>
+        <v>-0.028029138482439</v>
       </c>
       <c r="C667" t="n">
-        <v>0.961295452151724</v>
+        <v>0.92310004204369</v>
       </c>
       <c r="D667" t="n">
-        <v>0.019312659286964</v>
+        <v>0.00703860838264564</v>
       </c>
       <c r="E667" t="n">
-        <v>0.928490199285846</v>
+        <v>0.968764315441796</v>
       </c>
       <c r="F667" t="b">
         <v>0</v>
@@ -27177,10 +27174,10 @@
         <v>359</v>
       </c>
       <c r="J667" t="n">
-        <v>0.0350943498475384</v>
+        <v>0.0350677468650846</v>
       </c>
       <c r="K667" t="n">
-        <v>0.0350943498475384</v>
+        <v>0.0350677468650846</v>
       </c>
     </row>
     <row r="668">
@@ -27188,16 +27185,16 @@
         <v>1024</v>
       </c>
       <c r="B668" t="n">
-        <v>-0.028029138482439</v>
+        <v>-0.0339787143376571</v>
       </c>
       <c r="C668" t="n">
-        <v>0.92310004204369</v>
+        <v>0.935647729794827</v>
       </c>
       <c r="D668" t="n">
-        <v>0.00703860838264564</v>
+        <v>0.00081373745208571</v>
       </c>
       <c r="E668" t="n">
-        <v>0.968764315441796</v>
+        <v>0.997446248920654</v>
       </c>
       <c r="F668" t="b">
         <v>0</v>
@@ -27212,10 +27209,10 @@
         <v>359</v>
       </c>
       <c r="J668" t="n">
-        <v>0.0350677468650846</v>
+        <v>0.0347924517897428</v>
       </c>
       <c r="K668" t="n">
-        <v>0.0350677468650846</v>
+        <v>0.0347924517897428</v>
       </c>
     </row>
     <row r="669">
@@ -27223,16 +27220,16 @@
         <v>1025</v>
       </c>
       <c r="B669" t="n">
-        <v>-0.0339787143376571</v>
+        <v>-0.0159630528856813</v>
       </c>
       <c r="C669" t="n">
-        <v>0.935647729794827</v>
+        <v>0.979034185939347</v>
       </c>
       <c r="D669" t="n">
-        <v>0.00081373745208571</v>
+        <v>0.0187162917690946</v>
       </c>
       <c r="E669" t="n">
-        <v>0.997446248920654</v>
+        <v>0.965047163982282</v>
       </c>
       <c r="F669" t="b">
         <v>0</v>
@@ -27247,10 +27244,10 @@
         <v>359</v>
       </c>
       <c r="J669" t="n">
-        <v>0.0347924517897428</v>
+        <v>0.0346793446547759</v>
       </c>
       <c r="K669" t="n">
-        <v>0.0347924517897428</v>
+        <v>0.0346793446547759</v>
       </c>
     </row>
     <row r="670">
@@ -27258,16 +27255,16 @@
         <v>1026</v>
       </c>
       <c r="B670" t="n">
-        <v>-0.0159630528856813</v>
+        <v>-0.0063312893107558</v>
       </c>
       <c r="C670" t="n">
-        <v>0.979034185939347</v>
+        <v>0.992799203028115</v>
       </c>
       <c r="D670" t="n">
-        <v>0.0187162917690946</v>
+        <v>0.0280642741490786</v>
       </c>
       <c r="E670" t="n">
-        <v>0.965047163982282</v>
+        <v>0.956333644349567</v>
       </c>
       <c r="F670" t="b">
         <v>0</v>
@@ -27282,10 +27279,10 @@
         <v>359</v>
       </c>
       <c r="J670" t="n">
-        <v>0.0346793446547759</v>
+        <v>0.0343955634598344</v>
       </c>
       <c r="K670" t="n">
-        <v>0.0346793446547759</v>
+        <v>0.0343955634598344</v>
       </c>
     </row>
     <row r="671">
@@ -27293,16 +27290,16 @@
         <v>1027</v>
       </c>
       <c r="B671" t="n">
-        <v>-0.0063312893107558</v>
+        <v>-0.0099104847570676</v>
       </c>
       <c r="C671" t="n">
-        <v>0.992799203028115</v>
+        <v>0.981403479553125</v>
       </c>
       <c r="D671" t="n">
-        <v>0.0280642741490786</v>
+        <v>0.0243894180775988</v>
       </c>
       <c r="E671" t="n">
-        <v>0.956333644349567</v>
+        <v>0.930351263645899</v>
       </c>
       <c r="F671" t="b">
         <v>0</v>
@@ -27317,10 +27314,10 @@
         <v>359</v>
       </c>
       <c r="J671" t="n">
-        <v>0.0343955634598344</v>
+        <v>0.0342999028346664</v>
       </c>
       <c r="K671" t="n">
-        <v>0.0343955634598344</v>
+        <v>0.0342999028346664</v>
       </c>
     </row>
     <row r="672">
@@ -27328,16 +27325,16 @@
         <v>1028</v>
       </c>
       <c r="B672" t="n">
-        <v>-0.00991048475706768</v>
+        <v>-0.0184369901239166</v>
       </c>
       <c r="C672" t="n">
-        <v>0.981403479553125</v>
+        <v>0.96013495023279</v>
       </c>
       <c r="D672" t="n">
-        <v>0.0243894180775988</v>
+        <v>0.0158425564164943</v>
       </c>
       <c r="E672" t="n">
-        <v>0.930351263645899</v>
+        <v>0.954388779222419</v>
       </c>
       <c r="F672" t="b">
         <v>0</v>
@@ -27352,10 +27349,10 @@
         <v>359</v>
       </c>
       <c r="J672" t="n">
-        <v>0.0342999028346665</v>
+        <v>0.0342795465404109</v>
       </c>
       <c r="K672" t="n">
-        <v>0.0342999028346665</v>
+        <v>0.0342795465404109</v>
       </c>
     </row>
     <row r="673">
@@ -27363,16 +27360,16 @@
         <v>1029</v>
       </c>
       <c r="B673" t="n">
-        <v>-0.0184369901239166</v>
+        <v>-0.0318868822165662</v>
       </c>
       <c r="C673" t="n">
-        <v>0.96013495023279</v>
+        <v>0.929310244142939</v>
       </c>
       <c r="D673" t="n">
-        <v>0.0158425564164943</v>
+        <v>0.00237338698284634</v>
       </c>
       <c r="E673" t="n">
-        <v>0.954388779222419</v>
+        <v>0.99112625607517</v>
       </c>
       <c r="F673" t="b">
         <v>0</v>
@@ -27387,10 +27384,10 @@
         <v>359</v>
       </c>
       <c r="J673" t="n">
-        <v>0.0342795465404109</v>
+        <v>0.0342602691994125</v>
       </c>
       <c r="K673" t="n">
-        <v>0.0342795465404109</v>
+        <v>0.0342602691994125</v>
       </c>
     </row>
     <row r="674">
@@ -27398,16 +27395,16 @@
         <v>1030</v>
       </c>
       <c r="B674" t="n">
-        <v>-0.0318868822165662</v>
+        <v>-0.0169371386355056</v>
       </c>
       <c r="C674" t="n">
-        <v>0.929310244142939</v>
+        <v>0.952217561650717</v>
       </c>
       <c r="D674" t="n">
-        <v>0.00237338698284634</v>
+        <v>0.0173040497911507</v>
       </c>
       <c r="E674" t="n">
-        <v>0.99112625607517</v>
+        <v>0.914878610292367</v>
       </c>
       <c r="F674" t="b">
         <v>0</v>
@@ -27422,10 +27419,10 @@
         <v>359</v>
       </c>
       <c r="J674" t="n">
-        <v>0.0342602691994125</v>
+        <v>0.0342411884266563</v>
       </c>
       <c r="K674" t="n">
-        <v>0.0342602691994125</v>
+        <v>0.0342411884266563</v>
       </c>
     </row>
     <row r="675">
@@ -27433,16 +27430,16 @@
         <v>1031</v>
       </c>
       <c r="B675" t="n">
-        <v>-0.0169371386355056</v>
+        <v>-0.0290456120237274</v>
       </c>
       <c r="C675" t="n">
-        <v>0.952217561650717</v>
+        <v>0.956871170141635</v>
       </c>
       <c r="D675" t="n">
-        <v>0.0173040497911507</v>
+        <v>0.00500315019593269</v>
       </c>
       <c r="E675" t="n">
-        <v>0.914878610292367</v>
+        <v>0.988599160181146</v>
       </c>
       <c r="F675" t="b">
         <v>0</v>
@@ -27457,10 +27454,10 @@
         <v>359</v>
       </c>
       <c r="J675" t="n">
-        <v>0.0342411884266563</v>
+        <v>0.0340487622196601</v>
       </c>
       <c r="K675" t="n">
-        <v>0.0342411884266563</v>
+        <v>0.0340487622196601</v>
       </c>
     </row>
     <row r="676">
@@ -27468,16 +27465,16 @@
         <v>1032</v>
       </c>
       <c r="B676" t="n">
-        <v>-0.0290456120237274</v>
+        <v>-0.0072161703622184</v>
       </c>
       <c r="C676" t="n">
-        <v>0.956871170141635</v>
+        <v>0.981427882391161</v>
       </c>
       <c r="D676" t="n">
-        <v>0.00500315019593269</v>
+        <v>0.0268058485867864</v>
       </c>
       <c r="E676" t="n">
-        <v>0.988599160181146</v>
+        <v>0.871147933137199</v>
       </c>
       <c r="F676" t="b">
         <v>0</v>
@@ -27492,10 +27489,10 @@
         <v>359</v>
       </c>
       <c r="J676" t="n">
-        <v>0.0340487622196601</v>
+        <v>0.0340220189490048</v>
       </c>
       <c r="K676" t="n">
-        <v>0.0340487622196601</v>
+        <v>0.0340220189490048</v>
       </c>
     </row>
     <row r="677">
@@ -27503,16 +27500,16 @@
         <v>1033</v>
       </c>
       <c r="B677" t="n">
-        <v>-0.00721617036221845</v>
+        <v>-0.0309840950653286</v>
       </c>
       <c r="C677" t="n">
-        <v>0.981427882391161</v>
+        <v>0.949914956149761</v>
       </c>
       <c r="D677" t="n">
-        <v>0.0268058485867864</v>
+        <v>0.00292818949704889</v>
       </c>
       <c r="E677" t="n">
-        <v>0.871147933137199</v>
+        <v>0.99288186961626</v>
       </c>
       <c r="F677" t="b">
         <v>0</v>
@@ -27527,10 +27524,10 @@
         <v>359</v>
       </c>
       <c r="J677" t="n">
-        <v>0.0340220189490048</v>
+        <v>0.0339122845623775</v>
       </c>
       <c r="K677" t="n">
-        <v>0.0340220189490048</v>
+        <v>0.0339122845623775</v>
       </c>
     </row>
     <row r="678">
@@ -27538,16 +27535,16 @@
         <v>1034</v>
       </c>
       <c r="B678" t="n">
-        <v>-0.0309840950653286</v>
+        <v>-0.0307588987263406</v>
       </c>
       <c r="C678" t="n">
-        <v>0.949914956149761</v>
+        <v>0.947062992940675</v>
       </c>
       <c r="D678" t="n">
-        <v>0.00292818949704889</v>
+        <v>0.00309625312478815</v>
       </c>
       <c r="E678" t="n">
-        <v>0.99288186961626</v>
+        <v>0.992283564505545</v>
       </c>
       <c r="F678" t="b">
         <v>0</v>
@@ -27562,10 +27559,10 @@
         <v>359</v>
       </c>
       <c r="J678" t="n">
-        <v>0.0339122845623775</v>
+        <v>0.0338551518511288</v>
       </c>
       <c r="K678" t="n">
-        <v>0.0339122845623775</v>
+        <v>0.0338551518511288</v>
       </c>
     </row>
     <row r="679">
@@ -27573,16 +27570,16 @@
         <v>1035</v>
       </c>
       <c r="B679" t="n">
-        <v>-0.0307588987263406</v>
+        <v>-0.0038854968233089</v>
       </c>
       <c r="C679" t="n">
-        <v>0.947062992940675</v>
+        <v>0.988461960048917</v>
       </c>
       <c r="D679" t="n">
-        <v>0.00309625312478815</v>
+        <v>0.0299098812632485</v>
       </c>
       <c r="E679" t="n">
-        <v>0.992283564505545</v>
+        <v>0.844713493184014</v>
       </c>
       <c r="F679" t="b">
         <v>0</v>
@@ -27597,10 +27594,10 @@
         <v>359</v>
       </c>
       <c r="J679" t="n">
-        <v>0.0338551518511288</v>
+        <v>0.0337953780865574</v>
       </c>
       <c r="K679" t="n">
-        <v>0.0338551518511288</v>
+        <v>0.0337953780865574</v>
       </c>
     </row>
     <row r="680">
@@ -27608,16 +27605,16 @@
         <v>1036</v>
       </c>
       <c r="B680" t="n">
-        <v>-0.00388549682330897</v>
+        <v>-0.0003563618228093</v>
       </c>
       <c r="C680" t="n">
-        <v>0.988461960048917</v>
+        <v>0.99932993475263</v>
       </c>
       <c r="D680" t="n">
-        <v>0.0299098812632485</v>
+        <v>0.0329442630750833</v>
       </c>
       <c r="E680" t="n">
-        <v>0.844713493184014</v>
+        <v>0.869069957874356</v>
       </c>
       <c r="F680" t="b">
         <v>0</v>
@@ -27632,10 +27629,10 @@
         <v>359</v>
       </c>
       <c r="J680" t="n">
-        <v>0.0337953780865575</v>
+        <v>0.0333006248978926</v>
       </c>
       <c r="K680" t="n">
-        <v>0.0337953780865575</v>
+        <v>0.0333006248978926</v>
       </c>
     </row>
     <row r="681">
@@ -27643,16 +27640,16 @@
         <v>1037</v>
       </c>
       <c r="B681" t="n">
-        <v>-0.00035636182280935</v>
+        <v>-0.0323468178667853</v>
       </c>
       <c r="C681" t="n">
-        <v>0.99932993475263</v>
+        <v>0.898377815350798</v>
       </c>
       <c r="D681" t="n">
-        <v>0.0329442630750833</v>
+        <v>0.00093644346909871</v>
       </c>
       <c r="E681" t="n">
-        <v>0.869069957874356</v>
+        <v>0.994962576325872</v>
       </c>
       <c r="F681" t="b">
         <v>0</v>
@@ -27667,10 +27664,10 @@
         <v>359</v>
       </c>
       <c r="J681" t="n">
-        <v>0.0333006248978927</v>
+        <v>0.033283261335884</v>
       </c>
       <c r="K681" t="n">
-        <v>0.0333006248978927</v>
+        <v>0.033283261335884</v>
       </c>
     </row>
     <row r="682">
@@ -27678,16 +27675,16 @@
         <v>1038</v>
       </c>
       <c r="B682" t="n">
-        <v>-0.0323468178667853</v>
+        <v>-0.0151709564218478</v>
       </c>
       <c r="C682" t="n">
-        <v>0.898377815350798</v>
+        <v>0.956636981097888</v>
       </c>
       <c r="D682" t="n">
-        <v>0.00093644346909871</v>
+        <v>0.0177789635552221</v>
       </c>
       <c r="E682" t="n">
-        <v>0.994962576325872</v>
+        <v>0.917405099245831</v>
       </c>
       <c r="F682" t="b">
         <v>0</v>
@@ -27702,10 +27699,10 @@
         <v>359</v>
       </c>
       <c r="J682" t="n">
-        <v>0.033283261335884</v>
+        <v>0.0329499199770699</v>
       </c>
       <c r="K682" t="n">
-        <v>0.033283261335884</v>
+        <v>0.0329499199770699</v>
       </c>
     </row>
     <row r="683">
@@ -27713,16 +27710,16 @@
         <v>1039</v>
       </c>
       <c r="B683" t="n">
-        <v>-0.0151709564218478</v>
+        <v>-0.0232932350567699</v>
       </c>
       <c r="C683" t="n">
-        <v>0.956636981097888</v>
+        <v>0.94320021754842</v>
       </c>
       <c r="D683" t="n">
-        <v>0.0177789635552221</v>
+        <v>0.0095943166614337</v>
       </c>
       <c r="E683" t="n">
-        <v>0.917405099245831</v>
+        <v>0.967740673041694</v>
       </c>
       <c r="F683" t="b">
         <v>0</v>
@@ -27737,10 +27734,10 @@
         <v>359</v>
       </c>
       <c r="J683" t="n">
-        <v>0.0329499199770699</v>
+        <v>0.0328875517182036</v>
       </c>
       <c r="K683" t="n">
-        <v>0.0329499199770699</v>
+        <v>0.0328875517182036</v>
       </c>
     </row>
     <row r="684">
@@ -27748,16 +27745,16 @@
         <v>1040</v>
       </c>
       <c r="B684" t="n">
-        <v>-0.0232932350567699</v>
+        <v>-0.0078315408796432</v>
       </c>
       <c r="C684" t="n">
-        <v>0.94320021754842</v>
+        <v>0.984552206029736</v>
       </c>
       <c r="D684" t="n">
-        <v>0.0095943166614337</v>
+        <v>0.0248553775110642</v>
       </c>
       <c r="E684" t="n">
-        <v>0.967740673041694</v>
+        <v>0.925690225126922</v>
       </c>
       <c r="F684" t="b">
         <v>0</v>
@@ -27772,10 +27769,10 @@
         <v>359</v>
       </c>
       <c r="J684" t="n">
-        <v>0.0328875517182036</v>
+        <v>0.0326869183907074</v>
       </c>
       <c r="K684" t="n">
-        <v>0.0328875517182036</v>
+        <v>0.0326869183907074</v>
       </c>
     </row>
     <row r="685">
@@ -27783,16 +27780,16 @@
         <v>1041</v>
       </c>
       <c r="B685" t="n">
-        <v>-0.00783154087964327</v>
+        <v>-0.0246670015914782</v>
       </c>
       <c r="C685" t="n">
-        <v>0.984552206029736</v>
+        <v>0.958190216125776</v>
       </c>
       <c r="D685" t="n">
-        <v>0.0248553775110642</v>
+        <v>0.00758727103116986</v>
       </c>
       <c r="E685" t="n">
-        <v>0.925690225126922</v>
+        <v>0.981556657625911</v>
       </c>
       <c r="F685" t="b">
         <v>0</v>
@@ -27807,10 +27804,10 @@
         <v>359</v>
       </c>
       <c r="J685" t="n">
-        <v>0.0326869183907075</v>
+        <v>0.0322542726226481</v>
       </c>
       <c r="K685" t="n">
-        <v>0.0326869183907075</v>
+        <v>0.0322542726226481</v>
       </c>
     </row>
     <row r="686">
@@ -27818,16 +27815,16 @@
         <v>1042</v>
       </c>
       <c r="B686" t="n">
-        <v>-0.0246670015914782</v>
+        <v>-0.0252400547725893</v>
       </c>
       <c r="C686" t="n">
-        <v>0.958190216125776</v>
+        <v>0.949769762897516</v>
       </c>
       <c r="D686" t="n">
-        <v>0.00758727103116986</v>
+        <v>0.00699804682680878</v>
       </c>
       <c r="E686" t="n">
-        <v>0.981556657625911</v>
+        <v>0.976815563145522</v>
       </c>
       <c r="F686" t="b">
         <v>0</v>
@@ -27842,10 +27839,10 @@
         <v>359</v>
       </c>
       <c r="J686" t="n">
-        <v>0.0322542726226481</v>
+        <v>0.0322381015993981</v>
       </c>
       <c r="K686" t="n">
-        <v>0.0322542726226481</v>
+        <v>0.0322381015993981</v>
       </c>
     </row>
     <row r="687">
@@ -27853,16 +27850,16 @@
         <v>1043</v>
       </c>
       <c r="B687" t="n">
-        <v>-0.0252400547725893</v>
+        <v>-0.0043357507363717</v>
       </c>
       <c r="C687" t="n">
-        <v>0.949769762897516</v>
+        <v>0.989098945843812</v>
       </c>
       <c r="D687" t="n">
-        <v>0.00699804682680878</v>
+        <v>0.0278620531901525</v>
       </c>
       <c r="E687" t="n">
-        <v>0.976815563145522</v>
+        <v>0.907244388957209</v>
       </c>
       <c r="F687" t="b">
         <v>0</v>
@@ -27877,10 +27874,10 @@
         <v>359</v>
       </c>
       <c r="J687" t="n">
-        <v>0.0322381015993981</v>
+        <v>0.0321978039265242</v>
       </c>
       <c r="K687" t="n">
-        <v>0.0322381015993981</v>
+        <v>0.0321978039265242</v>
       </c>
     </row>
     <row r="688">
@@ -27888,16 +27885,16 @@
         <v>1044</v>
       </c>
       <c r="B688" t="n">
-        <v>-0.00433575073637172</v>
+        <v>-0.0021913123223742</v>
       </c>
       <c r="C688" t="n">
-        <v>0.989098945843812</v>
+        <v>0.996564573250862</v>
       </c>
       <c r="D688" t="n">
-        <v>0.0278620531901525</v>
+        <v>0.0294580072769204</v>
       </c>
       <c r="E688" t="n">
-        <v>0.907244388957209</v>
+        <v>0.925141458818208</v>
       </c>
       <c r="F688" t="b">
         <v>0</v>
@@ -27912,10 +27909,10 @@
         <v>359</v>
       </c>
       <c r="J688" t="n">
-        <v>0.0321978039265242</v>
+        <v>0.0316493195992946</v>
       </c>
       <c r="K688" t="n">
-        <v>0.0321978039265242</v>
+        <v>0.0316493195992946</v>
       </c>
     </row>
     <row r="689">
@@ -27923,16 +27920,16 @@
         <v>1045</v>
       </c>
       <c r="B689" t="n">
-        <v>-0.00219131232237422</v>
+        <v>-0.0307952718525559</v>
       </c>
       <c r="C689" t="n">
-        <v>0.996564573250862</v>
+        <v>0.919757230968392</v>
       </c>
       <c r="D689" t="n">
-        <v>0.0294580072769204</v>
+        <v>0.00067240418823118</v>
       </c>
       <c r="E689" t="n">
-        <v>0.925141458818208</v>
+        <v>0.997446248920654</v>
       </c>
       <c r="F689" t="b">
         <v>0</v>
@@ -27947,10 +27944,10 @@
         <v>359</v>
       </c>
       <c r="J689" t="n">
-        <v>0.0316493195992946</v>
+        <v>0.0314676760407871</v>
       </c>
       <c r="K689" t="n">
-        <v>0.0316493195992946</v>
+        <v>0.0314676760407871</v>
       </c>
     </row>
     <row r="690">
@@ -27958,16 +27955,16 @@
         <v>1046</v>
       </c>
       <c r="B690" t="n">
-        <v>-0.0307952718525559</v>
+        <v>-0.0204970780073116</v>
       </c>
       <c r="C690" t="n">
-        <v>0.919757230968392</v>
+        <v>0.942816421487825</v>
       </c>
       <c r="D690" t="n">
-        <v>0.00067240418823118</v>
+        <v>0.0107738579302504</v>
       </c>
       <c r="E690" t="n">
-        <v>0.997446248920654</v>
+        <v>0.956952633573346</v>
       </c>
       <c r="F690" t="b">
         <v>0</v>
@@ -27982,10 +27979,10 @@
         <v>359</v>
       </c>
       <c r="J690" t="n">
-        <v>0.0314676760407871</v>
+        <v>0.031270935937562</v>
       </c>
       <c r="K690" t="n">
-        <v>0.0314676760407871</v>
+        <v>0.031270935937562</v>
       </c>
     </row>
     <row r="691">
@@ -27993,16 +27990,16 @@
         <v>1047</v>
       </c>
       <c r="B691" t="n">
-        <v>-0.0204970780073116</v>
+        <v>-0.0132413775220823</v>
       </c>
       <c r="C691" t="n">
-        <v>0.942816421487825</v>
+        <v>0.961026285605636</v>
       </c>
       <c r="D691" t="n">
-        <v>0.0107738579302504</v>
+        <v>0.0179664148421134</v>
       </c>
       <c r="E691" t="n">
-        <v>0.956952633573346</v>
+        <v>0.924628589371734</v>
       </c>
       <c r="F691" t="b">
         <v>0</v>
@@ -28017,10 +28014,10 @@
         <v>359</v>
       </c>
       <c r="J691" t="n">
-        <v>0.031270935937562</v>
+        <v>0.0312077923641957</v>
       </c>
       <c r="K691" t="n">
-        <v>0.031270935937562</v>
+        <v>0.0312077923641957</v>
       </c>
     </row>
     <row r="692">
@@ -28028,16 +28025,16 @@
         <v>1048</v>
       </c>
       <c r="B692" t="n">
-        <v>-0.0132413775220823</v>
+        <v>-0.0132412025590763</v>
       </c>
       <c r="C692" t="n">
-        <v>0.961026285605636</v>
+        <v>0.96338528110679</v>
       </c>
       <c r="D692" t="n">
-        <v>0.0179664148421134</v>
+        <v>0.0179468144647652</v>
       </c>
       <c r="E692" t="n">
-        <v>0.924628589371734</v>
+        <v>0.914878610292367</v>
       </c>
       <c r="F692" t="b">
         <v>0</v>
@@ -28052,10 +28049,10 @@
         <v>359</v>
       </c>
       <c r="J692" t="n">
-        <v>0.0312077923641957</v>
+        <v>0.0311880170238415</v>
       </c>
       <c r="K692" t="n">
-        <v>0.0312077923641957</v>
+        <v>0.0311880170238415</v>
       </c>
     </row>
     <row r="693">
@@ -28063,16 +28060,16 @@
         <v>1049</v>
       </c>
       <c r="B693" t="n">
-        <v>-0.0132412025590763</v>
+        <v>-0.0034848381701944</v>
       </c>
       <c r="C693" t="n">
-        <v>0.96338528110679</v>
+        <v>0.995799873099048</v>
       </c>
       <c r="D693" t="n">
-        <v>0.0179468144647652</v>
+        <v>0.0273151548685541</v>
       </c>
       <c r="E693" t="n">
-        <v>0.914878610292367</v>
+        <v>0.937835701278646</v>
       </c>
       <c r="F693" t="b">
         <v>0</v>
@@ -28087,10 +28084,10 @@
         <v>359</v>
       </c>
       <c r="J693" t="n">
-        <v>0.0311880170238415</v>
+        <v>0.0307999930387485</v>
       </c>
       <c r="K693" t="n">
-        <v>0.0311880170238415</v>
+        <v>0.0307999930387485</v>
       </c>
     </row>
     <row r="694">
@@ -28098,16 +28095,16 @@
         <v>1050</v>
       </c>
       <c r="B694" t="n">
-        <v>-0.0034848381701944</v>
+        <v>-0.0050648030830986</v>
       </c>
       <c r="C694" t="n">
-        <v>0.995799873099048</v>
+        <v>0.988461960048917</v>
       </c>
       <c r="D694" t="n">
-        <v>0.0273151548685541</v>
+        <v>0.0256875549671726</v>
       </c>
       <c r="E694" t="n">
-        <v>0.937835701278646</v>
+        <v>0.919264023943349</v>
       </c>
       <c r="F694" t="b">
         <v>0</v>
@@ -28122,10 +28119,10 @@
         <v>359</v>
       </c>
       <c r="J694" t="n">
-        <v>0.0307999930387485</v>
+        <v>0.0307523580502712</v>
       </c>
       <c r="K694" t="n">
-        <v>0.0307999930387485</v>
+        <v>0.0307523580502712</v>
       </c>
     </row>
     <row r="695">
@@ -28133,16 +28130,16 @@
         <v>1051</v>
       </c>
       <c r="B695" t="n">
-        <v>-0.00506480308309864</v>
+        <v>-0.0245323240128956</v>
       </c>
       <c r="C695" t="n">
-        <v>0.988461960048917</v>
+        <v>0.968224175754709</v>
       </c>
       <c r="D695" t="n">
-        <v>0.0256875549671726</v>
+        <v>0.00618156537751066</v>
       </c>
       <c r="E695" t="n">
-        <v>0.919264023943349</v>
+        <v>0.988533258284657</v>
       </c>
       <c r="F695" t="b">
         <v>0</v>
@@ -28157,10 +28154,10 @@
         <v>359</v>
       </c>
       <c r="J695" t="n">
-        <v>0.0307523580502712</v>
+        <v>0.0307138893904063</v>
       </c>
       <c r="K695" t="n">
-        <v>0.0307523580502712</v>
+        <v>0.0307138893904063</v>
       </c>
     </row>
     <row r="696">
@@ -28168,16 +28165,16 @@
         <v>1052</v>
       </c>
       <c r="B696" t="n">
-        <v>-0.0245323240128956</v>
+        <v>-0.0178731658723183</v>
       </c>
       <c r="C696" t="n">
-        <v>0.968224175754709</v>
+        <v>0.96013495023279</v>
       </c>
       <c r="D696" t="n">
-        <v>0.00618156537751066</v>
+        <v>0.0127221322472012</v>
       </c>
       <c r="E696" t="n">
-        <v>0.988533258284657</v>
+        <v>0.961388822935167</v>
       </c>
       <c r="F696" t="b">
         <v>0</v>
@@ -28192,10 +28189,10 @@
         <v>359</v>
       </c>
       <c r="J696" t="n">
-        <v>0.0307138893904063</v>
+        <v>0.0305952981195195</v>
       </c>
       <c r="K696" t="n">
-        <v>0.0307138893904063</v>
+        <v>0.0305952981195195</v>
       </c>
     </row>
     <row r="697">
@@ -28203,16 +28200,16 @@
         <v>1053</v>
       </c>
       <c r="B697" t="n">
-        <v>-0.0178731658723183</v>
+        <v>-0.0165202177377848</v>
       </c>
       <c r="C697" t="n">
-        <v>0.96013495023279</v>
+        <v>0.967056951360132</v>
       </c>
       <c r="D697" t="n">
-        <v>0.0127221322472012</v>
+        <v>0.0138688261046592</v>
       </c>
       <c r="E697" t="n">
-        <v>0.961388822935167</v>
+        <v>0.959610174424922</v>
       </c>
       <c r="F697" t="b">
         <v>0</v>
@@ -28227,10 +28224,10 @@
         <v>359</v>
       </c>
       <c r="J697" t="n">
-        <v>0.0305952981195195</v>
+        <v>0.030389043842444</v>
       </c>
       <c r="K697" t="n">
-        <v>0.0305952981195195</v>
+        <v>0.030389043842444</v>
       </c>
     </row>
     <row r="698">
@@ -28238,16 +28235,16 @@
         <v>1054</v>
       </c>
       <c r="B698" t="n">
-        <v>-0.0165202177377848</v>
+        <v>-0.0145604215379599</v>
       </c>
       <c r="C698" t="n">
-        <v>0.967056951360132</v>
+        <v>0.97819925995513</v>
       </c>
       <c r="D698" t="n">
-        <v>0.0138688261046592</v>
+        <v>0.0158254921483579</v>
       </c>
       <c r="E698" t="n">
-        <v>0.959610174424922</v>
+        <v>0.966654071595406</v>
       </c>
       <c r="F698" t="b">
         <v>0</v>
@@ -28262,10 +28259,10 @@
         <v>359</v>
       </c>
       <c r="J698" t="n">
-        <v>0.030389043842444</v>
+        <v>0.0303859136863178</v>
       </c>
       <c r="K698" t="n">
-        <v>0.030389043842444</v>
+        <v>0.0303859136863178</v>
       </c>
     </row>
     <row r="699">
@@ -28273,16 +28270,16 @@
         <v>1055</v>
       </c>
       <c r="B699" t="n">
-        <v>-0.0145604215379599</v>
+        <v>-0.0230506415743879</v>
       </c>
       <c r="C699" t="n">
-        <v>0.97819925995513</v>
+        <v>0.968689315511406</v>
       </c>
       <c r="D699" t="n">
-        <v>0.0158254921483579</v>
+        <v>0.00707828312517937</v>
       </c>
       <c r="E699" t="n">
-        <v>0.966654071595406</v>
+        <v>0.984496937841043</v>
       </c>
       <c r="F699" t="b">
         <v>0</v>
@@ -28297,10 +28294,10 @@
         <v>359</v>
       </c>
       <c r="J699" t="n">
-        <v>0.0303859136863178</v>
+        <v>0.0301289246995673</v>
       </c>
       <c r="K699" t="n">
-        <v>0.0303859136863178</v>
+        <v>0.0301289246995673</v>
       </c>
     </row>
     <row r="700">
@@ -28308,16 +28305,16 @@
         <v>1056</v>
       </c>
       <c r="B700" t="n">
-        <v>-0.0230506415743879</v>
+        <v>-0.0293931350250018</v>
       </c>
       <c r="C700" t="n">
-        <v>0.968689315511406</v>
+        <v>0.93848182534674</v>
       </c>
       <c r="D700" t="n">
-        <v>0.00707828312517937</v>
+        <v>0.0007311894210731</v>
       </c>
       <c r="E700" t="n">
-        <v>0.984496937841043</v>
+        <v>0.997446248920654</v>
       </c>
       <c r="F700" t="b">
         <v>0</v>
@@ -28332,10 +28329,10 @@
         <v>359</v>
       </c>
       <c r="J700" t="n">
-        <v>0.0301289246995673</v>
+        <v>0.0301243244460749</v>
       </c>
       <c r="K700" t="n">
-        <v>0.0301289246995673</v>
+        <v>0.0301243244460749</v>
       </c>
     </row>
     <row r="701">
@@ -28343,16 +28340,16 @@
         <v>1057</v>
       </c>
       <c r="B701" t="n">
-        <v>-0.0293931350250018</v>
+        <v>-0.0254860177778123</v>
       </c>
       <c r="C701" t="n">
-        <v>0.93848182534674</v>
+        <v>0.944065844290822</v>
       </c>
       <c r="D701" t="n">
-        <v>0.0007311894210731</v>
+        <v>0.00436058803960001</v>
       </c>
       <c r="E701" t="n">
-        <v>0.997446248920654</v>
+        <v>0.986654917431913</v>
       </c>
       <c r="F701" t="b">
         <v>0</v>
@@ -28367,10 +28364,10 @@
         <v>359</v>
       </c>
       <c r="J701" t="n">
-        <v>0.0301243244460749</v>
+        <v>0.0298466058174123</v>
       </c>
       <c r="K701" t="n">
-        <v>0.0301243244460749</v>
+        <v>0.0298466058174123</v>
       </c>
     </row>
     <row r="702">
@@ -28378,16 +28375,16 @@
         <v>1058</v>
       </c>
       <c r="B702" t="n">
-        <v>-0.0254860177778123</v>
+        <v>-0.0246628865028743</v>
       </c>
       <c r="C702" t="n">
-        <v>0.944065844290822</v>
+        <v>0.933795416981573</v>
       </c>
       <c r="D702" t="n">
-        <v>0.00436058803960001</v>
+        <v>0.00485953879239882</v>
       </c>
       <c r="E702" t="n">
-        <v>0.986654917431913</v>
+        <v>0.982394262143529</v>
       </c>
       <c r="F702" t="b">
         <v>0</v>
@@ -28402,10 +28399,10 @@
         <v>359</v>
       </c>
       <c r="J702" t="n">
-        <v>0.0298466058174123</v>
+        <v>0.0295224252952731</v>
       </c>
       <c r="K702" t="n">
-        <v>0.0298466058174123</v>
+        <v>0.0295224252952731</v>
       </c>
     </row>
     <row r="703">
@@ -28413,16 +28410,16 @@
         <v>1059</v>
       </c>
       <c r="B703" t="n">
-        <v>-0.0246628865028743</v>
+        <v>-0.0267396393352387</v>
       </c>
       <c r="C703" t="n">
-        <v>0.933795416981573</v>
+        <v>0.956256760309153</v>
       </c>
       <c r="D703" t="n">
-        <v>0.00485953879239882</v>
+        <v>0.0022797112400864</v>
       </c>
       <c r="E703" t="n">
-        <v>0.982394262143529</v>
+        <v>0.993696436560846</v>
       </c>
       <c r="F703" t="b">
         <v>0</v>
@@ -28437,10 +28434,10 @@
         <v>359</v>
       </c>
       <c r="J703" t="n">
-        <v>0.0295224252952731</v>
+        <v>0.0290193505753251</v>
       </c>
       <c r="K703" t="n">
-        <v>0.0295224252952731</v>
+        <v>0.0290193505753251</v>
       </c>
     </row>
     <row r="704">
@@ -28448,16 +28445,16 @@
         <v>1060</v>
       </c>
       <c r="B704" t="n">
-        <v>-0.0267396393352387</v>
+        <v>-0.0111337696271065</v>
       </c>
       <c r="C704" t="n">
-        <v>0.956256760309153</v>
+        <v>0.966637504722615</v>
       </c>
       <c r="D704" t="n">
-        <v>0.0022797112400864</v>
+        <v>0.0178385299196989</v>
       </c>
       <c r="E704" t="n">
-        <v>0.993696436560846</v>
+        <v>0.925937525389802</v>
       </c>
       <c r="F704" t="b">
         <v>0</v>
@@ -28472,10 +28469,10 @@
         <v>359</v>
       </c>
       <c r="J704" t="n">
-        <v>0.0290193505753251</v>
+        <v>0.0289722995468054</v>
       </c>
       <c r="K704" t="n">
-        <v>0.0290193505753251</v>
+        <v>0.0289722995468054</v>
       </c>
     </row>
     <row r="705">
@@ -28483,16 +28480,16 @@
         <v>1061</v>
       </c>
       <c r="B705" t="n">
-        <v>-0.0111337696271065</v>
+        <v>-0.0112629908508878</v>
       </c>
       <c r="C705" t="n">
-        <v>0.966637504722615</v>
+        <v>0.965385632635569</v>
       </c>
       <c r="D705" t="n">
-        <v>0.0178385299196989</v>
+        <v>0.0174981830793771</v>
       </c>
       <c r="E705" t="n">
-        <v>0.925937525389802</v>
+        <v>0.929885985702345</v>
       </c>
       <c r="F705" t="b">
         <v>0</v>
@@ -28507,10 +28504,10 @@
         <v>359</v>
       </c>
       <c r="J705" t="n">
-        <v>0.0289722995468054</v>
+        <v>0.0287611739302649</v>
       </c>
       <c r="K705" t="n">
-        <v>0.0289722995468054</v>
+        <v>0.0287611739302649</v>
       </c>
     </row>
     <row r="706">
@@ -28518,16 +28515,16 @@
         <v>1062</v>
       </c>
       <c r="B706" t="n">
-        <v>-0.0112629908508878</v>
+        <v>-0.0280876439627726</v>
       </c>
       <c r="C706" t="n">
-        <v>0.965385632635569</v>
+        <v>0.948310625645327</v>
       </c>
       <c r="D706" t="n">
-        <v>0.0174981830793771</v>
+        <v>0.00044635039328297</v>
       </c>
       <c r="E706" t="n">
-        <v>0.929885985702345</v>
+        <v>0.998722189735822</v>
       </c>
       <c r="F706" t="b">
         <v>0</v>
@@ -28542,10 +28539,10 @@
         <v>359</v>
       </c>
       <c r="J706" t="n">
-        <v>0.0287611739302649</v>
+        <v>0.0285339943560556</v>
       </c>
       <c r="K706" t="n">
-        <v>0.0287611739302649</v>
+        <v>0.0285339943560556</v>
       </c>
     </row>
     <row r="707">
@@ -28553,16 +28550,16 @@
         <v>1063</v>
       </c>
       <c r="B707" t="n">
-        <v>-0.0280876439627726</v>
+        <v>-0.0129477572836661</v>
       </c>
       <c r="C707" t="n">
-        <v>0.948310625645327</v>
+        <v>0.982213205638448</v>
       </c>
       <c r="D707" t="n">
-        <v>0.00044635039328297</v>
+        <v>0.0154325180672794</v>
       </c>
       <c r="E707" t="n">
-        <v>0.998722189735822</v>
+        <v>0.970369434898427</v>
       </c>
       <c r="F707" t="b">
         <v>0</v>
@@ -28577,10 +28574,10 @@
         <v>359</v>
       </c>
       <c r="J707" t="n">
-        <v>0.0285339943560556</v>
+        <v>0.0283802753509455</v>
       </c>
       <c r="K707" t="n">
-        <v>0.0285339943560556</v>
+        <v>0.0283802753509455</v>
       </c>
     </row>
     <row r="708">
@@ -28588,16 +28585,16 @@
         <v>1064</v>
       </c>
       <c r="B708" t="n">
-        <v>-0.0129477572836661</v>
+        <v>-0.0264226561243175</v>
       </c>
       <c r="C708" t="n">
-        <v>0.982213205638448</v>
+        <v>0.91722871702408</v>
       </c>
       <c r="D708" t="n">
-        <v>0.0154325180672794</v>
+        <v>0.00132928415975393</v>
       </c>
       <c r="E708" t="n">
-        <v>0.970369434898427</v>
+        <v>0.993327682211691</v>
       </c>
       <c r="F708" t="b">
         <v>0</v>
@@ -28612,10 +28609,10 @@
         <v>359</v>
       </c>
       <c r="J708" t="n">
-        <v>0.0283802753509455</v>
+        <v>0.0277519402840714</v>
       </c>
       <c r="K708" t="n">
-        <v>0.0283802753509455</v>
+        <v>0.0277519402840714</v>
       </c>
     </row>
     <row r="709">
@@ -28623,16 +28620,16 @@
         <v>1065</v>
       </c>
       <c r="B709" t="n">
-        <v>-0.0264226561243175</v>
+        <v>-0.0212257182327498</v>
       </c>
       <c r="C709" t="n">
-        <v>0.91722871702408</v>
+        <v>0.942816421487825</v>
       </c>
       <c r="D709" t="n">
-        <v>0.00132928415975393</v>
+        <v>0.00647439251820875</v>
       </c>
       <c r="E709" t="n">
-        <v>0.993327682211691</v>
+        <v>0.98142519951548</v>
       </c>
       <c r="F709" t="b">
         <v>0</v>
@@ -28647,10 +28644,10 @@
         <v>359</v>
       </c>
       <c r="J709" t="n">
-        <v>0.0277519402840714</v>
+        <v>0.0277001107509585</v>
       </c>
       <c r="K709" t="n">
-        <v>0.0277519402840714</v>
+        <v>0.0277001107509585</v>
       </c>
     </row>
     <row r="710">
@@ -28658,16 +28655,16 @@
         <v>1066</v>
       </c>
       <c r="B710" t="n">
-        <v>-0.0212257182327498</v>
+        <v>-0.0232060205543553</v>
       </c>
       <c r="C710" t="n">
-        <v>0.942816421487825</v>
+        <v>0.944421282238318</v>
       </c>
       <c r="D710" t="n">
-        <v>0.00647439251820875</v>
+        <v>0.00377089258524222</v>
       </c>
       <c r="E710" t="n">
-        <v>0.98142519951548</v>
+        <v>0.983949889083263</v>
       </c>
       <c r="F710" t="b">
         <v>0</v>
@@ -28682,10 +28679,10 @@
         <v>359</v>
       </c>
       <c r="J710" t="n">
-        <v>0.0277001107509585</v>
+        <v>0.0269769131395975</v>
       </c>
       <c r="K710" t="n">
-        <v>0.0277001107509585</v>
+        <v>0.0269769131395975</v>
       </c>
     </row>
     <row r="711">
@@ -28693,16 +28690,16 @@
         <v>1067</v>
       </c>
       <c r="B711" t="n">
-        <v>-0.0232060205543553</v>
+        <v>-0.0155081263567073</v>
       </c>
       <c r="C711" t="n">
-        <v>0.944421282238318</v>
+        <v>0.960055123697247</v>
       </c>
       <c r="D711" t="n">
-        <v>0.00377089258524222</v>
+        <v>0.0110955482354865</v>
       </c>
       <c r="E711" t="n">
-        <v>0.983949889083263</v>
+        <v>0.959610174424922</v>
       </c>
       <c r="F711" t="b">
         <v>0</v>
@@ -28717,10 +28714,10 @@
         <v>359</v>
       </c>
       <c r="J711" t="n">
-        <v>0.0269769131395975</v>
+        <v>0.0266036745921938</v>
       </c>
       <c r="K711" t="n">
-        <v>0.0269769131395975</v>
+        <v>0.0266036745921938</v>
       </c>
     </row>
     <row r="712">
@@ -28728,16 +28725,16 @@
         <v>1068</v>
       </c>
       <c r="B712" t="n">
-        <v>-0.0155081263567073</v>
+        <v>-0.0025541802412978</v>
       </c>
       <c r="C712" t="n">
-        <v>0.960055123697247</v>
+        <v>0.995182600766071</v>
       </c>
       <c r="D712" t="n">
-        <v>0.0110955482354865</v>
+        <v>0.0239762542683761</v>
       </c>
       <c r="E712" t="n">
-        <v>0.959610174424922</v>
+        <v>0.913364300268872</v>
       </c>
       <c r="F712" t="b">
         <v>0</v>
@@ -28752,10 +28749,10 @@
         <v>359</v>
       </c>
       <c r="J712" t="n">
-        <v>0.0266036745921938</v>
+        <v>0.0265304345096739</v>
       </c>
       <c r="K712" t="n">
-        <v>0.0266036745921938</v>
+        <v>0.0265304345096739</v>
       </c>
     </row>
     <row r="713">
@@ -28763,16 +28760,16 @@
         <v>1069</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.00255418024129789</v>
+        <v>-0.0229414520331554</v>
       </c>
       <c r="C713" t="n">
-        <v>0.995182600766071</v>
+        <v>0.954847416104337</v>
       </c>
       <c r="D713" t="n">
-        <v>0.0239762542683761</v>
+        <v>0.00283468803775605</v>
       </c>
       <c r="E713" t="n">
-        <v>0.913364300268872</v>
+        <v>0.988599160181146</v>
       </c>
       <c r="F713" t="b">
         <v>0</v>
@@ -28787,10 +28784,10 @@
         <v>359</v>
       </c>
       <c r="J713" t="n">
-        <v>0.026530434509674</v>
+        <v>0.0257761400709114</v>
       </c>
       <c r="K713" t="n">
-        <v>0.026530434509674</v>
+        <v>0.0257761400709114</v>
       </c>
     </row>
     <row r="714">
@@ -28798,16 +28795,16 @@
         <v>1070</v>
       </c>
       <c r="B714" t="n">
-        <v>-0.0229414520331554</v>
+        <v>-0.0101665382247194</v>
       </c>
       <c r="C714" t="n">
-        <v>0.954847416104337</v>
+        <v>0.975288149217873</v>
       </c>
       <c r="D714" t="n">
-        <v>0.00283468803775605</v>
+        <v>0.015575026989263</v>
       </c>
       <c r="E714" t="n">
-        <v>0.988599160181146</v>
+        <v>0.938986551297542</v>
       </c>
       <c r="F714" t="b">
         <v>0</v>
@@ -28822,10 +28819,10 @@
         <v>359</v>
       </c>
       <c r="J714" t="n">
-        <v>0.0257761400709114</v>
+        <v>0.0257415652139824</v>
       </c>
       <c r="K714" t="n">
-        <v>0.0257761400709114</v>
+        <v>0.0257415652139824</v>
       </c>
     </row>
     <row r="715">
@@ -28833,16 +28830,16 @@
         <v>1071</v>
       </c>
       <c r="B715" t="n">
-        <v>-0.0101665382247194</v>
+        <v>-0.0038734472215898</v>
       </c>
       <c r="C715" t="n">
-        <v>0.975288149217873</v>
+        <v>0.990735168880097</v>
       </c>
       <c r="D715" t="n">
-        <v>0.015575026989263</v>
+        <v>0.0213476288747885</v>
       </c>
       <c r="E715" t="n">
-        <v>0.938986551297542</v>
+        <v>0.925690225126922</v>
       </c>
       <c r="F715" t="b">
         <v>0</v>
@@ -28857,10 +28854,10 @@
         <v>359</v>
       </c>
       <c r="J715" t="n">
-        <v>0.0257415652139824</v>
+        <v>0.0252210760963783</v>
       </c>
       <c r="K715" t="n">
-        <v>0.0257415652139824</v>
+        <v>0.0252210760963783</v>
       </c>
     </row>
     <row r="716">
@@ -28868,16 +28865,16 @@
         <v>1072</v>
       </c>
       <c r="B716" t="n">
-        <v>-0.00387344722158989</v>
+        <v>0.0017347150414844</v>
       </c>
       <c r="C716" t="n">
-        <v>0.990735168880097</v>
+        <v>0.997447640697893</v>
       </c>
       <c r="D716" t="n">
-        <v>0.0213476288747885</v>
+        <v>-0.0232562804271813</v>
       </c>
       <c r="E716" t="n">
-        <v>0.925690225126922</v>
+        <v>0.951107668727993</v>
       </c>
       <c r="F716" t="b">
         <v>0</v>
@@ -28892,10 +28889,10 @@
         <v>359</v>
       </c>
       <c r="J716" t="n">
-        <v>0.0252210760963784</v>
+        <v>-0.0249909954686657</v>
       </c>
       <c r="K716" t="n">
-        <v>0.0252210760963784</v>
+        <v>0.0249909954686657</v>
       </c>
     </row>
     <row r="717">
@@ -28903,16 +28900,16 @@
         <v>1073</v>
       </c>
       <c r="B717" t="n">
-        <v>0.00173471504148448</v>
+        <v>-0.0001070873470263</v>
       </c>
       <c r="C717" t="n">
-        <v>0.997447640697893</v>
+        <v>0.9997585031994</v>
       </c>
       <c r="D717" t="n">
-        <v>-0.0232562804271813</v>
+        <v>0.0242550500709897</v>
       </c>
       <c r="E717" t="n">
-        <v>0.951107668727993</v>
+        <v>0.919950622481313</v>
       </c>
       <c r="F717" t="b">
         <v>0</v>
@@ -28927,10 +28924,10 @@
         <v>359</v>
       </c>
       <c r="J717" t="n">
-        <v>-0.0249909954686658</v>
+        <v>0.024362137418016</v>
       </c>
       <c r="K717" t="n">
-        <v>0.0249909954686658</v>
+        <v>0.024362137418016</v>
       </c>
     </row>
     <row r="718">
@@ -28938,16 +28935,16 @@
         <v>1074</v>
       </c>
       <c r="B718" t="n">
-        <v>-0.00010708734702635</v>
+        <v>-0.0013059489996648</v>
       </c>
       <c r="C718" t="n">
-        <v>0.9997585031994</v>
+        <v>0.996564573250862</v>
       </c>
       <c r="D718" t="n">
-        <v>0.0242550500709897</v>
+        <v>0.0223697714315283</v>
       </c>
       <c r="E718" t="n">
-        <v>0.919950622481313</v>
+        <v>0.918069777906658</v>
       </c>
       <c r="F718" t="b">
         <v>0</v>
@@ -28962,10 +28959,10 @@
         <v>359</v>
       </c>
       <c r="J718" t="n">
-        <v>0.024362137418016</v>
+        <v>0.0236757204311931</v>
       </c>
       <c r="K718" t="n">
-        <v>0.024362137418016</v>
+        <v>0.0236757204311931</v>
       </c>
     </row>
     <row r="719">
@@ -28973,16 +28970,16 @@
         <v>1075</v>
       </c>
       <c r="B719" t="n">
-        <v>-0.00130594899966485</v>
+        <v>0.0075676635749015</v>
       </c>
       <c r="C719" t="n">
-        <v>0.996564573250862</v>
+        <v>0.988461960048917</v>
       </c>
       <c r="D719" t="n">
-        <v>0.0223697714315283</v>
+        <v>-0.0158503721946961</v>
       </c>
       <c r="E719" t="n">
-        <v>0.918069777906658</v>
+        <v>0.966619067761307</v>
       </c>
       <c r="F719" t="b">
         <v>0</v>
@@ -28997,10 +28994,10 @@
         <v>359</v>
       </c>
       <c r="J719" t="n">
-        <v>0.0236757204311931</v>
+        <v>-0.0234180357695976</v>
       </c>
       <c r="K719" t="n">
-        <v>0.0236757204311931</v>
+        <v>0.0234180357695976</v>
       </c>
     </row>
     <row r="720">
@@ -29008,16 +29005,16 @@
         <v>1076</v>
       </c>
       <c r="B720" t="n">
-        <v>0.00756766357490157</v>
+        <v>-0.0211140545527483</v>
       </c>
       <c r="C720" t="n">
-        <v>0.988461960048917</v>
+        <v>0.956636981097888</v>
       </c>
       <c r="D720" t="n">
-        <v>-0.0158503721946961</v>
+        <v>0.00223354853646659</v>
       </c>
       <c r="E720" t="n">
-        <v>0.966619067761307</v>
+        <v>0.993011212482329</v>
       </c>
       <c r="F720" t="b">
         <v>0</v>
@@ -29032,10 +29029,10 @@
         <v>359</v>
       </c>
       <c r="J720" t="n">
-        <v>-0.0234180357695977</v>
+        <v>0.0233476030892149</v>
       </c>
       <c r="K720" t="n">
-        <v>0.0234180357695977</v>
+        <v>0.0233476030892149</v>
       </c>
     </row>
     <row r="721">
@@ -29043,16 +29040,16 @@
         <v>1077</v>
       </c>
       <c r="B721" t="n">
-        <v>-0.0211140545527483</v>
+        <v>-0.0115877686049906</v>
       </c>
       <c r="C721" t="n">
-        <v>0.956636981097888</v>
+        <v>0.971794142711212</v>
       </c>
       <c r="D721" t="n">
-        <v>0.00223354853646659</v>
+        <v>0.0114685650163547</v>
       </c>
       <c r="E721" t="n">
-        <v>0.993011212482329</v>
+        <v>0.964536046550337</v>
       </c>
       <c r="F721" t="b">
         <v>0</v>
@@ -29067,10 +29064,10 @@
         <v>359</v>
       </c>
       <c r="J721" t="n">
-        <v>0.0233476030892149</v>
+        <v>0.0230563336213453</v>
       </c>
       <c r="K721" t="n">
-        <v>0.0233476030892149</v>
+        <v>0.0230563336213453</v>
       </c>
     </row>
     <row r="722">
@@ -29078,16 +29075,16 @@
         <v>1078</v>
       </c>
       <c r="B722" t="n">
-        <v>-0.0115877686049906</v>
+        <v>-0.0115211203160651</v>
       </c>
       <c r="C722" t="n">
-        <v>0.971794142711212</v>
+        <v>0.98378095577994</v>
       </c>
       <c r="D722" t="n">
-        <v>0.0114685650163547</v>
+        <v>0.0111315333660306</v>
       </c>
       <c r="E722" t="n">
-        <v>0.964536046550337</v>
+        <v>0.976395501569482</v>
       </c>
       <c r="F722" t="b">
         <v>0</v>
@@ -29102,10 +29099,10 @@
         <v>359</v>
       </c>
       <c r="J722" t="n">
-        <v>0.0230563336213453</v>
+        <v>0.0226526536820957</v>
       </c>
       <c r="K722" t="n">
-        <v>0.0230563336213453</v>
+        <v>0.0226526536820957</v>
       </c>
     </row>
     <row r="723">
@@ -29113,16 +29110,16 @@
         <v>1079</v>
       </c>
       <c r="B723" t="n">
-        <v>-0.0115211203160651</v>
+        <v>-0.0187196502855894</v>
       </c>
       <c r="C723" t="n">
-        <v>0.98378095577994</v>
+        <v>0.944615145398824</v>
       </c>
       <c r="D723" t="n">
-        <v>0.0111315333660306</v>
+        <v>0.00184420282664035</v>
       </c>
       <c r="E723" t="n">
-        <v>0.976395501569482</v>
+        <v>0.991798206480269</v>
       </c>
       <c r="F723" t="b">
         <v>0</v>
@@ -29137,10 +29134,10 @@
         <v>359</v>
       </c>
       <c r="J723" t="n">
-        <v>0.0226526536820957</v>
+        <v>0.0205638531122297</v>
       </c>
       <c r="K723" t="n">
-        <v>0.0226526536820957</v>
+        <v>0.0205638531122297</v>
       </c>
     </row>
     <row r="724">
@@ -29148,16 +29145,16 @@
         <v>1080</v>
       </c>
       <c r="B724" t="n">
-        <v>-0.0187196502855894</v>
+        <v>-0.0020263014921129</v>
       </c>
       <c r="C724" t="n">
-        <v>0.944615145398824</v>
+        <v>0.995799873099048</v>
       </c>
       <c r="D724" t="n">
-        <v>0.00184420282664035</v>
+        <v>0.0172734999066598</v>
       </c>
       <c r="E724" t="n">
-        <v>0.991798206480269</v>
+        <v>0.928205455800821</v>
       </c>
       <c r="F724" t="b">
         <v>0</v>
@@ -29172,10 +29169,10 @@
         <v>359</v>
       </c>
       <c r="J724" t="n">
-        <v>0.0205638531122297</v>
+        <v>0.0192998013987727</v>
       </c>
       <c r="K724" t="n">
-        <v>0.0205638531122297</v>
+        <v>0.0192998013987727</v>
       </c>
     </row>
     <row r="725">
@@ -29183,16 +29180,16 @@
         <v>1081</v>
       </c>
       <c r="B725" t="n">
-        <v>-0.00202630149211295</v>
+        <v>-0.0088410821344667</v>
       </c>
       <c r="C725" t="n">
-        <v>0.995799873099048</v>
+        <v>0.984552206029736</v>
       </c>
       <c r="D725" t="n">
-        <v>0.0172734999066598</v>
+        <v>0.0077733288929024</v>
       </c>
       <c r="E725" t="n">
-        <v>0.928205455800821</v>
+        <v>0.979633539732363</v>
       </c>
       <c r="F725" t="b">
         <v>0</v>
@@ -29207,10 +29204,10 @@
         <v>359</v>
       </c>
       <c r="J725" t="n">
-        <v>0.0192998013987727</v>
+        <v>0.0166144110273691</v>
       </c>
       <c r="K725" t="n">
-        <v>0.0192998013987727</v>
+        <v>0.0166144110273691</v>
       </c>
     </row>
     <row r="726">
@@ -29218,16 +29215,16 @@
         <v>1082</v>
       </c>
       <c r="B726" t="n">
-        <v>-0.00884108213446671</v>
+        <v>-0.013140291546015</v>
       </c>
       <c r="C726" t="n">
-        <v>0.984552206029736</v>
+        <v>0.985354294533372</v>
       </c>
       <c r="D726" t="n">
-        <v>0.0077733288929024</v>
+        <v>0.00330068569947044</v>
       </c>
       <c r="E726" t="n">
-        <v>0.979633539732363</v>
+        <v>0.993696436560846</v>
       </c>
       <c r="F726" t="b">
         <v>0</v>
@@ -29242,10 +29239,10 @@
         <v>359</v>
       </c>
       <c r="J726" t="n">
-        <v>0.0166144110273691</v>
+        <v>0.0164409772454854</v>
       </c>
       <c r="K726" t="n">
-        <v>0.0166144110273691</v>
+        <v>0.0164409772454854</v>
       </c>
     </row>
     <row r="727">
@@ -29253,16 +29250,16 @@
         <v>1083</v>
       </c>
       <c r="B727" t="n">
-        <v>-0.013140291546015</v>
+        <v>-0.0065704361990669</v>
       </c>
       <c r="C727" t="n">
-        <v>0.985354294533372</v>
+        <v>0.981403479553125</v>
       </c>
       <c r="D727" t="n">
-        <v>0.00330068569947044</v>
+        <v>0.00948284037665806</v>
       </c>
       <c r="E727" t="n">
-        <v>0.993696436560846</v>
+        <v>0.961904887048365</v>
       </c>
       <c r="F727" t="b">
         <v>0</v>
@@ -29277,10 +29274,10 @@
         <v>359</v>
       </c>
       <c r="J727" t="n">
-        <v>0.0164409772454854</v>
+        <v>0.016053276575725</v>
       </c>
       <c r="K727" t="n">
-        <v>0.0164409772454854</v>
+        <v>0.016053276575725</v>
       </c>
     </row>
     <row r="728">
@@ -29288,16 +29285,16 @@
         <v>1084</v>
       </c>
       <c r="B728" t="n">
-        <v>-0.00657043619906697</v>
+        <v>-0.0062371153416463</v>
       </c>
       <c r="C728" t="n">
-        <v>0.981403479553125</v>
+        <v>0.990036591309027</v>
       </c>
       <c r="D728" t="n">
-        <v>0.00948284037665806</v>
+        <v>0.00914651639512652</v>
       </c>
       <c r="E728" t="n">
-        <v>0.961904887048365</v>
+        <v>0.978833111585809</v>
       </c>
       <c r="F728" t="b">
         <v>0</v>
@@ -29312,10 +29309,10 @@
         <v>359</v>
       </c>
       <c r="J728" t="n">
-        <v>0.016053276575725</v>
+        <v>0.0153836317367728</v>
       </c>
       <c r="K728" t="n">
-        <v>0.016053276575725</v>
+        <v>0.0153836317367728</v>
       </c>
     </row>
     <row r="729">
@@ -29323,16 +29320,16 @@
         <v>1085</v>
       </c>
       <c r="B729" t="n">
-        <v>-0.00623711534164634</v>
+        <v>-0.0016881766040843</v>
       </c>
       <c r="C729" t="n">
-        <v>0.990036591309027</v>
+        <v>0.996564573250862</v>
       </c>
       <c r="D729" t="n">
-        <v>0.00914651639512652</v>
+        <v>0.0134304248594328</v>
       </c>
       <c r="E729" t="n">
-        <v>0.978833111585809</v>
+        <v>0.959610174424922</v>
       </c>
       <c r="F729" t="b">
         <v>0</v>
@@ -29347,10 +29344,10 @@
         <v>359</v>
       </c>
       <c r="J729" t="n">
-        <v>0.0153836317367729</v>
+        <v>0.0151186014635171</v>
       </c>
       <c r="K729" t="n">
-        <v>0.0153836317367729</v>
+        <v>0.0151186014635171</v>
       </c>
     </row>
     <row r="730">
@@ -29358,16 +29355,16 @@
         <v>1086</v>
       </c>
       <c r="B730" t="n">
-        <v>-0.00168817660408435</v>
+        <v>-0.0105482967245182</v>
       </c>
       <c r="C730" t="n">
-        <v>0.996564573250862</v>
+        <v>0.973656609890832</v>
       </c>
       <c r="D730" t="n">
-        <v>0.0134304248594328</v>
+        <v>0.00391604591363452</v>
       </c>
       <c r="E730" t="n">
-        <v>0.959610174424922</v>
+        <v>0.986654917431913</v>
       </c>
       <c r="F730" t="b">
         <v>0</v>
@@ -29382,10 +29379,10 @@
         <v>359</v>
       </c>
       <c r="J730" t="n">
-        <v>0.0151186014635172</v>
+        <v>0.0144643426381527</v>
       </c>
       <c r="K730" t="n">
-        <v>0.0151186014635172</v>
+        <v>0.0144643426381527</v>
       </c>
     </row>
     <row r="731">
@@ -29393,16 +29390,16 @@
         <v>1087</v>
       </c>
       <c r="B731" t="n">
-        <v>-0.0105482967245182</v>
+        <v>-0.0017538077654177</v>
       </c>
       <c r="C731" t="n">
-        <v>0.973656609890832</v>
+        <v>0.996889355650307</v>
       </c>
       <c r="D731" t="n">
-        <v>0.00391604591363452</v>
+        <v>0.0122826130332798</v>
       </c>
       <c r="E731" t="n">
-        <v>0.986654917431913</v>
+        <v>0.966582464273939</v>
       </c>
       <c r="F731" t="b">
         <v>0</v>
@@ -29417,10 +29414,10 @@
         <v>359</v>
       </c>
       <c r="J731" t="n">
-        <v>0.0144643426381527</v>
+        <v>0.0140364207986975</v>
       </c>
       <c r="K731" t="n">
-        <v>0.0144643426381527</v>
+        <v>0.0140364207986975</v>
       </c>
     </row>
     <row r="732">
@@ -29428,16 +29425,16 @@
         <v>1088</v>
       </c>
       <c r="B732" t="n">
-        <v>-0.00175380776541772</v>
+        <v>0.0028308957517062</v>
       </c>
       <c r="C732" t="n">
-        <v>0.996889355650307</v>
+        <v>0.994623934080329</v>
       </c>
       <c r="D732" t="n">
-        <v>0.0122826130332798</v>
+        <v>-0.00038667009793027</v>
       </c>
       <c r="E732" t="n">
-        <v>0.966582464273939</v>
+        <v>0.998686147311607</v>
       </c>
       <c r="F732" t="b">
         <v>0</v>
@@ -29452,10 +29449,10 @@
         <v>359</v>
       </c>
       <c r="J732" t="n">
-        <v>0.0140364207986975</v>
+        <v>-0.00321756584963647</v>
       </c>
       <c r="K732" t="n">
-        <v>0.0140364207986975</v>
+        <v>0.00321756584963647</v>
       </c>
     </row>
     <row r="733">
@@ -29463,16 +29460,16 @@
         <v>1089</v>
       </c>
       <c r="B733" t="n">
-        <v>0.00283089575170628</v>
+        <v>-0.0016127044317831</v>
       </c>
       <c r="C733" t="n">
-        <v>0.994623934080329</v>
+        <v>0.996889355650307</v>
       </c>
       <c r="D733" t="n">
-        <v>-0.00038667009793027</v>
+        <v>0.00078200346496172</v>
       </c>
       <c r="E733" t="n">
-        <v>0.998686147311607</v>
+        <v>0.997446248920654</v>
       </c>
       <c r="F733" t="b">
         <v>0</v>
@@ -29487,45 +29484,10 @@
         <v>359</v>
       </c>
       <c r="J733" t="n">
-        <v>-0.00321756584963655</v>
+        <v>0.00239470789674482</v>
       </c>
       <c r="K733" t="n">
-        <v>0.00321756584963655</v>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B734" t="n">
-        <v>-0.00161270443178312</v>
-      </c>
-      <c r="C734" t="n">
-        <v>0.996889355650307</v>
-      </c>
-      <c r="D734" t="n">
-        <v>0.00078200346496172</v>
-      </c>
-      <c r="E734" t="n">
-        <v>0.997446248920654</v>
-      </c>
-      <c r="F734" t="b">
-        <v>0</v>
-      </c>
-      <c r="G734" t="b">
-        <v>0</v>
-      </c>
-      <c r="H734" t="b">
-        <v>0</v>
-      </c>
-      <c r="I734" t="s">
-        <v>359</v>
-      </c>
-      <c r="J734" t="n">
-        <v>0.00239470789674484</v>
-      </c>
-      <c r="K734" t="n">
-        <v>0.00239470789674484</v>
+        <v>0.00239470789674482</v>
       </c>
     </row>
   </sheetData>
@@ -29544,49 +29506,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B1" t="s">
         <v>1091</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1092</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1093</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1094</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1095</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1096</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1097</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1098</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>1099</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1100</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>1101</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>1102</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>1103</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>1104</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1105</v>
       </c>
       <c r="P1" t="s">
         <v>28</v>
@@ -29597,25 +29559,25 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B2" t="n">
-        <v>8043</v>
+        <v>8027</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0675530789484193</v>
+        <v>0.0675874819433117</v>
       </c>
       <c r="D2" t="n">
-        <v>0.140232091025708</v>
+        <v>0.140349991792106</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0549981929350877</v>
+        <v>-0.0550180995112747</v>
       </c>
       <c r="F2" t="n">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0911</v>
+        <v>0.0912</v>
       </c>
       <c r="H2" t="n">
         <v>226</v>
@@ -29636,10 +29598,10 @@
         <v>0.9211</v>
       </c>
       <c r="N2" t="n">
-        <v>0.209</v>
+        <v>0.2121</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7313</v>
+        <v>0.7273</v>
       </c>
       <c r="P2" t="n">
         <v>0.4734</v>
